--- a/experiment_results/16168P1.xlsx
+++ b/experiment_results/16168P1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1287"/>
+  <dimension ref="A1:I1342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -696,7 +696,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Aerial Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Aerial Tours']</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -771,7 +771,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -1221,7 +1221,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1746,7 +1746,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'City Tours']</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -1971,7 +1971,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
@@ -2046,7 +2046,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -2421,7 +2421,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
@@ -2571,7 +2571,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
@@ -2646,7 +2646,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
@@ -2721,7 +2721,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
@@ -2946,7 +2946,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
@@ -3171,7 +3171,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
@@ -3621,7 +3621,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -3846,7 +3846,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Dining Experiences', 'Performing Arts']</t>
+          <t>Category: ['Performing Arts', 'Dining Experiences', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B224" t="inlineStr"/>
@@ -4746,7 +4746,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B284" t="inlineStr"/>
@@ -4821,7 +4821,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B289" t="inlineStr"/>
@@ -5046,7 +5046,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B304" t="inlineStr"/>
@@ -5121,7 +5121,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B309" t="inlineStr"/>
@@ -5271,7 +5271,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B319" t="inlineStr"/>
@@ -5346,7 +5346,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Water Sports', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Water Sports', 'Wine and Beverage Tastings', 'City Tours']</t>
         </is>
       </c>
       <c r="B324" t="inlineStr"/>
@@ -5571,7 +5571,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B339" t="inlineStr"/>
@@ -5721,7 +5721,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours', 'Dining Experiences']</t>
+          <t>Category: ['Scenic Tours', 'Dining Experiences', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B349" t="inlineStr"/>
@@ -6246,7 +6246,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B384" t="inlineStr"/>
@@ -6396,7 +6396,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Dining Experiences']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B394" t="inlineStr"/>
@@ -6621,7 +6621,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B409" t="inlineStr"/>
@@ -6771,7 +6771,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B419" t="inlineStr"/>
@@ -6996,7 +6996,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B434" t="inlineStr"/>
@@ -7221,7 +7221,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B449" t="inlineStr"/>
@@ -7521,7 +7521,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Dining Experiences']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B469" t="inlineStr"/>
@@ -7746,7 +7746,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours', 'Dining Experiences']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Dining Experiences', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B484" t="inlineStr"/>
@@ -8121,7 +8121,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B509" t="inlineStr"/>
@@ -8271,7 +8271,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours', 'Performing Arts']</t>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Performing Arts']</t>
         </is>
       </c>
       <c r="B519" t="inlineStr"/>
@@ -8346,7 +8346,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B524" t="inlineStr"/>
@@ -8496,7 +8496,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B534" t="inlineStr"/>
@@ -8571,7 +8571,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B539" t="inlineStr"/>
@@ -8796,7 +8796,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Performing Arts']</t>
+          <t>Category: ['Culinary Tours', 'Performing Arts', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B554" t="inlineStr"/>
@@ -9021,7 +9021,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B569" t="inlineStr"/>
@@ -9171,7 +9171,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B579" t="inlineStr"/>
@@ -9321,7 +9321,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B589" t="inlineStr"/>
@@ -9546,7 +9546,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'City Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B604" t="inlineStr"/>
@@ -9771,7 +9771,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B619" t="inlineStr"/>
@@ -10221,7 +10221,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B649" t="inlineStr"/>
@@ -10521,7 +10521,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B669" t="inlineStr"/>
@@ -11196,7 +11196,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B714" t="inlineStr"/>
@@ -11346,7 +11346,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B724" t="inlineStr"/>
@@ -11421,7 +11421,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B729" t="inlineStr"/>
@@ -11796,7 +11796,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B754" t="inlineStr"/>
@@ -12471,7 +12471,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B799" t="inlineStr"/>
@@ -12771,7 +12771,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B819" t="inlineStr"/>
@@ -12996,7 +12996,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B834" t="inlineStr"/>
@@ -13371,7 +13371,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B859" t="inlineStr"/>
@@ -13596,7 +13596,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B874" t="inlineStr"/>
@@ -13671,7 +13671,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B879" t="inlineStr"/>
@@ -13821,7 +13821,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B889" t="inlineStr"/>
@@ -13896,7 +13896,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Dining Experiences']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B894" t="inlineStr"/>
@@ -14196,7 +14196,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B914" t="inlineStr"/>
@@ -14346,7 +14346,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B924" t="inlineStr"/>
@@ -14496,7 +14496,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B934" t="inlineStr"/>
@@ -14721,7 +14721,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B949" t="inlineStr"/>
@@ -15021,7 +15021,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B969" t="inlineStr"/>
@@ -15096,7 +15096,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'City Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B974" t="inlineStr"/>
@@ -15171,7 +15171,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B979" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B996" t="inlineStr"/>
@@ -15667,7 +15667,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 109384P70</t>
+          <t>PRODUCTCODE: 5963WINE</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr"/>
@@ -15682,7 +15682,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Summarized description: The El Born Tapas Food Tour takes you on a culinary adventure in Barcelona's Gothic Quarter. Enjoy a variety of traditional and modern tapas paired with wine, beer, and shots.</t>
+          <t>Summarized description: The electric bike has an electric motor that kicks in as soon as you pedal. See landmarks such as El Born Cultural Centre and Frank Gehry’s ‘Golden Fish’ sculpture. Explore Parc de la Ciutadella, Las Ramblas and the fishing port of La Barceloneta.</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>Title: Barcelona Tipsy Tapas Guided Food Tour with Dinner</t>
+          <t>Title: Barcelona E-Bike Small Group Tour with Tapas &amp; Wine Tasting</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15712,7 +15712,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>TotalReviews: 498</t>
+          <t>TotalReviews: 546</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Culinary Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15742,7 +15742,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 25359P5</t>
+          <t>PRODUCTCODE: 109384P70</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr"/>
@@ -15757,7 +15757,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Summarized description: Explore three local family-run tapas bars with 5 types of Spanish wine. Go on a taste journey through the food of the region with an expert foodie guide. Indulge in a selection of flavorsome tapas – enough for a complete meal.</t>
+          <t>Summarized description: The El Born Tapas Food Tour takes you on a culinary adventure in Barcelona's Gothic Quarter. Enjoy a variety of traditional and modern tapas paired with wine, beer, and shots.</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr"/>
@@ -15772,7 +15772,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Barcelona: Tapas &amp; Wine Early Evening Small Group Tour </t>
+          <t>Title: Barcelona Tipsy Tapas Guided Food Tour with Dinner</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr"/>
@@ -15787,7 +15787,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>TotalReviews: 342</t>
+          <t>TotalReviews: 498</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 26613P7</t>
+          <t>PRODUCTCODE: 25359P5</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Summarized description: Discover 4 outstanding local spots in 2 charming neighborhoods away from the hustle and bustle of the crowds. Try different local tapas dishes, paired in harmony with outstanding wines from diverse wine-growing regions.</t>
+          <t>Summarized description: Explore three local family-run tapas bars with 5 types of Spanish wine. Go on a taste journey through the food of the region with an expert foodie guide. Indulge in a selection of flavorsome tapas – enough for a complete meal.</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Barcelona Food &amp; Wine Small Group Tour with a Sommelier </t>
+          <t xml:space="preserve">Title: Barcelona: Tapas &amp; Wine Early Evening Small Group Tour </t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>TotalReviews: 296</t>
+          <t>TotalReviews: 342</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 126707P3</t>
+          <t>PRODUCTCODE: 26613P7</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Summarized description: Marvel at the Gothic Quarter and its culinary delights on our exclusive walking tapas &amp; wine tour. We visit 3 emblematic restaurants to indulge in the city's finest tapas - so you can experience the best during your limited time in town.</t>
+          <t>Summarized description: Discover 4 outstanding local spots in 2 charming neighborhoods away from the hustle and bustle of the crowds. Try different local tapas dishes, paired in harmony with outstanding wines from diverse wine-growing regions.</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>Title: Premium Gothic Quarter Tapas Tour - Small Group, Top Quality</t>
+          <t xml:space="preserve">Title: Barcelona Food &amp; Wine Small Group Tour with a Sommelier </t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15937,7 +15937,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>TotalReviews: 205</t>
+          <t>TotalReviews: 296</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 70667P2</t>
+          <t>PRODUCTCODE: 24380P131</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Summarized description: This 3-hour tour offers an enjoyable and affordable way to visit some of the best tapas places in Barcelona. You will visit one of the most emblematic quarters in Barcelona, El Born, and try beloved classic tapas dishes.</t>
+          <t>Summarized description: 4 glasses of wine &amp; 4 tapas included. 100% personalized to your wishes. Private tour: only you &amp; your host. Get to know the city in a local way.</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>Title: Barcelona Evening Tapas Tour</t>
+          <t>Title: Barcelona With Locals: Wine and Tapas PRIVATE Tour (Bites &amp; Drinks Included)</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16012,7 +16012,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>TotalReviews: 115</t>
+          <t>TotalReviews: 268</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'City Tours']</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 108026P1</t>
+          <t>PRODUCTCODE: 224689P1</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Summarized description: 3.5 hour tasting journey through Barceloneta, Gothic, and Born neighborhoods. Authentic food like the legendary "Pa amb Tomàquet", the famous Patatas Bravas, and much more. Accompanied by an assortment of locally made cheeses, cured meats, and heavenly house-made sparkling wine.</t>
+          <t>Summarized description: Our tour is tailored for anyone who wants to enjoy the taste of Spain. You will go to local bars where you can experience tapas in a friendly environment. And of course, wine is also included, but not the well-known and easy to find Spanish wine.</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Sip, Sites &amp; Bites Barcelona Food, Drinks &amp; History Tour </t>
+          <t xml:space="preserve">Title: Spanish Wine &amp; Tapas tour in a local Neighborhood in Barcelona </t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16087,7 +16087,7 @@
     <row r="1040">
       <c r="A1040" t="inlineStr">
         <is>
-          <t>TotalReviews: 82</t>
+          <t>TotalReviews: 141</t>
         </is>
       </c>
       <c r="B1040" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 64594P2</t>
+          <t>PRODUCTCODE: 49634P6</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Summarized description: "Born to Eat" is a travel guide to the best bars, bodegas and restaurants in Barcelona. The guide is based on the artisanal neighborhood of El Born, the heart of the old city.</t>
+          <t>Summarized description: The essential and most complete gastronomic experience you could have. A genuine 3-stop with 2 stops for typical local tapas following by a proper gastronomics diner in a high end restaurant.</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>Title: Born to Eat: Gourmet Tapas &amp; Wine Small Group Tour in Old Barcelona</t>
+          <t>Title: Barcelona Wine &amp; Gourmet Tapas Tour</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16162,7 +16162,7 @@
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>TotalReviews: 67</t>
+          <t>TotalReviews: 132</t>
         </is>
       </c>
       <c r="B1045" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 110975P1</t>
+          <t>PRODUCTCODE: 70667P2</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the Gothic Quarter. Taste our famous ‘Spanish tapas’ accompanied with red wine and a local glass of cava. Walk through the Born District, the most charming Quarter of Barcelona.</t>
+          <t>Summarized description: This 3-hour tour offers an enjoyable and affordable way to visit some of the best tapas places in Barcelona. You will visit one of the most emblematic quarters in Barcelona, El Born, and try beloved classic tapas dishes.</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>Title: The best Tapas &amp; Flamenco Show - City Tour, Tapas &amp; Wine, and Flamenco Show</t>
+          <t>Title: Barcelona Evening Tapas Tour</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16237,7 +16237,7 @@
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>TotalReviews: 63</t>
+          <t>TotalReviews: 115</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7071P5</t>
+          <t>PRODUCTCODE: 40679P2</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Summarized description: Wine and dine in flavourful local venues throughout Barcelona’s lively districts. An indulgent, off-the-beaten-path city tour to experience a wide range of tastes.</t>
+          <t>Summarized description: Learn about Spanish wines, regional tapas and how to best pair the two. Join our Sommeliers for a wine tasting and tapas pairing dinner in the heart of Barcelona.</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>Title: Tapas and Wine Walking Tour in Barcelona</t>
+          <t>Title: Barcelona: Wine Tasting &amp; Tapas Pairing Dinner</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16312,7 +16312,7 @@
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>TotalReviews: 42</t>
+          <t>TotalReviews: 102</t>
         </is>
       </c>
       <c r="B1055" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 180568P3</t>
+          <t>PRODUCTCODE: 64594P2</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Summarized description: 3 hours tour in Barcelona's Old Town and el Born Quarter. Traditional Catalan tomato bread, Murcian cured tuna, Basque pintxo "Gilda"</t>
+          <t>Summarized description: "Born to Eat" is a travel guide to the best bars, bodegas and restaurants in Barcelona. The guide is based on the artisanal neighborhood of El Born, the heart of the old city.</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>Title: Tapas and Wine at the hidden Bodegas</t>
+          <t>Title: Born to Eat: Gourmet Tapas &amp; Wine Small Group Tour in Old Barcelona</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16387,7 +16387,7 @@
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>TotalReviews: 37</t>
+          <t>TotalReviews: 67</t>
         </is>
       </c>
       <c r="B1060" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 17377P42</t>
+          <t>PRODUCTCODE: 7071P5</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about some of the most important things for us - our culture, our gastronomy, and flamenco on this guided tour. Enjoy your walking tour through the Roman and medieval part of the city, the oldest neighborhoods, and have an exclusivetapas dinner of local products. Then, round out your day with a flamenco show where you will experience one of Spain's extraordinary traditional dances.</t>
+          <t>Summarized description: Wine and dine in flavourful local venues throughout Barcelona’s lively districts. An indulgent, off-the-beaten-path city tour to experience a wide range of tastes.</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>Title: Barcelona Small Group Walking Tour &amp; Flamenco Show + Tapas Dinner</t>
+          <t>Title: Tapas and Wine Walking Tour in Barcelona</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16462,7 +16462,7 @@
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>TotalReviews: 27</t>
+          <t>TotalReviews: 42</t>
         </is>
       </c>
       <c r="B1065" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Dining Experiences', 'Performing Arts']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9866P12</t>
+          <t>PRODUCTCODE: 180568P3</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Summarized description: Barcelona's Picasso Museum and Barcelona Museum of Contemporary Art are included in the 4-hour tapas bar crawl. Enjoy authentic tapas (small plates) at various local bars along the way.</t>
+          <t>Summarized description: 3 hours tour in Barcelona's Old Town and el Born Quarter. Traditional Catalan tomato bread, Murcian cured tuna, Basque pintxo "Gilda"</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>Title: Barcelona Art and Tapas Small Group Walking Tour with Picasso Museum</t>
+          <t>Title: Tapas and Wine at the hidden Bodegas</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16537,7 +16537,7 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>TotalReviews: 27</t>
+          <t>TotalReviews: 37</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9866P51</t>
+          <t>PRODUCTCODE: 9866P11</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Summarized description: Foodie and Museums Tour is especially tailored for food lovers that also want to learn more about Spanish art in Barcelona and Picasso. It is especially thought for art explorers who wish to find reliable tapas restaurants popular among locals.</t>
+          <t>Summarized description: 4-hour guided walking tour consists of four stops. Savor Catalan-style tapas, traditional Spanish meat dishes, and pintxos.</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>Title: Private Barcelona Art and Tapas Walking Tour with Picasso Museum</t>
+          <t>Title: Night Tapas Walking Tour in Barcelona Modernist Area with Small Group and Dinner</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16612,7 +16612,7 @@
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>TotalReviews: 15</t>
+          <t>TotalReviews: 33</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Museums']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 73429P11</t>
+          <t>PRODUCTCODE: 17377P42</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about Barcelona from Roman times to the medieval golden era. Discover Spanish food &amp; Barcelona history. With 3 stops in distinct restaurants we’ll also show you the broad variety of tapas.</t>
+          <t>Summarized description: Learn about some of the most important things for us - our culture, our gastronomy, and flamenco on this guided tour. Enjoy your walking tour through the Roman and medieval part of the city, the oldest neighborhoods, and have an exclusivetapas dinner of local products. Then, round out your day with a flamenco show where you will experience one of Spain's extraordinary traditional dances.</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>Title: Barcelona Historic Walking Tour and Food Experience</t>
+          <t>Title: Barcelona Small Group Walking Tour &amp; Flamenco Show + Tapas Dinner</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>TotalReviews: 15</t>
+          <t>TotalReviews: 27</t>
         </is>
       </c>
       <c r="B1080" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Performing Arts', 'Dining Experiences', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9866P52</t>
+          <t>PRODUCTCODE: 9866P12</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Summarized description: Tapas Walking Tour and Flamenco Show in Barcelona. Enjoy a Spanish culture experience with some tasty tapas. Finish the evening watching a live flamenco show in Barcelona's Gothic quarter.</t>
+          <t>Summarized description: Barcelona's Picasso Museum and Barcelona Museum of Contemporary Art are included in the 4-hour tapas bar crawl. Enjoy authentic tapas (small plates) at various local bars along the way.</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>Title: Private Tapas Walking Tour in Barcelona Old Town and Flamenco Show</t>
+          <t>Title: Barcelona Art and Tapas Small Group Walking Tour with Picasso Museum</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16762,7 +16762,7 @@
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>TotalReviews: 15</t>
+          <t>TotalReviews: 27</t>
         </is>
       </c>
       <c r="B1085" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Performing Arts']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 20220P28</t>
+          <t>PRODUCTCODE: 9866P51</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the authentic local gastronomy of Barcelona with native experts. Get to know the heart of Barcelona's historic center. This is a shared experience, with a maximum of 12 foodies.</t>
+          <t>Summarized description: Foodie and Museums Tour is especially tailored for food lovers that also want to learn more about Spanish art in Barcelona and Picasso. It is especially thought for art explorers who wish to find reliable tapas restaurants popular among locals.</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>Title: Barcelona History and Food tasting Tour</t>
+          <t>Title: Private Barcelona Art and Tapas Walking Tour with Picasso Museum</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16837,7 +16837,7 @@
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>TotalReviews: 12</t>
+          <t>TotalReviews: 15</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 109384P74</t>
+          <t>PRODUCTCODE: 73429P11</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Summarized description: Experience the irresistible flavors of traditional and modern tapas expertly paired with wine, beer, cava, and shots. Join us as we explore the lively streets of the historic center and visit Barcelona's best tapas bars and restaurants accompanied by a knowledgeable local guide.</t>
+          <t>Summarized description: Learn about Barcelona from Roman times to the medieval golden era. Discover Spanish food &amp; Barcelona history. With 3 stops in distinct restaurants we’ll also show you the broad variety of tapas.</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>Title: Guided Food Tour with Tapas and Dinner in El Born Barcelona</t>
+          <t>Title: Barcelona Historic Walking Tour and Food Experience</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16912,7 +16912,7 @@
     <row r="1095">
       <c r="A1095" t="inlineStr">
         <is>
-          <t>TotalReviews: 8</t>
+          <t>TotalReviews: 15</t>
         </is>
       </c>
       <c r="B1095" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5716P14</t>
+          <t>PRODUCTCODE: 9866P52</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Summarized description: Walk through the Gothic Quarter with the tastiest food stops. Explore iconic landmarks such as Liceu Opera House, El Palau de la Música.</t>
+          <t>Summarized description: Tapas Walking Tour and Flamenco Show in Barcelona. Enjoy a Spanish culture experience with some tasty tapas. Finish the evening watching a live flamenco show in Barcelona's Gothic quarter.</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Barcelona Essentials: Tapas &amp; Gothic Quarter Small Group Tour </t>
+          <t>Title: Private Tapas Walking Tour in Barcelona Old Town and Flamenco Show</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -16987,7 +16987,7 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 15</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Performing Arts']</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 14218P10</t>
+          <t>PRODUCTCODE: 20220P28</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Summarized description: 3-hour private walking tour. Enjoy some of the best tapas in different typical bars of the area. Talk about the history, culture and life style of the amazing city of Barcelona.</t>
+          <t>Summarized description: Explore the authentic local gastronomy of Barcelona with native experts. Get to know the heart of Barcelona's historic center. This is a shared experience, with a maximum of 12 foodies.</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>Title: Tapas like a local Private Tour in Barcelona</t>
+          <t>Title: Barcelona History and Food tasting Tour</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17062,7 +17062,7 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 12</t>
         </is>
       </c>
       <c r="B1105" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 174817P29</t>
+          <t>PRODUCTCODE: 26613P3</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17107,7 +17107,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Summarized description: The El Born Tapas Food Tour is a gastronomic journey through Barcelona’s El Born neighborhood. Enjoy traditional and modern tapas, paired perfectly with an assortment of drinks, including wine, beer, cava, and shots.</t>
+          <t>Summarized description: Discover Barcelona’s gastronomic hotspots and culinary specialties with a knowledgeable foodie guide. Along the way, visit two remarkable restaurants that are owned by Michelin-starred chefs.</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>Title: Barcelona Tipsy Tapas Food Crawl</t>
+          <t>Title: Barcelona Michelin Star Tapas Experience Walking Tour</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17137,7 +17137,7 @@
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 11</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9866P34</t>
+          <t>PRODUCTCODE: 5716P14</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Summarized description: During four stops, explore local places that offer authentic food with a guide. Each offers world-famous tapas, but with a Catalan twist. Visit places known by locals but unknown to outsiders.</t>
+          <t>Summarized description: Walk through the Gothic Quarter with the tastiest food stops. Explore iconic landmarks such as Liceu Opera House, El Palau de la Música.</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr"/>
@@ -17197,7 +17197,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>Title: Private Tapas Walking Tour in Barcelona Modernist Area with Dinner included</t>
+          <t xml:space="preserve">Title: Barcelona Essentials: Tapas &amp; Gothic Quarter Small Group Tour </t>
         </is>
       </c>
       <c r="B1114" t="inlineStr"/>
@@ -17212,7 +17212,7 @@
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3394P21</t>
+          <t>PRODUCTCODE: 14218P10</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -17257,7 +17257,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Summarized description: Learn how to order tapas, meet people who love food and discover some of the best bars Barcelona has to offer. Plus, your friendly guide can offer suggestions to help you get the most from your stay in Barcelona.</t>
+          <t>Summarized description: 3-hour private walking tour. Enjoy some of the best tapas in different typical bars of the area. Talk about the history, culture and life style of the amazing city of Barcelona.</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Barcelona Guided Tapas Walking Tour - Private </t>
+          <t>Title: Tapas like a local Private Tour in Barcelona</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -17287,7 +17287,7 @@
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B1120" t="inlineStr"/>
@@ -17302,7 +17302,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr"/>
@@ -17317,7 +17317,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 20220P3</t>
+          <t>PRODUCTCODE: 174817P29</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr"/>
@@ -17332,7 +17332,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>Summarized description: Savor Barcelona’s gastronomy and learn about its culinary heritage from a local perspective. Foodie guide will introduce you to a wide range of local products to taste while you visit traditional gourmet stores, wine bars, tapas restaurant and hidden spots.</t>
+          <t>Summarized description: The El Born Tapas Food Tour is a gastronomic journey through Barcelona’s El Born neighborhood. Enjoy traditional and modern tapas, paired perfectly with an assortment of drinks, including wine, beer, cava, and shots.</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>Title: Barcelona Tapas and Wine Gourmet Walking Tour</t>
+          <t>Title: Barcelona Tipsy Tapas Food Crawl</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr"/>
@@ -17362,7 +17362,7 @@
     <row r="1125">
       <c r="A1125" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1125" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Dining Experiences']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 400660P3</t>
+          <t>PRODUCTCODE: 9866P34</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr"/>
@@ -17407,7 +17407,7 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>Summarized description: Solo travelers can sample a variety of local dishes and drinks. Guides will share insider tips and stories about Barcelona's food culture and history. You'll have the opportunity to connect with other solo travelers along the way.</t>
+          <t>Summarized description: During four stops, explore local places that offer authentic food with a guide. Each offers world-famous tapas, but with a Catalan twist. Visit places known by locals but unknown to outsiders.</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr"/>
@@ -17422,7 +17422,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>Title: Barcelona Tapas and Wine Tour for Solo Travelers | Small Group</t>
+          <t>Title: Private Tapas Walking Tour in Barcelona Modernist Area with Dinner included</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr"/>
@@ -17437,7 +17437,7 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr"/>
@@ -17467,7 +17467,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3394P36</t>
+          <t>PRODUCTCODE: 3394P21</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr"/>
@@ -17482,7 +17482,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Summarized description: Dinner walking tour of Barcelona's famous tapas bars. Learn how to order tapas, meet people who love food and discover some of the best bars Barcelona has to offer.</t>
+          <t>Summarized description: Learn how to order tapas, meet people who love food and discover some of the best bars Barcelona has to offer. Plus, your friendly guide can offer suggestions to help you get the most from your stay in Barcelona.</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr"/>
@@ -17497,7 +17497,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>Title: Barcelona Tapas walking Tour with Flamenco Show</t>
+          <t xml:space="preserve">Title: Barcelona Guided Tapas Walking Tour - Private </t>
         </is>
       </c>
       <c r="B1134" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr"/>
@@ -17527,7 +17527,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr"/>
@@ -17542,7 +17542,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 20115P2</t>
+          <t>PRODUCTCODE: 20220P3</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr"/>
@@ -17557,7 +17557,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>Summarized description: 2,5hour guided walking tour. Uncover Barcelona's beer revolution, iconic tapas culture, and history at La Barceloneta district. Taste amazing local craft beers, some are brewed on the spot.</t>
+          <t>Summarized description: Savor Barcelona’s gastronomy and learn about its culinary heritage from a local perspective. Foodie guide will introduce you to a wide range of local products to taste while you visit traditional gourmet stores, wine bars, tapas restaurant and hidden spots.</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr"/>
@@ -17572,7 +17572,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>Title: Small-Group Craft Beer and Tapas Tour in La Barceloneta</t>
+          <t>Title: Barcelona Tapas and Wine Gourmet Walking Tour</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr"/>
@@ -17587,7 +17587,7 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr"/>
@@ -17617,7 +17617,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 314180P2</t>
+          <t>PRODUCTCODE: 400660P3</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr"/>
@@ -17632,7 +17632,7 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>Summarized description: This 3-in-1 tour is a combination of a tapa tour, a cultural walking tour and dinner/lunch. You will feel like an old friend is sharing his/her Barcelona with you.</t>
+          <t>Summarized description: Solo travelers can sample a variety of local dishes and drinks. Guides will share insider tips and stories about Barcelona's food culture and history. You'll have the opportunity to connect with other solo travelers along the way.</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr"/>
@@ -17647,7 +17647,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>Title: Together Food and Culture Walking Tour in Barcelona</t>
+          <t>Title: Barcelona Tapas and Wine Tour for Solo Travelers | Small Group</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr"/>
@@ -17662,7 +17662,7 @@
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Dining Experiences']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr"/>
@@ -17692,7 +17692,7 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 17377P33</t>
+          <t>PRODUCTCODE: 3394P36</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr"/>
@@ -17707,7 +17707,7 @@
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about some of the most important things for us - our culture, the wine, and our gastronomy on this private tour. Enjoy your walking tour through the Roman and medieval part of the city, the oldest neighborhoods, and do an exclusive wine-tasting of local products. Then, round out your day with a tapas dinner where you will taste the unique Spanish culinary specialties.</t>
+          <t>Summarized description: Dinner walking tour of Barcelona's famous tapas bars. Learn how to order tapas, meet people who love food and discover some of the best bars Barcelona has to offer.</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr"/>
@@ -17722,7 +17722,7 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Private Barcelona Walking Tour &amp; Wine Tasting + Tapas Dinner </t>
+          <t>Title: Barcelona Tapas walking Tour with Flamenco Show</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr"/>
@@ -17737,7 +17737,7 @@
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr"/>
@@ -17752,7 +17752,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours', 'Dining Experiences']</t>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr"/>
@@ -17767,7 +17767,7 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3394P27</t>
+          <t>PRODUCTCODE: 20115P2</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr"/>
@@ -17782,7 +17782,7 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>Summarized description: Wine walking tour of Barcelona. Enjoy five wines and more than five food pairings over the course of two and a half hours. Authentic Spanish style meal.</t>
+          <t>Summarized description: 2,5hour guided walking tour. Uncover Barcelona's beer revolution, iconic tapas culture, and history at La Barceloneta district. Taste amazing local craft beers, some are brewed on the spot.</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr"/>
@@ -17797,7 +17797,7 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>Title: Private Wine &amp; Tapas Meal Experience Walking Tour</t>
+          <t>Title: Small-Group Craft Beer and Tapas Tour in La Barceloneta</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr"/>
@@ -17827,7 +17827,7 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 25160P2</t>
+          <t>PRODUCTCODE: 17377P33</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr"/>
@@ -17857,7 +17857,7 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>Summarized description: 3-hour experience at one of Barcelona's most popular micro-breweries. Learn the differences and tastes between varieties produced, and how to combine them with a selection of gourmet tapas.</t>
+          <t>Summarized description: Learn about some of the most important things for us - our culture, the wine, and our gastronomy on this private tour. Enjoy your walking tour through the Roman and medieval part of the city, the oldest neighborhoods, and do an exclusive wine-tasting of local products. Then, round out your day with a tapas dinner where you will taste the unique Spanish culinary specialties.</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr"/>
@@ -17872,7 +17872,7 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>Title: Handcrafted Beer and Gourmet Tapas Tasting in Barcelona</t>
+          <t xml:space="preserve">Title: Private Barcelona Walking Tour &amp; Wine Tasting + Tapas Dinner </t>
         </is>
       </c>
       <c r="B1159" t="inlineStr"/>
@@ -17902,7 +17902,7 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Dining Experiences', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr"/>
@@ -17917,7 +17917,7 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3394P31</t>
+          <t>PRODUCTCODE: 3394P27</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr"/>
@@ -17932,7 +17932,7 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>Summarized description: Wine &amp; tapas meal walking tour to historical andhidden bars. Enjoy five wines and more than five food pairings over the course of a wine walking tour of two and a half hours.</t>
+          <t>Summarized description: Wine walking tour of Barcelona. Enjoy five wines and more than five food pairings over the course of two and a half hours. Authentic Spanish style meal.</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr"/>
@@ -17947,7 +17947,7 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>Title: Wine &amp; Tapas Meal Experience Walking Tour in Barcelona</t>
+          <t>Title: Private Wine &amp; Tapas Meal Experience Walking Tour</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr"/>
@@ -17962,7 +17962,7 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr"/>
@@ -17977,7 +17977,7 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr"/>
@@ -17992,7 +17992,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 10122P2</t>
+          <t>PRODUCTCODE: 3394P31</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>Summarized description: A foodie guide introduces you to a wide range of local products. Discover the city's flavorful delis, Santa Caterina Market and El Borne.</t>
+          <t>Summarized description: Wine &amp; tapas meal walking tour to historical andhidden bars. Enjoy five wines and more than five food pairings over the course of a wine walking tour of two and a half hours.</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr"/>
@@ -18022,7 +18022,7 @@
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>Title: Gourmet Tapas Guided Walking Tour in Barcelona</t>
+          <t>Title: Wine &amp; Tapas Meal Experience Walking Tour in Barcelona</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr"/>
@@ -18052,7 +18052,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr"/>
@@ -18067,7 +18067,7 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 22869P96</t>
+          <t>PRODUCTCODE: 10122P2</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr"/>
@@ -18082,7 +18082,7 @@
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the gothic quarter of Barcelona while you discover the tipical gastronomy of the city. See alongside your knowledgeable local guide the popular center of Barcelona, also the some of the most popular bars.</t>
+          <t>Summarized description: A foodie guide introduces you to a wide range of local products. Discover the city's flavorful delis, Santa Caterina Market and El Borne.</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr"/>
@@ -18097,7 +18097,7 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>Title: Gastronomic Experience: Wine, Jamon and Tapas Tasting in Barcelona</t>
+          <t>Title: Gourmet Tapas Guided Walking Tour in Barcelona</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr"/>
@@ -18127,7 +18127,7 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr"/>
@@ -18142,7 +18142,7 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 122336P2</t>
+          <t>PRODUCTCODE: 22869P96</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr"/>
@@ -18157,7 +18157,7 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>Summarized description: 3 hour tour around the Gothic Quarter and Born. We will explain the architecture of the streets, buildings, history and multiple anecdotes. You will also try different Pinchos.</t>
+          <t>Summarized description: Visit the gothic quarter of Barcelona while you discover the tipical gastronomy of the city. See alongside your knowledgeable local guide the popular center of Barcelona, also the some of the most popular bars.</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>Title: Pinchos, Wine and Architecture in Barcelona</t>
+          <t>Title: Gastronomic Experience: Wine, Jamon and Tapas Tasting in Barcelona</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr"/>
@@ -18202,7 +18202,7 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr"/>
@@ -18217,7 +18217,7 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24338P53</t>
+          <t>PRODUCTCODE: 5411P202</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr"/>
@@ -18232,7 +18232,7 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>Summarized description: The Gothic Quarter is one of Barcelona’s most vibrant areas. Join us on a delicious discovery of the Gothic quarter. There will be enough tapas and wine to discover a lot of Barcelona.</t>
+          <t>Summarized description: A private, expert-led tapas tour taking place in one of Barcelona's trendy, up-and-coming areas. The tour is led by an expert in the city's tapas scene.</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr"/>
@@ -18247,7 +18247,7 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>Title: Local Barcelona Tapas Tour with Wine &amp; Dinner</t>
+          <t>Title: Expert Led Private Tapas Tour through Barcelona</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr"/>
@@ -18292,7 +18292,7 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 11498P141</t>
+          <t>PRODUCTCODE: 112658P2</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr"/>
@@ -18307,7 +18307,7 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>Summarized description: The best way to discover Barcelona is to try local wine and tapas with a private local guide. At each cafe, sample handpicked Catalonian wine and complimentary tapas. Visit some of the most interesting corners of the Barcelona Old Town.</t>
+          <t>Summarized description: We will meet in front of Hard Rock Cafe in Plaza Cataluña and we will have a tour around the city center based on secret stories that happened centuries ago. We will learn stories of emblemathic places as Las Ramblas and why its name, what happened there, the Gothic Quarter... After the walking tour, we will visit a secret space hidden inside a hotel to do a special wine tasting, focused on local wines of Spain.</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr"/>
@@ -18322,7 +18322,7 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>Title: Barcelona Tapas &amp; Wine Tour with a Private Local Guide</t>
+          <t>Title: The secret Barcelona, wine tasting and tapas</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr"/>
@@ -18352,7 +18352,7 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'City Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr"/>
@@ -18367,7 +18367,7 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 118881P4</t>
+          <t>PRODUCTCODE: 3394FOOD</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr"/>
@@ -18382,7 +18382,7 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>Summarized description: Barcelona is known around the world for its sumptuous wines, tapas, art, architecture, history and culture. Walk in the footsteps of the most emblematic Spanish artists, such as Picasso, Dali, Miro and Gaudi.</t>
+          <t>Summarized description: Explore authentic local cuisine with this tour created for foodies. With your expert Food guide taste excellent tapas &amp; gourmet sweets, followed by an unforgettable Michelin star cuisine meal. The Barcelona Food Lovers Walking Tour is led by a professional foodie tour guide.</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr"/>
@@ -18397,7 +18397,7 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Secret Barcelona, wine tasting &amp; Spanish Tapas </t>
+          <t>Title: Small-Group Barcelona Food Walking Tour with Gourmet Meal</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr"/>
@@ -18427,7 +18427,7 @@
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr"/>
@@ -18442,7 +18442,7 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 400660P1</t>
+          <t>PRODUCTCODE: 6874P144</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr"/>
@@ -18457,7 +18457,7 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the history and culture of tapas in Catalonia and Spain, and enjoy a variety of delicious bites paired with local wines. We'll take you to four different restaurants, each offering their own unique spin on traditional tapas.</t>
+          <t>Summarized description: 4hr gourmet food tour of Barcelona is designed by Foodies, for Foodies. You will explore, tapas bars and unique historic buildings, immersing yourself in foods and drinks.</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr"/>
@@ -18472,7 +18472,7 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>Title: Private Tapas and Wine Walking Tour in Barcelona</t>
+          <t>Title: Private Barcelona Gourmet Tapas Experience</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr"/>
@@ -18517,7 +18517,7 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 102452P2</t>
+          <t>PRODUCTCODE: 16637P2</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr"/>
@@ -18532,7 +18532,7 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>Summarized description: The Gothic Quarter in Barcelona is the historic center of the city; decorated with medieval squares and winding streets. Let yourself be guided through one of the most liveliest quarters of the Mediterranean metropolis.</t>
+          <t>Summarized description: Barcelona is a city brimming with culture and fascinating history. Hear fascinating stories of Barcelona’s history and how it has formed the culture of the city. You will also learn fun facts and be entertained the whole way around by one of our expert tour guides.</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr"/>
@@ -18547,7 +18547,7 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>Title: Barcelona Private Guided Tour Gothic Quarter 'Barri Gòtic'</t>
+          <t>Title: Guided Walking Tour With Tapas Lunch</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr"/>
@@ -18562,7 +18562,7 @@
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1205" t="inlineStr"/>
@@ -18577,7 +18577,7 @@
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr"/>
@@ -18592,7 +18592,7 @@
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 332541P590</t>
+          <t>PRODUCTCODE: 75909P473</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr"/>
@@ -18607,7 +18607,7 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>Summarized description: Discover historical treasures hidden in a maze of narrow streets of the Gothic Quarter. See the city harbor, La Rambla and unique Gothic and Roman monuments. Optional: visit the Basilica de Santa Maria del Mar and Barcelona Cathedral.</t>
+          <t>Summarized description: Fabio's food tour explores the Boqueria market and El Born. Taste a range of cold cuts and Iberian ham, cheeses, pan con tomate and olive oil. Finish in the hipster neighborhood of El Born to eat at one of the best tapas restaurants in Barcelona.</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr"/>
@@ -18622,7 +18622,7 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>Title: Barcelona Gothic Quarter Private Walking Tour</t>
+          <t xml:space="preserve">Title: Barcelona Food, Wine and Tapas tasting tour - Morning </t>
         </is>
       </c>
       <c r="B1209" t="inlineStr"/>
@@ -18637,7 +18637,7 @@
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr"/>
@@ -18652,7 +18652,7 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 385023P39</t>
+          <t>PRODUCTCODE: 24338P53</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr"/>
@@ -18682,7 +18682,7 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the beautiful city center of Barcelona El Born at your own pace. This self-guided audio tour will take you to all the well-known spots and undiscovered gems. Go on a journey of discovery with your virtual audio guide.</t>
+          <t>Summarized description: The Gothic Quarter is one of Barcelona’s most vibrant areas. Join us on a delicious discovery of the Gothic quarter. There will be enough tapas and wine to discover a lot of Barcelona.</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr"/>
@@ -18697,7 +18697,7 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>Title: Barcelona El Born: Walking Tour with Audio Guide on App</t>
+          <t>Title: Local Barcelona Tapas Tour with Wine &amp; Dinner</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr"/>
@@ -18712,7 +18712,7 @@
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr"/>
@@ -18727,7 +18727,7 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr"/>
@@ -18742,7 +18742,7 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9919P4</t>
+          <t>PRODUCTCODE: 11498P141</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr"/>
@@ -18757,7 +18757,7 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>Summarized description: El Born is a city quarter that dates back to the Middle Ages. Hear how people lived during that time and see some of the important landmarks. Visit the Mercat Princesa, a major gastronomic destination.</t>
+          <t>Summarized description: The best way to discover Barcelona is to try local wine and tapas with a private local guide. At each cafe, sample handpicked Catalonian wine and complimentary tapas. Visit some of the most interesting corners of the Barcelona Old Town.</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr"/>
@@ -18772,7 +18772,7 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>Title: El Born Quarter and Tapas Tasting Guided Tour in Barcelona</t>
+          <t>Title: Barcelona Tapas &amp; Wine Tour with a Private Local Guide</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr"/>
@@ -18787,7 +18787,7 @@
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr"/>
@@ -18802,7 +18802,7 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr"/>
@@ -18817,7 +18817,7 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 243885P4</t>
+          <t>PRODUCTCODE: 152463P1</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>Summarized description: The most delicious bites in Barcelona can be found in the Born area. The tour begins with a short walk through Barcelona’s old town. Then, we’ll make our first stop at Vidrios y Cristales.</t>
+          <t>Summarized description: This 2.5-hour tour offers a pleasant and economical way to visit some of the best tapas places in Barcelona. Your guide will share your passion for Spanish food and the secrets of Spanish gastronomy.</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr"/>
@@ -18847,7 +18847,7 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>Title: Barcelona Tapas Tour (Small Group)</t>
+          <t>Title: Best Tapas Tour of Barcelona!</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr"/>
@@ -18862,7 +18862,7 @@
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr"/>
@@ -18877,7 +18877,7 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr"/>
@@ -18892,7 +18892,7 @@
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 75909P559</t>
+          <t>PRODUCTCODE: 118881P4</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr"/>
@@ -18907,7 +18907,7 @@
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>Summarized description: Learn all about the diverse Born district in Barcelona. Taste a variety of traditional delicacies, from Spanish ham to Turrón. Sample local specialities at every stop. Food walk for 2 to 16 people.</t>
+          <t>Summarized description: Barcelona is known around the world for its sumptuous wines, tapas, art, architecture, history and culture. Walk in the footsteps of the most emblematic Spanish artists, such as Picasso, Dali, Miro and Gaudi.</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr"/>
@@ -18922,7 +18922,7 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>Title: Born district food tour and tasting in Barcelona</t>
+          <t xml:space="preserve">Title: Secret Barcelona, wine tasting &amp; Spanish Tapas </t>
         </is>
       </c>
       <c r="B1229" t="inlineStr"/>
@@ -18937,7 +18937,7 @@
     <row r="1230">
       <c r="A1230" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1230" t="inlineStr"/>
@@ -18952,7 +18952,7 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Cultural Tours']</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr"/>
@@ -18967,7 +18967,7 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 26153P26</t>
+          <t>PRODUCTCODE: 400660P1</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr"/>
@@ -18982,7 +18982,7 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>Summarized description: Explore Barcelona through its deliciously and vibrant cuisine to get deeply in touch with the authenticity of the city. In only three hours, you get to experience the best local appetizers and typical Catalonian recipes.</t>
+          <t>Summarized description: Learn about the history and culture of tapas in Catalonia and Spain, and enjoy a variety of delicious bites paired with local wines. We'll take you to four different restaurants, each offering their own unique spin on traditional tapas.</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>Title: Barcelona private tour for foodies</t>
+          <t>Title: Private Tapas and Wine Walking Tour in Barcelona</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr"/>
@@ -19012,7 +19012,7 @@
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1235" t="inlineStr"/>
@@ -19027,7 +19027,7 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr"/>
@@ -19042,7 +19042,7 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7234P5</t>
+          <t>PRODUCTCODE: 3394P17</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr"/>
@@ -19057,7 +19057,7 @@
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>Summarized description: Gothic Quarter is one of Barcelona's oldest districts. Explore the city's most emblematic squares and monuments. Enjoy an evening in a small wine cellar in the heart of the district.</t>
+          <t>Summarized description: Learn about the history of Barcelona and the century-old tradition of vermouth. Visit a carefully picked selection of modern and classic vermouth bars to offer you a truly authentic experience.</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr"/>
@@ -19072,7 +19072,7 @@
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>Title: The Gothic Quarter and Wine Tasting Tour of Barcelona</t>
+          <t>Title: Barcelona Alternative Tapas Guided Tour with Traditional Vermouth Tasting</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr"/>
@@ -19102,7 +19102,7 @@
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr"/>
@@ -19117,7 +19117,7 @@
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 247394P4</t>
+          <t>PRODUCTCODE: 239937P60</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr"/>
@@ -19132,7 +19132,7 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>Summarized description: The guide has perfect knowns about those shops, restaurants and place you should not miss. Also you will love to taste Spanish tapas and beer or wine in the best places in town.</t>
+          <t>Summarized description: Enjoy 10 delicious and typical tastings ranging from sweet to salty, as well as drinks on a tasty Gastronomic tour in Barcelona. Try the classic churros, chocolate and pintxos in real local places. It's not just food, it's a cultural experience.</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr"/>
@@ -19147,7 +19147,7 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>Title: Walking tour in Barcelona, with wine and tapas</t>
+          <t>Title: Barcelona - Food Tasteing &amp; Cultural experience (Private Tour)</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr"/>
@@ -19177,7 +19177,7 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Shopping and Fashion']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr"/>
@@ -19192,7 +19192,7 @@
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 196771P2</t>
+          <t>PRODUCTCODE: 90219P2</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr"/>
@@ -19207,7 +19207,7 @@
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>Summarized description: The Tapas Tour takes you through Barcelona’s famous Gothic Quarter, in the Ciutat Vella (old city) Past Roman walls, alongside cathedrals, through precious plazas and, most importantly, in-and-out of small local restaurants.</t>
+          <t>Summarized description: The best way to experience Barcelona is through its architecture and food. You will discover Spain's delectable gastronomy by eating a lot of tapas at 3 different restaurants.</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr"/>
@@ -19222,7 +19222,7 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Barcelona Special : 3 Hours Evening Tapas Tour </t>
+          <t>Title: Barcelona Amazing Architecture Exploring and Delicious Tapas Experience</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr"/>
@@ -19252,7 +19252,7 @@
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr"/>
@@ -19267,7 +19267,7 @@
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 26613P2</t>
+          <t>PRODUCTCODE: 239937P64</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr"/>
@@ -19282,7 +19282,7 @@
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>Summarized description: Explore popular neighborhoods such as El Born and the Barceloneta area with a knowledgable local guide. Stop at 4 outstanding local tapas bars and learn the etiquette and art of ordering tapas.</t>
+          <t>Summarized description: Explore the vibrant areas of Sant Antoni and Poble Sec in a local way. Treat yourself with 4 glasses of wine from the local region of Catalunia and 4 delicious bites.</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr"/>
@@ -19297,7 +19297,7 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>Title: Private Barcelona Neighborhoods and Tapas Walking Tour</t>
+          <t>Title: Barcelona Tapas &amp; Wine Tasting Private Tour</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr"/>
@@ -19342,7 +19342,7 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 20455P296</t>
+          <t>PRODUCTCODE: 9919P4</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr"/>
@@ -19357,7 +19357,7 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the Old City of Barcelona on this 3 hour tour. You’ll see iconic landmarks such as the Gothic Quarter and Las Ramblas. Discover more about the rich history of this vibrant city.</t>
+          <t>Summarized description: El Born is a city quarter that dates back to the Middle Ages. Hear how people lived during that time and see some of the important landmarks. Visit the Mercat Princesa, a major gastronomic destination.</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr"/>
@@ -19372,7 +19372,7 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>Title: Barcelona Old City Walking Tour and Churros Stop with a Local Guide</t>
+          <t>Title: El Born Quarter and Tapas Tasting Guided Tour in Barcelona</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr"/>
@@ -19402,7 +19402,7 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr"/>
@@ -19417,7 +19417,7 @@
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 11131P17</t>
+          <t>PRODUCTCODE: 243885P4</t>
         </is>
       </c>
       <c r="B1262" t="inlineStr"/>
@@ -19432,7 +19432,7 @@
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the origin of Barcelona in this walking tour with an official guide. During this tour you will visit emblematic places such as the Ramblas or the Plaza de Sant Jaume.</t>
+          <t>Summarized description: The most delicious bites in Barcelona can be found in the Born area. The tour begins with a short walk through Barcelona’s old town. Then, we’ll make our first stop at Vidrios y Cristales.</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr"/>
@@ -19447,7 +19447,7 @@
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>Title: Barcelona Gothic Quarter: Guided Walking Tour</t>
+          <t>Title: Barcelona Tapas Tour (Small Group)</t>
         </is>
       </c>
       <c r="B1264" t="inlineStr"/>
@@ -19477,7 +19477,7 @@
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1266" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 22314P5</t>
+          <t>PRODUCTCODE: 26153P26</t>
         </is>
       </c>
       <c r="B1267" t="inlineStr"/>
@@ -19507,7 +19507,7 @@
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>Summarized description: Segway Tour explores Barcelona's gastronomic culture and way of life. Visit the popular Barceloneta and places to enjoy the famous traditional tapas.</t>
+          <t>Summarized description: Explore Barcelona through its deliciously and vibrant cuisine to get deeply in touch with the authenticity of the city. In only three hours, you get to experience the best local appetizers and typical Catalonian recipes.</t>
         </is>
       </c>
       <c r="B1268" t="inlineStr"/>
@@ -19522,7 +19522,7 @@
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>Title: Barcelona on a Segway: Guided Tapas Tour</t>
+          <t>Title: Barcelona private tour for foodies</t>
         </is>
       </c>
       <c r="B1269" t="inlineStr"/>
@@ -19552,7 +19552,7 @@
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr"/>
@@ -19567,7 +19567,7 @@
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 22314P6</t>
+          <t>PRODUCTCODE: 7234P5</t>
         </is>
       </c>
       <c r="B1272" t="inlineStr"/>
@@ -19582,7 +19582,7 @@
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Barcelona and its gastronomic culture and way of life in a unique Bike Tour. You will visit the popular Barceloneta and places to enjoy the famous traditional tapas.</t>
+          <t>Summarized description: Gothic Quarter is one of Barcelona's oldest districts. Explore the city's most emblematic squares and monuments. Enjoy an evening in a small wine cellar in the heart of the district.</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr"/>
@@ -19597,7 +19597,7 @@
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>Title: Barcelona Bike and Tapas Tour</t>
+          <t>Title: The Gothic Quarter and Wine Tasting Tour of Barcelona</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr"/>
@@ -19627,7 +19627,7 @@
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1276" t="inlineStr"/>
@@ -19642,7 +19642,7 @@
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 107187P1</t>
+          <t>PRODUCTCODE: 23254P1</t>
         </is>
       </c>
       <c r="B1277" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>Summarized description: We take a walk across 3 districts of the city center, each one with its own personality. We stop to taste tapas and the most popular crafted beer of Barcelona directly from its own modern Micro Brewery Lab. Take a walk back in time through the Gothic past of Barcelona and get to those times when the Romans founded the city.</t>
+          <t>Summarized description: Barcelona is home to one of the most geographically interesting wines regions of the world. Explore this wine region by tasting some of the best local wines.</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr"/>
@@ -19672,7 +19672,7 @@
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>Title: The Taste of Barcelona Cultural and Foodie Tour</t>
+          <t>Title: Barcelona Guided Local Wine Tasting Tour</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr"/>
@@ -19702,7 +19702,7 @@
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1281" t="inlineStr"/>
@@ -19717,7 +19717,7 @@
     <row r="1282">
       <c r="A1282" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 21175P31</t>
+          <t>PRODUCTCODE: 247394P4</t>
         </is>
       </c>
       <c r="B1282" t="inlineStr"/>
@@ -19732,7 +19732,7 @@
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
-          <t>Summarized description: 3-hour private culinary tour of Barcelona. Three tapas bars in Gothic Quarter and El Born neighbourhoods. Try out traditional Catalonian recipes as well as favorites from other regions.</t>
+          <t>Summarized description: The guide has perfect knowns about those shops, restaurants and place you should not miss. Also you will love to taste Spanish tapas and beer or wine in the best places in town.</t>
         </is>
       </c>
       <c r="B1283" t="inlineStr"/>
@@ -19747,7 +19747,7 @@
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t>Title: Private Guided Tapas Tour of Barcelona</t>
+          <t>Title: Walking tour in Barcelona, with wine and tapas</t>
         </is>
       </c>
       <c r="B1284" t="inlineStr"/>
@@ -19777,7 +19777,7 @@
     <row r="1286">
       <c r="A1286" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Shopping and Fashion']</t>
         </is>
       </c>
       <c r="B1286" t="inlineStr"/>
@@ -19792,7 +19792,7 @@
     <row r="1287">
       <c r="A1287" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>PRODUCTCODE: 196771P2</t>
         </is>
       </c>
       <c r="B1287" t="inlineStr"/>
@@ -19804,6 +19804,831 @@
       <c r="H1287" t="inlineStr"/>
       <c r="I1287" t="inlineStr"/>
     </row>
+    <row r="1288">
+      <c r="A1288" t="inlineStr">
+        <is>
+          <t>Summarized description: The Tapas Tour takes you through Barcelona’s famous Gothic Quarter, in the Ciutat Vella (old city) Past Roman walls, alongside cathedrals, through precious plazas and, most importantly, in-and-out of small local restaurants.</t>
+        </is>
+      </c>
+      <c r="B1288" t="inlineStr"/>
+      <c r="C1288" t="inlineStr"/>
+      <c r="D1288" t="inlineStr"/>
+      <c r="E1288" t="inlineStr"/>
+      <c r="F1288" t="inlineStr"/>
+      <c r="G1288" t="inlineStr"/>
+      <c r="H1288" t="inlineStr"/>
+      <c r="I1288" t="inlineStr"/>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Title: Barcelona Special : 3 Hours Evening Tapas Tour </t>
+        </is>
+      </c>
+      <c r="B1289" t="inlineStr"/>
+      <c r="C1289" t="inlineStr"/>
+      <c r="D1289" t="inlineStr"/>
+      <c r="E1289" t="inlineStr"/>
+      <c r="F1289" t="inlineStr"/>
+      <c r="G1289" t="inlineStr"/>
+      <c r="H1289" t="inlineStr"/>
+      <c r="I1289" t="inlineStr"/>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1290" t="inlineStr"/>
+      <c r="C1290" t="inlineStr"/>
+      <c r="D1290" t="inlineStr"/>
+      <c r="E1290" t="inlineStr"/>
+      <c r="F1290" t="inlineStr"/>
+      <c r="G1290" t="inlineStr"/>
+      <c r="H1290" t="inlineStr"/>
+      <c r="I1290" t="inlineStr"/>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="inlineStr">
+        <is>
+          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1291" t="inlineStr"/>
+      <c r="C1291" t="inlineStr"/>
+      <c r="D1291" t="inlineStr"/>
+      <c r="E1291" t="inlineStr"/>
+      <c r="F1291" t="inlineStr"/>
+      <c r="G1291" t="inlineStr"/>
+      <c r="H1291" t="inlineStr"/>
+      <c r="I1291" t="inlineStr"/>
+    </row>
+    <row r="1292">
+      <c r="A1292" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 26613P2</t>
+        </is>
+      </c>
+      <c r="B1292" t="inlineStr"/>
+      <c r="C1292" t="inlineStr"/>
+      <c r="D1292" t="inlineStr"/>
+      <c r="E1292" t="inlineStr"/>
+      <c r="F1292" t="inlineStr"/>
+      <c r="G1292" t="inlineStr"/>
+      <c r="H1292" t="inlineStr"/>
+      <c r="I1292" t="inlineStr"/>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="inlineStr">
+        <is>
+          <t>Summarized description: Explore popular neighborhoods such as El Born and the Barceloneta area with a knowledgable local guide. Stop at 4 outstanding local tapas bars and learn the etiquette and art of ordering tapas.</t>
+        </is>
+      </c>
+      <c r="B1293" t="inlineStr"/>
+      <c r="C1293" t="inlineStr"/>
+      <c r="D1293" t="inlineStr"/>
+      <c r="E1293" t="inlineStr"/>
+      <c r="F1293" t="inlineStr"/>
+      <c r="G1293" t="inlineStr"/>
+      <c r="H1293" t="inlineStr"/>
+      <c r="I1293" t="inlineStr"/>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="inlineStr">
+        <is>
+          <t>Title: Private Barcelona Neighborhoods and Tapas Walking Tour</t>
+        </is>
+      </c>
+      <c r="B1294" t="inlineStr"/>
+      <c r="C1294" t="inlineStr"/>
+      <c r="D1294" t="inlineStr"/>
+      <c r="E1294" t="inlineStr"/>
+      <c r="F1294" t="inlineStr"/>
+      <c r="G1294" t="inlineStr"/>
+      <c r="H1294" t="inlineStr"/>
+      <c r="I1294" t="inlineStr"/>
+    </row>
+    <row r="1295">
+      <c r="A1295" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1295" t="inlineStr"/>
+      <c r="C1295" t="inlineStr"/>
+      <c r="D1295" t="inlineStr"/>
+      <c r="E1295" t="inlineStr"/>
+      <c r="F1295" t="inlineStr"/>
+      <c r="G1295" t="inlineStr"/>
+      <c r="H1295" t="inlineStr"/>
+      <c r="I1295" t="inlineStr"/>
+    </row>
+    <row r="1296">
+      <c r="A1296" t="inlineStr">
+        <is>
+          <t>Category: ['Culinary Tours']</t>
+        </is>
+      </c>
+      <c r="B1296" t="inlineStr"/>
+      <c r="C1296" t="inlineStr"/>
+      <c r="D1296" t="inlineStr"/>
+      <c r="E1296" t="inlineStr"/>
+      <c r="F1296" t="inlineStr"/>
+      <c r="G1296" t="inlineStr"/>
+      <c r="H1296" t="inlineStr"/>
+      <c r="I1296" t="inlineStr"/>
+    </row>
+    <row r="1297">
+      <c r="A1297" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 16637P14</t>
+        </is>
+      </c>
+      <c r="B1297" t="inlineStr"/>
+      <c r="C1297" t="inlineStr"/>
+      <c r="D1297" t="inlineStr"/>
+      <c r="E1297" t="inlineStr"/>
+      <c r="F1297" t="inlineStr"/>
+      <c r="G1297" t="inlineStr"/>
+      <c r="H1297" t="inlineStr"/>
+      <c r="I1297" t="inlineStr"/>
+    </row>
+    <row r="1298">
+      <c r="A1298" t="inlineStr">
+        <is>
+          <t>Summarized description: Walk through Barcelona's Wine Culture with a blindfolded wine tasting. Your guide will take you to 4 local wine stops, where you will receive a glass of wine at each... and maybe even more if you ask sweetly!</t>
+        </is>
+      </c>
+      <c r="B1298" t="inlineStr"/>
+      <c r="C1298" t="inlineStr"/>
+      <c r="D1298" t="inlineStr"/>
+      <c r="E1298" t="inlineStr"/>
+      <c r="F1298" t="inlineStr"/>
+      <c r="G1298" t="inlineStr"/>
+      <c r="H1298" t="inlineStr"/>
+      <c r="I1298" t="inlineStr"/>
+    </row>
+    <row r="1299">
+      <c r="A1299" t="inlineStr">
+        <is>
+          <t>Title: Wine Tasting Walking Tour in Barcelona</t>
+        </is>
+      </c>
+      <c r="B1299" t="inlineStr"/>
+      <c r="C1299" t="inlineStr"/>
+      <c r="D1299" t="inlineStr"/>
+      <c r="E1299" t="inlineStr"/>
+      <c r="F1299" t="inlineStr"/>
+      <c r="G1299" t="inlineStr"/>
+      <c r="H1299" t="inlineStr"/>
+      <c r="I1299" t="inlineStr"/>
+    </row>
+    <row r="1300">
+      <c r="A1300" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1300" t="inlineStr"/>
+      <c r="C1300" t="inlineStr"/>
+      <c r="D1300" t="inlineStr"/>
+      <c r="E1300" t="inlineStr"/>
+      <c r="F1300" t="inlineStr"/>
+      <c r="G1300" t="inlineStr"/>
+      <c r="H1300" t="inlineStr"/>
+      <c r="I1300" t="inlineStr"/>
+    </row>
+    <row r="1301">
+      <c r="A1301" t="inlineStr">
+        <is>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+        </is>
+      </c>
+      <c r="B1301" t="inlineStr"/>
+      <c r="C1301" t="inlineStr"/>
+      <c r="D1301" t="inlineStr"/>
+      <c r="E1301" t="inlineStr"/>
+      <c r="F1301" t="inlineStr"/>
+      <c r="G1301" t="inlineStr"/>
+      <c r="H1301" t="inlineStr"/>
+      <c r="I1301" t="inlineStr"/>
+    </row>
+    <row r="1302">
+      <c r="A1302" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 9866P157</t>
+        </is>
+      </c>
+      <c r="B1302" t="inlineStr"/>
+      <c r="C1302" t="inlineStr"/>
+      <c r="D1302" t="inlineStr"/>
+      <c r="E1302" t="inlineStr"/>
+      <c r="F1302" t="inlineStr"/>
+      <c r="G1302" t="inlineStr"/>
+      <c r="H1302" t="inlineStr"/>
+      <c r="I1302" t="inlineStr"/>
+    </row>
+    <row r="1303">
+      <c r="A1303" t="inlineStr">
+        <is>
+          <t>Summarized description: Explore Barcelona’s most interesting neighbourhoods and a small group of rich cuisine with local tapas and wine. Explore the beauty of the city under the guidance of our experts and gain culinary insights into local products and wine pairings.</t>
+        </is>
+      </c>
+      <c r="B1303" t="inlineStr"/>
+      <c r="C1303" t="inlineStr"/>
+      <c r="D1303" t="inlineStr"/>
+      <c r="E1303" t="inlineStr"/>
+      <c r="F1303" t="inlineStr"/>
+      <c r="G1303" t="inlineStr"/>
+      <c r="H1303" t="inlineStr"/>
+      <c r="I1303" t="inlineStr"/>
+    </row>
+    <row r="1304">
+      <c r="A1304" t="inlineStr">
+        <is>
+          <t>Title: Barcelona Local Tapas &amp; Wine Bike Tour in Small Group</t>
+        </is>
+      </c>
+      <c r="B1304" t="inlineStr"/>
+      <c r="C1304" t="inlineStr"/>
+      <c r="D1304" t="inlineStr"/>
+      <c r="E1304" t="inlineStr"/>
+      <c r="F1304" t="inlineStr"/>
+      <c r="G1304" t="inlineStr"/>
+      <c r="H1304" t="inlineStr"/>
+      <c r="I1304" t="inlineStr"/>
+    </row>
+    <row r="1305">
+      <c r="A1305" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1305" t="inlineStr"/>
+      <c r="C1305" t="inlineStr"/>
+      <c r="D1305" t="inlineStr"/>
+      <c r="E1305" t="inlineStr"/>
+      <c r="F1305" t="inlineStr"/>
+      <c r="G1305" t="inlineStr"/>
+      <c r="H1305" t="inlineStr"/>
+      <c r="I1305" t="inlineStr"/>
+    </row>
+    <row r="1306">
+      <c r="A1306" t="inlineStr">
+        <is>
+          <t>Category: ['Culinary Tours']</t>
+        </is>
+      </c>
+      <c r="B1306" t="inlineStr"/>
+      <c r="C1306" t="inlineStr"/>
+      <c r="D1306" t="inlineStr"/>
+      <c r="E1306" t="inlineStr"/>
+      <c r="F1306" t="inlineStr"/>
+      <c r="G1306" t="inlineStr"/>
+      <c r="H1306" t="inlineStr"/>
+      <c r="I1306" t="inlineStr"/>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 25160P19</t>
+        </is>
+      </c>
+      <c r="B1307" t="inlineStr"/>
+      <c r="C1307" t="inlineStr"/>
+      <c r="D1307" t="inlineStr"/>
+      <c r="E1307" t="inlineStr"/>
+      <c r="F1307" t="inlineStr"/>
+      <c r="G1307" t="inlineStr"/>
+      <c r="H1307" t="inlineStr"/>
+      <c r="I1307" t="inlineStr"/>
+    </row>
+    <row r="1308">
+      <c r="A1308" t="inlineStr">
+        <is>
+          <t>Summarized description: 3,5-hour guided tour: Montjuïc with Olympic Games, El Born neighbourhood, Port Vell, Barceloneta. 2 tasting stops with fresh ﬁsh in front of the sea and exquisite chocolate cake with cava.</t>
+        </is>
+      </c>
+      <c r="B1308" t="inlineStr"/>
+      <c r="C1308" t="inlineStr"/>
+      <c r="D1308" t="inlineStr"/>
+      <c r="E1308" t="inlineStr"/>
+      <c r="F1308" t="inlineStr"/>
+      <c r="G1308" t="inlineStr"/>
+      <c r="H1308" t="inlineStr"/>
+      <c r="I1308" t="inlineStr"/>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="inlineStr">
+        <is>
+          <t>Title: Barcelona Tapas Tour on Wheels</t>
+        </is>
+      </c>
+      <c r="B1309" t="inlineStr"/>
+      <c r="C1309" t="inlineStr"/>
+      <c r="D1309" t="inlineStr"/>
+      <c r="E1309" t="inlineStr"/>
+      <c r="F1309" t="inlineStr"/>
+      <c r="G1309" t="inlineStr"/>
+      <c r="H1309" t="inlineStr"/>
+      <c r="I1309" t="inlineStr"/>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1310" t="inlineStr"/>
+      <c r="C1310" t="inlineStr"/>
+      <c r="D1310" t="inlineStr"/>
+      <c r="E1310" t="inlineStr"/>
+      <c r="F1310" t="inlineStr"/>
+      <c r="G1310" t="inlineStr"/>
+      <c r="H1310" t="inlineStr"/>
+      <c r="I1310" t="inlineStr"/>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="inlineStr">
+        <is>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Cultural Tours']</t>
+        </is>
+      </c>
+      <c r="B1311" t="inlineStr"/>
+      <c r="C1311" t="inlineStr"/>
+      <c r="D1311" t="inlineStr"/>
+      <c r="E1311" t="inlineStr"/>
+      <c r="F1311" t="inlineStr"/>
+      <c r="G1311" t="inlineStr"/>
+      <c r="H1311" t="inlineStr"/>
+      <c r="I1311" t="inlineStr"/>
+    </row>
+    <row r="1312">
+      <c r="A1312" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 7728P8</t>
+        </is>
+      </c>
+      <c r="B1312" t="inlineStr"/>
+      <c r="C1312" t="inlineStr"/>
+      <c r="D1312" t="inlineStr"/>
+      <c r="E1312" t="inlineStr"/>
+      <c r="F1312" t="inlineStr"/>
+      <c r="G1312" t="inlineStr"/>
+      <c r="H1312" t="inlineStr"/>
+      <c r="I1312" t="inlineStr"/>
+    </row>
+    <row r="1313">
+      <c r="A1313" t="inlineStr">
+        <is>
+          <t>Summarized description: Catalan Vermouth and tapas tour. Enjoy a tasting of Catalan Vermouth with tapas in a hidden and authentic café. On the way, you will walking Paseo de Gracia for an overview of Catalan Modern Art.</t>
+        </is>
+      </c>
+      <c r="B1313" t="inlineStr"/>
+      <c r="C1313" t="inlineStr"/>
+      <c r="D1313" t="inlineStr"/>
+      <c r="E1313" t="inlineStr"/>
+      <c r="F1313" t="inlineStr"/>
+      <c r="G1313" t="inlineStr"/>
+      <c r="H1313" t="inlineStr"/>
+      <c r="I1313" t="inlineStr"/>
+    </row>
+    <row r="1314">
+      <c r="A1314" t="inlineStr">
+        <is>
+          <t>Title: Gothic and Bohemian Tapas Walking and E-biking tour in Barcelona</t>
+        </is>
+      </c>
+      <c r="B1314" t="inlineStr"/>
+      <c r="C1314" t="inlineStr"/>
+      <c r="D1314" t="inlineStr"/>
+      <c r="E1314" t="inlineStr"/>
+      <c r="F1314" t="inlineStr"/>
+      <c r="G1314" t="inlineStr"/>
+      <c r="H1314" t="inlineStr"/>
+      <c r="I1314" t="inlineStr"/>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1315" t="inlineStr"/>
+      <c r="C1315" t="inlineStr"/>
+      <c r="D1315" t="inlineStr"/>
+      <c r="E1315" t="inlineStr"/>
+      <c r="F1315" t="inlineStr"/>
+      <c r="G1315" t="inlineStr"/>
+      <c r="H1315" t="inlineStr"/>
+      <c r="I1315" t="inlineStr"/>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="inlineStr">
+        <is>
+          <t>Category: ['Culinary Tours', 'Dining Experiences', 'Cultural Tours']</t>
+        </is>
+      </c>
+      <c r="B1316" t="inlineStr"/>
+      <c r="C1316" t="inlineStr"/>
+      <c r="D1316" t="inlineStr"/>
+      <c r="E1316" t="inlineStr"/>
+      <c r="F1316" t="inlineStr"/>
+      <c r="G1316" t="inlineStr"/>
+      <c r="H1316" t="inlineStr"/>
+      <c r="I1316" t="inlineStr"/>
+    </row>
+    <row r="1317">
+      <c r="A1317" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 85145P8</t>
+        </is>
+      </c>
+      <c r="B1317" t="inlineStr"/>
+      <c r="C1317" t="inlineStr"/>
+      <c r="D1317" t="inlineStr"/>
+      <c r="E1317" t="inlineStr"/>
+      <c r="F1317" t="inlineStr"/>
+      <c r="G1317" t="inlineStr"/>
+      <c r="H1317" t="inlineStr"/>
+      <c r="I1317" t="inlineStr"/>
+    </row>
+    <row r="1318">
+      <c r="A1318" t="inlineStr">
+        <is>
+          <t>Summarized description: Join us at our wine experience at a local Catalan wine tasting cellar in Barcelona. Where you will enjoy a various category of Catalan wines with some delicious tapas!</t>
+        </is>
+      </c>
+      <c r="B1318" t="inlineStr"/>
+      <c r="C1318" t="inlineStr"/>
+      <c r="D1318" t="inlineStr"/>
+      <c r="E1318" t="inlineStr"/>
+      <c r="F1318" t="inlineStr"/>
+      <c r="G1318" t="inlineStr"/>
+      <c r="H1318" t="inlineStr"/>
+      <c r="I1318" t="inlineStr"/>
+    </row>
+    <row r="1319">
+      <c r="A1319" t="inlineStr">
+        <is>
+          <t>Title: Wine tasting &amp; tapas</t>
+        </is>
+      </c>
+      <c r="B1319" t="inlineStr"/>
+      <c r="C1319" t="inlineStr"/>
+      <c r="D1319" t="inlineStr"/>
+      <c r="E1319" t="inlineStr"/>
+      <c r="F1319" t="inlineStr"/>
+      <c r="G1319" t="inlineStr"/>
+      <c r="H1319" t="inlineStr"/>
+      <c r="I1319" t="inlineStr"/>
+    </row>
+    <row r="1320">
+      <c r="A1320" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1320" t="inlineStr"/>
+      <c r="C1320" t="inlineStr"/>
+      <c r="D1320" t="inlineStr"/>
+      <c r="E1320" t="inlineStr"/>
+      <c r="F1320" t="inlineStr"/>
+      <c r="G1320" t="inlineStr"/>
+      <c r="H1320" t="inlineStr"/>
+      <c r="I1320" t="inlineStr"/>
+    </row>
+    <row r="1321">
+      <c r="A1321" t="inlineStr">
+        <is>
+          <t>Category: ['Wine and Beverage Tastings']</t>
+        </is>
+      </c>
+      <c r="B1321" t="inlineStr"/>
+      <c r="C1321" t="inlineStr"/>
+      <c r="D1321" t="inlineStr"/>
+      <c r="E1321" t="inlineStr"/>
+      <c r="F1321" t="inlineStr"/>
+      <c r="G1321" t="inlineStr"/>
+      <c r="H1321" t="inlineStr"/>
+      <c r="I1321" t="inlineStr"/>
+    </row>
+    <row r="1322">
+      <c r="A1322" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 22314P5</t>
+        </is>
+      </c>
+      <c r="B1322" t="inlineStr"/>
+      <c r="C1322" t="inlineStr"/>
+      <c r="D1322" t="inlineStr"/>
+      <c r="E1322" t="inlineStr"/>
+      <c r="F1322" t="inlineStr"/>
+      <c r="G1322" t="inlineStr"/>
+      <c r="H1322" t="inlineStr"/>
+      <c r="I1322" t="inlineStr"/>
+    </row>
+    <row r="1323">
+      <c r="A1323" t="inlineStr">
+        <is>
+          <t>Summarized description: Segway Tour explores Barcelona's gastronomic culture and way of life. Visit the popular Barceloneta and places to enjoy the famous traditional tapas.</t>
+        </is>
+      </c>
+      <c r="B1323" t="inlineStr"/>
+      <c r="C1323" t="inlineStr"/>
+      <c r="D1323" t="inlineStr"/>
+      <c r="E1323" t="inlineStr"/>
+      <c r="F1323" t="inlineStr"/>
+      <c r="G1323" t="inlineStr"/>
+      <c r="H1323" t="inlineStr"/>
+      <c r="I1323" t="inlineStr"/>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="inlineStr">
+        <is>
+          <t>Title: Barcelona on a Segway: Guided Tapas Tour</t>
+        </is>
+      </c>
+      <c r="B1324" t="inlineStr"/>
+      <c r="C1324" t="inlineStr"/>
+      <c r="D1324" t="inlineStr"/>
+      <c r="E1324" t="inlineStr"/>
+      <c r="F1324" t="inlineStr"/>
+      <c r="G1324" t="inlineStr"/>
+      <c r="H1324" t="inlineStr"/>
+      <c r="I1324" t="inlineStr"/>
+    </row>
+    <row r="1325">
+      <c r="A1325" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1325" t="inlineStr"/>
+      <c r="C1325" t="inlineStr"/>
+      <c r="D1325" t="inlineStr"/>
+      <c r="E1325" t="inlineStr"/>
+      <c r="F1325" t="inlineStr"/>
+      <c r="G1325" t="inlineStr"/>
+      <c r="H1325" t="inlineStr"/>
+      <c r="I1325" t="inlineStr"/>
+    </row>
+    <row r="1326">
+      <c r="A1326" t="inlineStr">
+        <is>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
+        </is>
+      </c>
+      <c r="B1326" t="inlineStr"/>
+      <c r="C1326" t="inlineStr"/>
+      <c r="D1326" t="inlineStr"/>
+      <c r="E1326" t="inlineStr"/>
+      <c r="F1326" t="inlineStr"/>
+      <c r="G1326" t="inlineStr"/>
+      <c r="H1326" t="inlineStr"/>
+      <c r="I1326" t="inlineStr"/>
+    </row>
+    <row r="1327">
+      <c r="A1327" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 22314P6</t>
+        </is>
+      </c>
+      <c r="B1327" t="inlineStr"/>
+      <c r="C1327" t="inlineStr"/>
+      <c r="D1327" t="inlineStr"/>
+      <c r="E1327" t="inlineStr"/>
+      <c r="F1327" t="inlineStr"/>
+      <c r="G1327" t="inlineStr"/>
+      <c r="H1327" t="inlineStr"/>
+      <c r="I1327" t="inlineStr"/>
+    </row>
+    <row r="1328">
+      <c r="A1328" t="inlineStr">
+        <is>
+          <t>Summarized description: Discover Barcelona and its gastronomic culture and way of life in a unique Bike Tour. You will visit the popular Barceloneta and places to enjoy the famous traditional tapas.</t>
+        </is>
+      </c>
+      <c r="B1328" t="inlineStr"/>
+      <c r="C1328" t="inlineStr"/>
+      <c r="D1328" t="inlineStr"/>
+      <c r="E1328" t="inlineStr"/>
+      <c r="F1328" t="inlineStr"/>
+      <c r="G1328" t="inlineStr"/>
+      <c r="H1328" t="inlineStr"/>
+      <c r="I1328" t="inlineStr"/>
+    </row>
+    <row r="1329">
+      <c r="A1329" t="inlineStr">
+        <is>
+          <t>Title: Barcelona Bike and Tapas Tour</t>
+        </is>
+      </c>
+      <c r="B1329" t="inlineStr"/>
+      <c r="C1329" t="inlineStr"/>
+      <c r="D1329" t="inlineStr"/>
+      <c r="E1329" t="inlineStr"/>
+      <c r="F1329" t="inlineStr"/>
+      <c r="G1329" t="inlineStr"/>
+      <c r="H1329" t="inlineStr"/>
+      <c r="I1329" t="inlineStr"/>
+    </row>
+    <row r="1330">
+      <c r="A1330" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1330" t="inlineStr"/>
+      <c r="C1330" t="inlineStr"/>
+      <c r="D1330" t="inlineStr"/>
+      <c r="E1330" t="inlineStr"/>
+      <c r="F1330" t="inlineStr"/>
+      <c r="G1330" t="inlineStr"/>
+      <c r="H1330" t="inlineStr"/>
+      <c r="I1330" t="inlineStr"/>
+    </row>
+    <row r="1331">
+      <c r="A1331" t="inlineStr">
+        <is>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Cultural Tours']</t>
+        </is>
+      </c>
+      <c r="B1331" t="inlineStr"/>
+      <c r="C1331" t="inlineStr"/>
+      <c r="D1331" t="inlineStr"/>
+      <c r="E1331" t="inlineStr"/>
+      <c r="F1331" t="inlineStr"/>
+      <c r="G1331" t="inlineStr"/>
+      <c r="H1331" t="inlineStr"/>
+      <c r="I1331" t="inlineStr"/>
+    </row>
+    <row r="1332">
+      <c r="A1332" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 107187P1</t>
+        </is>
+      </c>
+      <c r="B1332" t="inlineStr"/>
+      <c r="C1332" t="inlineStr"/>
+      <c r="D1332" t="inlineStr"/>
+      <c r="E1332" t="inlineStr"/>
+      <c r="F1332" t="inlineStr"/>
+      <c r="G1332" t="inlineStr"/>
+      <c r="H1332" t="inlineStr"/>
+      <c r="I1332" t="inlineStr"/>
+    </row>
+    <row r="1333">
+      <c r="A1333" t="inlineStr">
+        <is>
+          <t>Summarized description: We take a walk across 3 districts of the city center, each one with its own personality. We stop to taste tapas and the most popular crafted beer of Barcelona directly from its own modern Micro Brewery Lab. Take a walk back in time through the Gothic past of Barcelona and get to those times when the Romans founded the city.</t>
+        </is>
+      </c>
+      <c r="B1333" t="inlineStr"/>
+      <c r="C1333" t="inlineStr"/>
+      <c r="D1333" t="inlineStr"/>
+      <c r="E1333" t="inlineStr"/>
+      <c r="F1333" t="inlineStr"/>
+      <c r="G1333" t="inlineStr"/>
+      <c r="H1333" t="inlineStr"/>
+      <c r="I1333" t="inlineStr"/>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="inlineStr">
+        <is>
+          <t>Title: The Taste of Barcelona Cultural and Foodie Tour</t>
+        </is>
+      </c>
+      <c r="B1334" t="inlineStr"/>
+      <c r="C1334" t="inlineStr"/>
+      <c r="D1334" t="inlineStr"/>
+      <c r="E1334" t="inlineStr"/>
+      <c r="F1334" t="inlineStr"/>
+      <c r="G1334" t="inlineStr"/>
+      <c r="H1334" t="inlineStr"/>
+      <c r="I1334" t="inlineStr"/>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1335" t="inlineStr"/>
+      <c r="C1335" t="inlineStr"/>
+      <c r="D1335" t="inlineStr"/>
+      <c r="E1335" t="inlineStr"/>
+      <c r="F1335" t="inlineStr"/>
+      <c r="G1335" t="inlineStr"/>
+      <c r="H1335" t="inlineStr"/>
+      <c r="I1335" t="inlineStr"/>
+    </row>
+    <row r="1336">
+      <c r="A1336" t="inlineStr">
+        <is>
+          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1336" t="inlineStr"/>
+      <c r="C1336" t="inlineStr"/>
+      <c r="D1336" t="inlineStr"/>
+      <c r="E1336" t="inlineStr"/>
+      <c r="F1336" t="inlineStr"/>
+      <c r="G1336" t="inlineStr"/>
+      <c r="H1336" t="inlineStr"/>
+      <c r="I1336" t="inlineStr"/>
+    </row>
+    <row r="1337">
+      <c r="A1337" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 21175P31</t>
+        </is>
+      </c>
+      <c r="B1337" t="inlineStr"/>
+      <c r="C1337" t="inlineStr"/>
+      <c r="D1337" t="inlineStr"/>
+      <c r="E1337" t="inlineStr"/>
+      <c r="F1337" t="inlineStr"/>
+      <c r="G1337" t="inlineStr"/>
+      <c r="H1337" t="inlineStr"/>
+      <c r="I1337" t="inlineStr"/>
+    </row>
+    <row r="1338">
+      <c r="A1338" t="inlineStr">
+        <is>
+          <t>Summarized description: 3-hour private culinary tour of Barcelona. Three tapas bars in Gothic Quarter and El Born neighbourhoods. Try out traditional Catalonian recipes as well as favorites from other regions.</t>
+        </is>
+      </c>
+      <c r="B1338" t="inlineStr"/>
+      <c r="C1338" t="inlineStr"/>
+      <c r="D1338" t="inlineStr"/>
+      <c r="E1338" t="inlineStr"/>
+      <c r="F1338" t="inlineStr"/>
+      <c r="G1338" t="inlineStr"/>
+      <c r="H1338" t="inlineStr"/>
+      <c r="I1338" t="inlineStr"/>
+    </row>
+    <row r="1339">
+      <c r="A1339" t="inlineStr">
+        <is>
+          <t>Title: Private Guided Tapas Tour of Barcelona</t>
+        </is>
+      </c>
+      <c r="B1339" t="inlineStr"/>
+      <c r="C1339" t="inlineStr"/>
+      <c r="D1339" t="inlineStr"/>
+      <c r="E1339" t="inlineStr"/>
+      <c r="F1339" t="inlineStr"/>
+      <c r="G1339" t="inlineStr"/>
+      <c r="H1339" t="inlineStr"/>
+      <c r="I1339" t="inlineStr"/>
+    </row>
+    <row r="1340">
+      <c r="A1340" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1340" t="inlineStr"/>
+      <c r="C1340" t="inlineStr"/>
+      <c r="D1340" t="inlineStr"/>
+      <c r="E1340" t="inlineStr"/>
+      <c r="F1340" t="inlineStr"/>
+      <c r="G1340" t="inlineStr"/>
+      <c r="H1340" t="inlineStr"/>
+      <c r="I1340" t="inlineStr"/>
+    </row>
+    <row r="1341">
+      <c r="A1341" t="inlineStr">
+        <is>
+          <t>Category: ['Culinary Tours']</t>
+        </is>
+      </c>
+      <c r="B1341" t="inlineStr"/>
+      <c r="C1341" t="inlineStr"/>
+      <c r="D1341" t="inlineStr"/>
+      <c r="E1341" t="inlineStr"/>
+      <c r="F1341" t="inlineStr"/>
+      <c r="G1341" t="inlineStr"/>
+      <c r="H1341" t="inlineStr"/>
+      <c r="I1341" t="inlineStr"/>
+    </row>
+    <row r="1342">
+      <c r="A1342" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+      <c r="B1342" t="inlineStr"/>
+      <c r="C1342" t="inlineStr"/>
+      <c r="D1342" t="inlineStr"/>
+      <c r="E1342" t="inlineStr"/>
+      <c r="F1342" t="inlineStr"/>
+      <c r="G1342" t="inlineStr"/>
+      <c r="H1342" t="inlineStr"/>
+      <c r="I1342" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment_results/16168P1.xlsx
+++ b/experiment_results/16168P1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1342"/>
+  <dimension ref="A1:I1352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -696,7 +696,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Aerial Tours']</t>
+          <t>Category: ['Aerial Tours', 'City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -921,7 +921,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -996,7 +996,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1071,7 +1071,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1296,7 +1296,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1446,7 +1446,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Performing Arts']</t>
+          <t>Category: ['Performing Arts', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -1521,7 +1521,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -1596,7 +1596,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -1746,7 +1746,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -1821,7 +1821,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Performing Arts']</t>
+          <t>Category: ['Performing Arts', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -1971,7 +1971,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
@@ -2121,7 +2121,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
@@ -2721,7 +2721,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
@@ -2796,7 +2796,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -2946,7 +2946,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
@@ -3021,7 +3021,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
@@ -3321,7 +3321,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['Dining Experiences', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
@@ -3396,7 +3396,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
@@ -3621,7 +3621,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -3846,7 +3846,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Category: ['Performing Arts', 'Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['Performing Arts', 'Cultural Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B224" t="inlineStr"/>
@@ -4071,7 +4071,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B239" t="inlineStr"/>
@@ -4146,7 +4146,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B244" t="inlineStr"/>
@@ -4221,7 +4221,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Performing Arts']</t>
+          <t>Category: ['Performing Arts', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B249" t="inlineStr"/>
@@ -4371,7 +4371,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B259" t="inlineStr"/>
@@ -4446,7 +4446,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B264" t="inlineStr"/>
@@ -4671,7 +4671,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Workshops and Classes']</t>
+          <t>Category: ['Workshops and Classes', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B279" t="inlineStr"/>
@@ -4746,7 +4746,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B284" t="inlineStr"/>
@@ -4896,7 +4896,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B294" t="inlineStr"/>
@@ -5046,7 +5046,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Historical Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Historical Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B304" t="inlineStr"/>
@@ -5121,7 +5121,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B309" t="inlineStr"/>
@@ -5346,7 +5346,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Wine and Beverage Tastings', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Water Sports', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B324" t="inlineStr"/>
@@ -5421,7 +5421,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B329" t="inlineStr"/>
@@ -5646,7 +5646,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B344" t="inlineStr"/>
@@ -5721,7 +5721,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Dining Experiences', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Dining Experiences', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B349" t="inlineStr"/>
@@ -5946,7 +5946,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B364" t="inlineStr"/>
@@ -6246,7 +6246,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B384" t="inlineStr"/>
@@ -6396,7 +6396,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['Dining Experiences', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B394" t="inlineStr"/>
@@ -6621,7 +6621,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B409" t="inlineStr"/>
@@ -6771,7 +6771,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B419" t="inlineStr"/>
@@ -6921,7 +6921,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B429" t="inlineStr"/>
@@ -6996,7 +6996,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B434" t="inlineStr"/>
@@ -7221,7 +7221,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B449" t="inlineStr"/>
@@ -7371,7 +7371,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['Dining Experiences', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B459" t="inlineStr"/>
@@ -7521,7 +7521,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['Dining Experiences', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B469" t="inlineStr"/>
@@ -7746,7 +7746,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Dining Experiences', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B484" t="inlineStr"/>
@@ -7821,7 +7821,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B489" t="inlineStr"/>
@@ -7971,7 +7971,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B499" t="inlineStr"/>
@@ -8046,7 +8046,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B504" t="inlineStr"/>
@@ -8271,7 +8271,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours', 'Performing Arts']</t>
+          <t>Category: ['Performing Arts', 'City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B519" t="inlineStr"/>
@@ -8346,7 +8346,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B524" t="inlineStr"/>
@@ -8421,7 +8421,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B529" t="inlineStr"/>
@@ -8796,7 +8796,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Performing Arts', 'Cultural Tours']</t>
+          <t>Category: ['Performing Arts', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B554" t="inlineStr"/>
@@ -8871,7 +8871,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B559" t="inlineStr"/>
@@ -8946,7 +8946,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B564" t="inlineStr"/>
@@ -9021,7 +9021,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B569" t="inlineStr"/>
@@ -9246,7 +9246,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B584" t="inlineStr"/>
@@ -9321,7 +9321,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B589" t="inlineStr"/>
@@ -9471,7 +9471,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B599" t="inlineStr"/>
@@ -9546,7 +9546,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['City Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B604" t="inlineStr"/>
@@ -9621,7 +9621,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B609" t="inlineStr"/>
@@ -9771,7 +9771,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B619" t="inlineStr"/>
@@ -10221,7 +10221,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B649" t="inlineStr"/>
@@ -10296,7 +10296,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B654" t="inlineStr"/>
@@ -10371,7 +10371,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B659" t="inlineStr"/>
@@ -10446,7 +10446,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B664" t="inlineStr"/>
@@ -10521,7 +10521,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B669" t="inlineStr"/>
@@ -11046,7 +11046,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B704" t="inlineStr"/>
@@ -11346,7 +11346,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B724" t="inlineStr"/>
@@ -11421,7 +11421,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B729" t="inlineStr"/>
@@ -11571,7 +11571,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B739" t="inlineStr"/>
@@ -11721,7 +11721,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B749" t="inlineStr"/>
@@ -11796,7 +11796,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B754" t="inlineStr"/>
@@ -12021,7 +12021,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B769" t="inlineStr"/>
@@ -12321,7 +12321,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Shopping and Fashion']</t>
+          <t>Category: ['Shopping and Fashion', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B789" t="inlineStr"/>
@@ -12471,7 +12471,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B799" t="inlineStr"/>
@@ -12771,7 +12771,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B819" t="inlineStr"/>
@@ -12996,7 +12996,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B834" t="inlineStr"/>
@@ -13071,7 +13071,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B839" t="inlineStr"/>
@@ -13371,7 +13371,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B859" t="inlineStr"/>
@@ -13596,7 +13596,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B874" t="inlineStr"/>
@@ -13746,7 +13746,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B884" t="inlineStr"/>
@@ -13821,7 +13821,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B889" t="inlineStr"/>
@@ -13896,7 +13896,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['Dining Experiences', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B894" t="inlineStr"/>
@@ -14046,7 +14046,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B904" t="inlineStr"/>
@@ -14196,7 +14196,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B914" t="inlineStr"/>
@@ -14346,7 +14346,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B924" t="inlineStr"/>
@@ -14421,7 +14421,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B929" t="inlineStr"/>
@@ -14721,7 +14721,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B949" t="inlineStr"/>
@@ -14946,7 +14946,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B964" t="inlineStr"/>
@@ -15021,7 +15021,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B969" t="inlineStr"/>
@@ -15096,7 +15096,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B974" t="inlineStr"/>
@@ -15171,7 +15171,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B979" t="inlineStr"/>
@@ -15577,7 +15577,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr"/>
@@ -15652,7 +15652,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['Performing Arts', 'Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['Performing Arts', 'Cultural Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Performing Arts']</t>
+          <t>Category: ['Performing Arts', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Historical Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Historical Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17302,7 +17302,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
@@ -17602,7 +17602,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['Dining Experiences', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr"/>
@@ -17752,7 +17752,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr"/>
@@ -17827,7 +17827,7 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['Dining Experiences', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr"/>
@@ -17902,7 +17902,7 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Dining Experiences', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr"/>
@@ -17977,7 +17977,7 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr"/>
@@ -18202,7 +18202,7 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr"/>
@@ -18352,7 +18352,7 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr"/>
@@ -18427,7 +18427,7 @@
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr"/>
@@ -18652,7 +18652,7 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24338P53</t>
+          <t>PRODUCTCODE: 26613P4</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr"/>
@@ -18682,7 +18682,7 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>Summarized description: The Gothic Quarter is one of Barcelona’s most vibrant areas. Join us on a delicious discovery of the Gothic quarter. There will be enough tapas and wine to discover a lot of Barcelona.</t>
+          <t>Summarized description: 2.5 hour guided walking tour. Taste delicious and healthy tapas while exploring the city's main sights. Immerse yourself in more than 2,000 years of history through two charming neighborhoods.</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr"/>
@@ -18697,7 +18697,7 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>Title: Local Barcelona Tapas Tour with Wine &amp; Dinner</t>
+          <t>Title: Barcelona Vegetarian Tapas Walking Tour</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr"/>
@@ -18727,7 +18727,7 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr"/>
@@ -18742,7 +18742,7 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 11498P141</t>
+          <t>PRODUCTCODE: 24338P53</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr"/>
@@ -18757,7 +18757,7 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>Summarized description: The best way to discover Barcelona is to try local wine and tapas with a private local guide. At each cafe, sample handpicked Catalonian wine and complimentary tapas. Visit some of the most interesting corners of the Barcelona Old Town.</t>
+          <t>Summarized description: The Gothic Quarter is one of Barcelona’s most vibrant areas. Join us on a delicious discovery of the Gothic quarter. There will be enough tapas and wine to discover a lot of Barcelona.</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr"/>
@@ -18772,7 +18772,7 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>Title: Barcelona Tapas &amp; Wine Tour with a Private Local Guide</t>
+          <t>Title: Local Barcelona Tapas Tour with Wine &amp; Dinner</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr"/>
@@ -18802,7 +18802,7 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr"/>
@@ -18817,7 +18817,7 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 152463P1</t>
+          <t>PRODUCTCODE: 11498P141</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>Summarized description: This 2.5-hour tour offers a pleasant and economical way to visit some of the best tapas places in Barcelona. Your guide will share your passion for Spanish food and the secrets of Spanish gastronomy.</t>
+          <t>Summarized description: The best way to discover Barcelona is to try local wine and tapas with a private local guide. At each cafe, sample handpicked Catalonian wine and complimentary tapas. Visit some of the most interesting corners of the Barcelona Old Town.</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr"/>
@@ -18847,7 +18847,7 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>Title: Best Tapas Tour of Barcelona!</t>
+          <t>Title: Barcelona Tapas &amp; Wine Tour with a Private Local Guide</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr"/>
@@ -18877,7 +18877,7 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['City Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr"/>
@@ -18892,7 +18892,7 @@
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 118881P4</t>
+          <t>PRODUCTCODE: 152463P1</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr"/>
@@ -18907,7 +18907,7 @@
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>Summarized description: Barcelona is known around the world for its sumptuous wines, tapas, art, architecture, history and culture. Walk in the footsteps of the most emblematic Spanish artists, such as Picasso, Dali, Miro and Gaudi.</t>
+          <t>Summarized description: This 2.5-hour tour offers a pleasant and economical way to visit some of the best tapas places in Barcelona. Your guide will share your passion for Spanish food and the secrets of Spanish gastronomy.</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr"/>
@@ -18922,7 +18922,7 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Secret Barcelona, wine tasting &amp; Spanish Tapas </t>
+          <t>Title: Best Tapas Tour of Barcelona!</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr"/>
@@ -18952,7 +18952,7 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr"/>
@@ -18967,7 +18967,7 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 400660P1</t>
+          <t>PRODUCTCODE: 118881P4</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr"/>
@@ -18982,7 +18982,7 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the history and culture of tapas in Catalonia and Spain, and enjoy a variety of delicious bites paired with local wines. We'll take you to four different restaurants, each offering their own unique spin on traditional tapas.</t>
+          <t>Summarized description: Barcelona is known around the world for its sumptuous wines, tapas, art, architecture, history and culture. Walk in the footsteps of the most emblematic Spanish artists, such as Picasso, Dali, Miro and Gaudi.</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>Title: Private Tapas and Wine Walking Tour in Barcelona</t>
+          <t xml:space="preserve">Title: Secret Barcelona, wine tasting &amp; Spanish Tapas </t>
         </is>
       </c>
       <c r="B1234" t="inlineStr"/>
@@ -19027,7 +19027,7 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Cultural Tours']</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr"/>
@@ -19042,7 +19042,7 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3394P17</t>
+          <t>PRODUCTCODE: 400660P1</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr"/>
@@ -19057,7 +19057,7 @@
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the history of Barcelona and the century-old tradition of vermouth. Visit a carefully picked selection of modern and classic vermouth bars to offer you a truly authentic experience.</t>
+          <t>Summarized description: Learn about the history and culture of tapas in Catalonia and Spain, and enjoy a variety of delicious bites paired with local wines. We'll take you to four different restaurants, each offering their own unique spin on traditional tapas.</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr"/>
@@ -19072,7 +19072,7 @@
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>Title: Barcelona Alternative Tapas Guided Tour with Traditional Vermouth Tasting</t>
+          <t>Title: Private Tapas and Wine Walking Tour in Barcelona</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr"/>
@@ -19087,7 +19087,7 @@
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1240" t="inlineStr"/>
@@ -19117,7 +19117,7 @@
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239937P60</t>
+          <t>PRODUCTCODE: 3394P17</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr"/>
@@ -19132,7 +19132,7 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy 10 delicious and typical tastings ranging from sweet to salty, as well as drinks on a tasty Gastronomic tour in Barcelona. Try the classic churros, chocolate and pintxos in real local places. It's not just food, it's a cultural experience.</t>
+          <t>Summarized description: Learn about the history of Barcelona and the century-old tradition of vermouth. Visit a carefully picked selection of modern and classic vermouth bars to offer you a truly authentic experience.</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr"/>
@@ -19147,7 +19147,7 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>Title: Barcelona - Food Tasteing &amp; Cultural experience (Private Tour)</t>
+          <t>Title: Barcelona Alternative Tapas Guided Tour with Traditional Vermouth Tasting</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr"/>
@@ -19177,7 +19177,7 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr"/>
@@ -19192,7 +19192,7 @@
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P2</t>
+          <t>PRODUCTCODE: 239937P60</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr"/>
@@ -19207,7 +19207,7 @@
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>Summarized description: The best way to experience Barcelona is through its architecture and food. You will discover Spain's delectable gastronomy by eating a lot of tapas at 3 different restaurants.</t>
+          <t>Summarized description: Enjoy 10 delicious and typical tastings ranging from sweet to salty, as well as drinks on a tasty Gastronomic tour in Barcelona. Try the classic churros, chocolate and pintxos in real local places. It's not just food, it's a cultural experience.</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr"/>
@@ -19222,7 +19222,7 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>Title: Barcelona Amazing Architecture Exploring and Delicious Tapas Experience</t>
+          <t>Title: Barcelona - Food Tasteing &amp; Cultural experience (Private Tour)</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr"/>
@@ -19252,7 +19252,7 @@
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr"/>
@@ -19267,7 +19267,7 @@
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239937P64</t>
+          <t>PRODUCTCODE: 90219P2</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr"/>
@@ -19282,7 +19282,7 @@
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the vibrant areas of Sant Antoni and Poble Sec in a local way. Treat yourself with 4 glasses of wine from the local region of Catalunia and 4 delicious bites.</t>
+          <t>Summarized description: The best way to experience Barcelona is through its architecture and food. You will discover Spain's delectable gastronomy by eating a lot of tapas at 3 different restaurants.</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr"/>
@@ -19297,7 +19297,7 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>Title: Barcelona Tapas &amp; Wine Tasting Private Tour</t>
+          <t>Title: Barcelona Amazing Architecture Exploring and Delicious Tapas Experience</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr"/>
@@ -19342,7 +19342,7 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9919P4</t>
+          <t>PRODUCTCODE: 239937P64</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr"/>
@@ -19357,7 +19357,7 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>Summarized description: El Born is a city quarter that dates back to the Middle Ages. Hear how people lived during that time and see some of the important landmarks. Visit the Mercat Princesa, a major gastronomic destination.</t>
+          <t>Summarized description: Explore the vibrant areas of Sant Antoni and Poble Sec in a local way. Treat yourself with 4 glasses of wine from the local region of Catalunia and 4 delicious bites.</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr"/>
@@ -19372,7 +19372,7 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>Title: El Born Quarter and Tapas Tasting Guided Tour in Barcelona</t>
+          <t>Title: Barcelona Tapas &amp; Wine Tasting Private Tour</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr"/>
@@ -19402,7 +19402,7 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr"/>
@@ -19417,7 +19417,7 @@
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 243885P4</t>
+          <t>PRODUCTCODE: 9919P4</t>
         </is>
       </c>
       <c r="B1262" t="inlineStr"/>
@@ -19432,7 +19432,7 @@
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>Summarized description: The most delicious bites in Barcelona can be found in the Born area. The tour begins with a short walk through Barcelona’s old town. Then, we’ll make our first stop at Vidrios y Cristales.</t>
+          <t>Summarized description: El Born is a city quarter that dates back to the Middle Ages. Hear how people lived during that time and see some of the important landmarks. Visit the Mercat Princesa, a major gastronomic destination.</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr"/>
@@ -19447,7 +19447,7 @@
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>Title: Barcelona Tapas Tour (Small Group)</t>
+          <t>Title: El Born Quarter and Tapas Tasting Guided Tour in Barcelona</t>
         </is>
       </c>
       <c r="B1264" t="inlineStr"/>
@@ -19477,7 +19477,7 @@
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1266" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 26153P26</t>
+          <t>PRODUCTCODE: 243885P4</t>
         </is>
       </c>
       <c r="B1267" t="inlineStr"/>
@@ -19507,7 +19507,7 @@
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>Summarized description: Explore Barcelona through its deliciously and vibrant cuisine to get deeply in touch with the authenticity of the city. In only three hours, you get to experience the best local appetizers and typical Catalonian recipes.</t>
+          <t>Summarized description: The most delicious bites in Barcelona can be found in the Born area. The tour begins with a short walk through Barcelona’s old town. Then, we’ll make our first stop at Vidrios y Cristales.</t>
         </is>
       </c>
       <c r="B1268" t="inlineStr"/>
@@ -19522,7 +19522,7 @@
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>Title: Barcelona private tour for foodies</t>
+          <t>Title: Barcelona Tapas Tour (Small Group)</t>
         </is>
       </c>
       <c r="B1269" t="inlineStr"/>
@@ -19552,7 +19552,7 @@
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr"/>
@@ -19567,7 +19567,7 @@
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7234P5</t>
+          <t>PRODUCTCODE: 26153P26</t>
         </is>
       </c>
       <c r="B1272" t="inlineStr"/>
@@ -19582,7 +19582,7 @@
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>Summarized description: Gothic Quarter is one of Barcelona's oldest districts. Explore the city's most emblematic squares and monuments. Enjoy an evening in a small wine cellar in the heart of the district.</t>
+          <t>Summarized description: Explore Barcelona through its deliciously and vibrant cuisine to get deeply in touch with the authenticity of the city. In only three hours, you get to experience the best local appetizers and typical Catalonian recipes.</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr"/>
@@ -19597,7 +19597,7 @@
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>Title: The Gothic Quarter and Wine Tasting Tour of Barcelona</t>
+          <t>Title: Barcelona private tour for foodies</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr"/>
@@ -19627,7 +19627,7 @@
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1276" t="inlineStr"/>
@@ -19642,7 +19642,7 @@
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 23254P1</t>
+          <t>PRODUCTCODE: 7234P5</t>
         </is>
       </c>
       <c r="B1277" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>Summarized description: Barcelona is home to one of the most geographically interesting wines regions of the world. Explore this wine region by tasting some of the best local wines.</t>
+          <t>Summarized description: Gothic Quarter is one of Barcelona's oldest districts. Explore the city's most emblematic squares and monuments. Enjoy an evening in a small wine cellar in the heart of the district.</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr"/>
@@ -19672,7 +19672,7 @@
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>Title: Barcelona Guided Local Wine Tasting Tour</t>
+          <t>Title: The Gothic Quarter and Wine Tasting Tour of Barcelona</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr"/>
@@ -19702,7 +19702,7 @@
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1281" t="inlineStr"/>
@@ -19717,7 +19717,7 @@
     <row r="1282">
       <c r="A1282" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 247394P4</t>
+          <t>PRODUCTCODE: 23254P1</t>
         </is>
       </c>
       <c r="B1282" t="inlineStr"/>
@@ -19732,7 +19732,7 @@
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
-          <t>Summarized description: The guide has perfect knowns about those shops, restaurants and place you should not miss. Also you will love to taste Spanish tapas and beer or wine in the best places in town.</t>
+          <t>Summarized description: Barcelona is home to one of the most geographically interesting wines regions of the world. Explore this wine region by tasting some of the best local wines.</t>
         </is>
       </c>
       <c r="B1283" t="inlineStr"/>
@@ -19747,7 +19747,7 @@
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t>Title: Walking tour in Barcelona, with wine and tapas</t>
+          <t>Title: Barcelona Guided Local Wine Tasting Tour</t>
         </is>
       </c>
       <c r="B1284" t="inlineStr"/>
@@ -19777,7 +19777,7 @@
     <row r="1286">
       <c r="A1286" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Shopping and Fashion']</t>
+          <t>Category: ['Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1286" t="inlineStr"/>
@@ -19792,7 +19792,7 @@
     <row r="1287">
       <c r="A1287" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 196771P2</t>
+          <t>PRODUCTCODE: 247394P4</t>
         </is>
       </c>
       <c r="B1287" t="inlineStr"/>
@@ -19807,7 +19807,7 @@
     <row r="1288">
       <c r="A1288" t="inlineStr">
         <is>
-          <t>Summarized description: The Tapas Tour takes you through Barcelona’s famous Gothic Quarter, in the Ciutat Vella (old city) Past Roman walls, alongside cathedrals, through precious plazas and, most importantly, in-and-out of small local restaurants.</t>
+          <t>Summarized description: The guide has perfect knowns about those shops, restaurants and place you should not miss. Also you will love to taste Spanish tapas and beer or wine in the best places in town.</t>
         </is>
       </c>
       <c r="B1288" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
     <row r="1289">
       <c r="A1289" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Barcelona Special : 3 Hours Evening Tapas Tour </t>
+          <t>Title: Walking tour in Barcelona, with wine and tapas</t>
         </is>
       </c>
       <c r="B1289" t="inlineStr"/>
@@ -19852,7 +19852,7 @@
     <row r="1291">
       <c r="A1291" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Shopping and Fashion', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1291" t="inlineStr"/>
@@ -19867,7 +19867,7 @@
     <row r="1292">
       <c r="A1292" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 26613P2</t>
+          <t>PRODUCTCODE: 196771P2</t>
         </is>
       </c>
       <c r="B1292" t="inlineStr"/>
@@ -19882,7 +19882,7 @@
     <row r="1293">
       <c r="A1293" t="inlineStr">
         <is>
-          <t>Summarized description: Explore popular neighborhoods such as El Born and the Barceloneta area with a knowledgable local guide. Stop at 4 outstanding local tapas bars and learn the etiquette and art of ordering tapas.</t>
+          <t>Summarized description: The Tapas Tour takes you through Barcelona’s famous Gothic Quarter, in the Ciutat Vella (old city) Past Roman walls, alongside cathedrals, through precious plazas and, most importantly, in-and-out of small local restaurants.</t>
         </is>
       </c>
       <c r="B1293" t="inlineStr"/>
@@ -19897,7 +19897,7 @@
     <row r="1294">
       <c r="A1294" t="inlineStr">
         <is>
-          <t>Title: Private Barcelona Neighborhoods and Tapas Walking Tour</t>
+          <t xml:space="preserve">Title: Barcelona Special : 3 Hours Evening Tapas Tour </t>
         </is>
       </c>
       <c r="B1294" t="inlineStr"/>
@@ -19927,7 +19927,7 @@
     <row r="1296">
       <c r="A1296" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1296" t="inlineStr"/>
@@ -19942,7 +19942,7 @@
     <row r="1297">
       <c r="A1297" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 16637P14</t>
+          <t>PRODUCTCODE: 26613P2</t>
         </is>
       </c>
       <c r="B1297" t="inlineStr"/>
@@ -19957,7 +19957,7 @@
     <row r="1298">
       <c r="A1298" t="inlineStr">
         <is>
-          <t>Summarized description: Walk through Barcelona's Wine Culture with a blindfolded wine tasting. Your guide will take you to 4 local wine stops, where you will receive a glass of wine at each... and maybe even more if you ask sweetly!</t>
+          <t>Summarized description: Explore popular neighborhoods such as El Born and the Barceloneta area with a knowledgable local guide. Stop at 4 outstanding local tapas bars and learn the etiquette and art of ordering tapas.</t>
         </is>
       </c>
       <c r="B1298" t="inlineStr"/>
@@ -19972,7 +19972,7 @@
     <row r="1299">
       <c r="A1299" t="inlineStr">
         <is>
-          <t>Title: Wine Tasting Walking Tour in Barcelona</t>
+          <t>Title: Private Barcelona Neighborhoods and Tapas Walking Tour</t>
         </is>
       </c>
       <c r="B1299" t="inlineStr"/>
@@ -20002,7 +20002,7 @@
     <row r="1301">
       <c r="A1301" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1301" t="inlineStr"/>
@@ -20017,7 +20017,7 @@
     <row r="1302">
       <c r="A1302" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9866P157</t>
+          <t>PRODUCTCODE: 16637P14</t>
         </is>
       </c>
       <c r="B1302" t="inlineStr"/>
@@ -20032,7 +20032,7 @@
     <row r="1303">
       <c r="A1303" t="inlineStr">
         <is>
-          <t>Summarized description: Explore Barcelona’s most interesting neighbourhoods and a small group of rich cuisine with local tapas and wine. Explore the beauty of the city under the guidance of our experts and gain culinary insights into local products and wine pairings.</t>
+          <t>Summarized description: Walk through Barcelona's Wine Culture with a blindfolded wine tasting. Your guide will take you to 4 local wine stops, where you will receive a glass of wine at each... and maybe even more if you ask sweetly!</t>
         </is>
       </c>
       <c r="B1303" t="inlineStr"/>
@@ -20047,7 +20047,7 @@
     <row r="1304">
       <c r="A1304" t="inlineStr">
         <is>
-          <t>Title: Barcelona Local Tapas &amp; Wine Bike Tour in Small Group</t>
+          <t>Title: Wine Tasting Walking Tour in Barcelona</t>
         </is>
       </c>
       <c r="B1304" t="inlineStr"/>
@@ -20077,7 +20077,7 @@
     <row r="1306">
       <c r="A1306" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1306" t="inlineStr"/>
@@ -20092,7 +20092,7 @@
     <row r="1307">
       <c r="A1307" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 25160P19</t>
+          <t>PRODUCTCODE: 9866P157</t>
         </is>
       </c>
       <c r="B1307" t="inlineStr"/>
@@ -20107,7 +20107,7 @@
     <row r="1308">
       <c r="A1308" t="inlineStr">
         <is>
-          <t>Summarized description: 3,5-hour guided tour: Montjuïc with Olympic Games, El Born neighbourhood, Port Vell, Barceloneta. 2 tasting stops with fresh ﬁsh in front of the sea and exquisite chocolate cake with cava.</t>
+          <t>Summarized description: Explore Barcelona’s most interesting neighbourhoods and a small group of rich cuisine with local tapas and wine. Explore the beauty of the city under the guidance of our experts and gain culinary insights into local products and wine pairings.</t>
         </is>
       </c>
       <c r="B1308" t="inlineStr"/>
@@ -20122,7 +20122,7 @@
     <row r="1309">
       <c r="A1309" t="inlineStr">
         <is>
-          <t>Title: Barcelona Tapas Tour on Wheels</t>
+          <t>Title: Barcelona Local Tapas &amp; Wine Bike Tour in Small Group</t>
         </is>
       </c>
       <c r="B1309" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
     <row r="1311">
       <c r="A1311" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1311" t="inlineStr"/>
@@ -20167,7 +20167,7 @@
     <row r="1312">
       <c r="A1312" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7728P8</t>
+          <t>PRODUCTCODE: 25160P19</t>
         </is>
       </c>
       <c r="B1312" t="inlineStr"/>
@@ -20182,7 +20182,7 @@
     <row r="1313">
       <c r="A1313" t="inlineStr">
         <is>
-          <t>Summarized description: Catalan Vermouth and tapas tour. Enjoy a tasting of Catalan Vermouth with tapas in a hidden and authentic café. On the way, you will walking Paseo de Gracia for an overview of Catalan Modern Art.</t>
+          <t>Summarized description: 3,5-hour guided tour: Montjuïc with Olympic Games, El Born neighbourhood, Port Vell, Barceloneta. 2 tasting stops with fresh ﬁsh in front of the sea and exquisite chocolate cake with cava.</t>
         </is>
       </c>
       <c r="B1313" t="inlineStr"/>
@@ -20197,7 +20197,7 @@
     <row r="1314">
       <c r="A1314" t="inlineStr">
         <is>
-          <t>Title: Gothic and Bohemian Tapas Walking and E-biking tour in Barcelona</t>
+          <t>Title: Barcelona Tapas Tour on Wheels</t>
         </is>
       </c>
       <c r="B1314" t="inlineStr"/>
@@ -20227,7 +20227,7 @@
     <row r="1316">
       <c r="A1316" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1316" t="inlineStr"/>
@@ -20242,7 +20242,7 @@
     <row r="1317">
       <c r="A1317" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 85145P8</t>
+          <t>PRODUCTCODE: 7728P8</t>
         </is>
       </c>
       <c r="B1317" t="inlineStr"/>
@@ -20257,7 +20257,7 @@
     <row r="1318">
       <c r="A1318" t="inlineStr">
         <is>
-          <t>Summarized description: Join us at our wine experience at a local Catalan wine tasting cellar in Barcelona. Where you will enjoy a various category of Catalan wines with some delicious tapas!</t>
+          <t>Summarized description: Catalan Vermouth and tapas tour. Enjoy a tasting of Catalan Vermouth with tapas in a hidden and authentic café. On the way, you will walking Paseo de Gracia for an overview of Catalan Modern Art.</t>
         </is>
       </c>
       <c r="B1318" t="inlineStr"/>
@@ -20272,7 +20272,7 @@
     <row r="1319">
       <c r="A1319" t="inlineStr">
         <is>
-          <t>Title: Wine tasting &amp; tapas</t>
+          <t>Title: Gothic and Bohemian Tapas Walking and E-biking tour in Barcelona</t>
         </is>
       </c>
       <c r="B1319" t="inlineStr"/>
@@ -20302,7 +20302,7 @@
     <row r="1321">
       <c r="A1321" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['Dining Experiences', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1321" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
     <row r="1322">
       <c r="A1322" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 22314P5</t>
+          <t>PRODUCTCODE: 3394P50</t>
         </is>
       </c>
       <c r="B1322" t="inlineStr"/>
@@ -20332,7 +20332,7 @@
     <row r="1323">
       <c r="A1323" t="inlineStr">
         <is>
-          <t>Summarized description: Segway Tour explores Barcelona's gastronomic culture and way of life. Visit the popular Barceloneta and places to enjoy the famous traditional tapas.</t>
+          <t>Summarized description: Taste five Catalan beers chosen by your local brewer expert with cured meats and Traditional Catalan flat breaf. Learn about our fascinating local Beers and meet Craft Beer lovers from over the world.</t>
         </is>
       </c>
       <c r="B1323" t="inlineStr"/>
@@ -20347,7 +20347,7 @@
     <row r="1324">
       <c r="A1324" t="inlineStr">
         <is>
-          <t>Title: Barcelona on a Segway: Guided Tapas Tour</t>
+          <t>Title: Barcelona Craft Beer Tasting with tapas</t>
         </is>
       </c>
       <c r="B1324" t="inlineStr"/>
@@ -20377,7 +20377,7 @@
     <row r="1326">
       <c r="A1326" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1326" t="inlineStr"/>
@@ -20392,7 +20392,7 @@
     <row r="1327">
       <c r="A1327" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 22314P6</t>
+          <t>PRODUCTCODE: 85145P8</t>
         </is>
       </c>
       <c r="B1327" t="inlineStr"/>
@@ -20407,7 +20407,7 @@
     <row r="1328">
       <c r="A1328" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Barcelona and its gastronomic culture and way of life in a unique Bike Tour. You will visit the popular Barceloneta and places to enjoy the famous traditional tapas.</t>
+          <t>Summarized description: Join us at our wine experience at a local Catalan wine tasting cellar in Barcelona. Where you will enjoy a various category of Catalan wines with some delicious tapas!</t>
         </is>
       </c>
       <c r="B1328" t="inlineStr"/>
@@ -20422,7 +20422,7 @@
     <row r="1329">
       <c r="A1329" t="inlineStr">
         <is>
-          <t>Title: Barcelona Bike and Tapas Tour</t>
+          <t>Title: Wine tasting &amp; tapas</t>
         </is>
       </c>
       <c r="B1329" t="inlineStr"/>
@@ -20452,7 +20452,7 @@
     <row r="1331">
       <c r="A1331" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1331" t="inlineStr"/>
@@ -20467,7 +20467,7 @@
     <row r="1332">
       <c r="A1332" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 107187P1</t>
+          <t>PRODUCTCODE: 22314P5</t>
         </is>
       </c>
       <c r="B1332" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
     <row r="1333">
       <c r="A1333" t="inlineStr">
         <is>
-          <t>Summarized description: We take a walk across 3 districts of the city center, each one with its own personality. We stop to taste tapas and the most popular crafted beer of Barcelona directly from its own modern Micro Brewery Lab. Take a walk back in time through the Gothic past of Barcelona and get to those times when the Romans founded the city.</t>
+          <t>Summarized description: Segway Tour explores Barcelona's gastronomic culture and way of life. Visit the popular Barceloneta and places to enjoy the famous traditional tapas.</t>
         </is>
       </c>
       <c r="B1333" t="inlineStr"/>
@@ -20497,7 +20497,7 @@
     <row r="1334">
       <c r="A1334" t="inlineStr">
         <is>
-          <t>Title: The Taste of Barcelona Cultural and Foodie Tour</t>
+          <t>Title: Barcelona on a Segway: Guided Tapas Tour</t>
         </is>
       </c>
       <c r="B1334" t="inlineStr"/>
@@ -20527,7 +20527,7 @@
     <row r="1336">
       <c r="A1336" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1336" t="inlineStr"/>
@@ -20542,7 +20542,7 @@
     <row r="1337">
       <c r="A1337" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 21175P31</t>
+          <t>PRODUCTCODE: 22314P6</t>
         </is>
       </c>
       <c r="B1337" t="inlineStr"/>
@@ -20557,7 +20557,7 @@
     <row r="1338">
       <c r="A1338" t="inlineStr">
         <is>
-          <t>Summarized description: 3-hour private culinary tour of Barcelona. Three tapas bars in Gothic Quarter and El Born neighbourhoods. Try out traditional Catalonian recipes as well as favorites from other regions.</t>
+          <t>Summarized description: Discover Barcelona and its gastronomic culture and way of life in a unique Bike Tour. You will visit the popular Barceloneta and places to enjoy the famous traditional tapas.</t>
         </is>
       </c>
       <c r="B1338" t="inlineStr"/>
@@ -20572,7 +20572,7 @@
     <row r="1339">
       <c r="A1339" t="inlineStr">
         <is>
-          <t>Title: Private Guided Tapas Tour of Barcelona</t>
+          <t>Title: Barcelona Bike and Tapas Tour</t>
         </is>
       </c>
       <c r="B1339" t="inlineStr"/>
@@ -20602,7 +20602,7 @@
     <row r="1341">
       <c r="A1341" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1341" t="inlineStr"/>
@@ -20617,7 +20617,7 @@
     <row r="1342">
       <c r="A1342" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>PRODUCTCODE: 107187P1</t>
         </is>
       </c>
       <c r="B1342" t="inlineStr"/>
@@ -20629,6 +20629,156 @@
       <c r="H1342" t="inlineStr"/>
       <c r="I1342" t="inlineStr"/>
     </row>
+    <row r="1343">
+      <c r="A1343" t="inlineStr">
+        <is>
+          <t>Summarized description: We take a walk across 3 districts of the city center, each one with its own personality. We stop to taste tapas and the most popular crafted beer of Barcelona directly from its own modern Micro Brewery Lab. Take a walk back in time through the Gothic past of Barcelona and get to those times when the Romans founded the city.</t>
+        </is>
+      </c>
+      <c r="B1343" t="inlineStr"/>
+      <c r="C1343" t="inlineStr"/>
+      <c r="D1343" t="inlineStr"/>
+      <c r="E1343" t="inlineStr"/>
+      <c r="F1343" t="inlineStr"/>
+      <c r="G1343" t="inlineStr"/>
+      <c r="H1343" t="inlineStr"/>
+      <c r="I1343" t="inlineStr"/>
+    </row>
+    <row r="1344">
+      <c r="A1344" t="inlineStr">
+        <is>
+          <t>Title: The Taste of Barcelona Cultural and Foodie Tour</t>
+        </is>
+      </c>
+      <c r="B1344" t="inlineStr"/>
+      <c r="C1344" t="inlineStr"/>
+      <c r="D1344" t="inlineStr"/>
+      <c r="E1344" t="inlineStr"/>
+      <c r="F1344" t="inlineStr"/>
+      <c r="G1344" t="inlineStr"/>
+      <c r="H1344" t="inlineStr"/>
+      <c r="I1344" t="inlineStr"/>
+    </row>
+    <row r="1345">
+      <c r="A1345" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1345" t="inlineStr"/>
+      <c r="C1345" t="inlineStr"/>
+      <c r="D1345" t="inlineStr"/>
+      <c r="E1345" t="inlineStr"/>
+      <c r="F1345" t="inlineStr"/>
+      <c r="G1345" t="inlineStr"/>
+      <c r="H1345" t="inlineStr"/>
+      <c r="I1345" t="inlineStr"/>
+    </row>
+    <row r="1346">
+      <c r="A1346" t="inlineStr">
+        <is>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Culinary Tours']</t>
+        </is>
+      </c>
+      <c r="B1346" t="inlineStr"/>
+      <c r="C1346" t="inlineStr"/>
+      <c r="D1346" t="inlineStr"/>
+      <c r="E1346" t="inlineStr"/>
+      <c r="F1346" t="inlineStr"/>
+      <c r="G1346" t="inlineStr"/>
+      <c r="H1346" t="inlineStr"/>
+      <c r="I1346" t="inlineStr"/>
+    </row>
+    <row r="1347">
+      <c r="A1347" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 21175P31</t>
+        </is>
+      </c>
+      <c r="B1347" t="inlineStr"/>
+      <c r="C1347" t="inlineStr"/>
+      <c r="D1347" t="inlineStr"/>
+      <c r="E1347" t="inlineStr"/>
+      <c r="F1347" t="inlineStr"/>
+      <c r="G1347" t="inlineStr"/>
+      <c r="H1347" t="inlineStr"/>
+      <c r="I1347" t="inlineStr"/>
+    </row>
+    <row r="1348">
+      <c r="A1348" t="inlineStr">
+        <is>
+          <t>Summarized description: 3-hour private culinary tour of Barcelona. Three tapas bars in Gothic Quarter and El Born neighbourhoods. Try out traditional Catalonian recipes as well as favorites from other regions.</t>
+        </is>
+      </c>
+      <c r="B1348" t="inlineStr"/>
+      <c r="C1348" t="inlineStr"/>
+      <c r="D1348" t="inlineStr"/>
+      <c r="E1348" t="inlineStr"/>
+      <c r="F1348" t="inlineStr"/>
+      <c r="G1348" t="inlineStr"/>
+      <c r="H1348" t="inlineStr"/>
+      <c r="I1348" t="inlineStr"/>
+    </row>
+    <row r="1349">
+      <c r="A1349" t="inlineStr">
+        <is>
+          <t>Title: Private Guided Tapas Tour of Barcelona</t>
+        </is>
+      </c>
+      <c r="B1349" t="inlineStr"/>
+      <c r="C1349" t="inlineStr"/>
+      <c r="D1349" t="inlineStr"/>
+      <c r="E1349" t="inlineStr"/>
+      <c r="F1349" t="inlineStr"/>
+      <c r="G1349" t="inlineStr"/>
+      <c r="H1349" t="inlineStr"/>
+      <c r="I1349" t="inlineStr"/>
+    </row>
+    <row r="1350">
+      <c r="A1350" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1350" t="inlineStr"/>
+      <c r="C1350" t="inlineStr"/>
+      <c r="D1350" t="inlineStr"/>
+      <c r="E1350" t="inlineStr"/>
+      <c r="F1350" t="inlineStr"/>
+      <c r="G1350" t="inlineStr"/>
+      <c r="H1350" t="inlineStr"/>
+      <c r="I1350" t="inlineStr"/>
+    </row>
+    <row r="1351">
+      <c r="A1351" t="inlineStr">
+        <is>
+          <t>Category: ['Culinary Tours']</t>
+        </is>
+      </c>
+      <c r="B1351" t="inlineStr"/>
+      <c r="C1351" t="inlineStr"/>
+      <c r="D1351" t="inlineStr"/>
+      <c r="E1351" t="inlineStr"/>
+      <c r="F1351" t="inlineStr"/>
+      <c r="G1351" t="inlineStr"/>
+      <c r="H1351" t="inlineStr"/>
+      <c r="I1351" t="inlineStr"/>
+    </row>
+    <row r="1352">
+      <c r="A1352" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+      <c r="B1352" t="inlineStr"/>
+      <c r="C1352" t="inlineStr"/>
+      <c r="D1352" t="inlineStr"/>
+      <c r="E1352" t="inlineStr"/>
+      <c r="F1352" t="inlineStr"/>
+      <c r="G1352" t="inlineStr"/>
+      <c r="H1352" t="inlineStr"/>
+      <c r="I1352" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment_results/16168P1.xlsx
+++ b/experiment_results/16168P1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1352"/>
+  <dimension ref="A1:I1342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -696,7 +696,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Aerial Tours']</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -771,7 +771,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -921,7 +921,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -996,7 +996,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1221,7 +1221,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1296,7 +1296,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1371,7 +1371,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -1446,7 +1446,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Category: ['Performing Arts', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Performing Arts']</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -1821,7 +1821,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Category: ['Performing Arts', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Performing Arts']</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -2046,7 +2046,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -2421,7 +2421,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
@@ -2571,7 +2571,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
@@ -2646,7 +2646,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
@@ -2796,7 +2796,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -3021,7 +3021,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
@@ -3171,7 +3171,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
@@ -3321,7 +3321,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
@@ -3621,7 +3621,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -3696,7 +3696,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
@@ -3771,7 +3771,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
@@ -3846,7 +3846,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Category: ['Performing Arts', 'Cultural Tours', 'Dining Experiences']</t>
+          <t>Category: ['Cultural Tours', 'Dining Experiences', 'Performing Arts']</t>
         </is>
       </c>
       <c r="B224" t="inlineStr"/>
@@ -4071,7 +4071,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B239" t="inlineStr"/>
@@ -4221,7 +4221,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Category: ['Performing Arts', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Performing Arts']</t>
         </is>
       </c>
       <c r="B249" t="inlineStr"/>
@@ -4371,7 +4371,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B259" t="inlineStr"/>
@@ -4671,7 +4671,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Category: ['Workshops and Classes', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Workshops and Classes']</t>
         </is>
       </c>
       <c r="B279" t="inlineStr"/>
@@ -4746,7 +4746,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B284" t="inlineStr"/>
@@ -4821,7 +4821,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B289" t="inlineStr"/>
@@ -4896,7 +4896,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B294" t="inlineStr"/>
@@ -5046,7 +5046,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B304" t="inlineStr"/>
@@ -5271,7 +5271,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B319" t="inlineStr"/>
@@ -5421,7 +5421,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B329" t="inlineStr"/>
@@ -5571,7 +5571,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B339" t="inlineStr"/>
@@ -5721,7 +5721,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Dining Experiences', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B349" t="inlineStr"/>
@@ -5946,7 +5946,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B364" t="inlineStr"/>
@@ -6021,7 +6021,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B369" t="inlineStr"/>
@@ -6096,7 +6096,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B374" t="inlineStr"/>
@@ -6396,7 +6396,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B394" t="inlineStr"/>
@@ -6471,7 +6471,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B399" t="inlineStr"/>
@@ -6621,7 +6621,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Dining Experiences']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B409" t="inlineStr"/>
@@ -6696,7 +6696,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Festivals']</t>
+          <t>Category: ['Cultural Festivals', 'City Tours']</t>
         </is>
       </c>
       <c r="B414" t="inlineStr"/>
@@ -6771,7 +6771,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B419" t="inlineStr"/>
@@ -6846,7 +6846,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B424" t="inlineStr"/>
@@ -6921,7 +6921,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B429" t="inlineStr"/>
@@ -6996,7 +6996,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B434" t="inlineStr"/>
@@ -7371,7 +7371,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B459" t="inlineStr"/>
@@ -7521,7 +7521,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B469" t="inlineStr"/>
@@ -7746,7 +7746,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Dining Experiences', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B484" t="inlineStr"/>
@@ -7821,7 +7821,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B489" t="inlineStr"/>
@@ -8121,7 +8121,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B509" t="inlineStr"/>
@@ -8271,7 +8271,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Category: ['Performing Arts', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours', 'Performing Arts']</t>
         </is>
       </c>
       <c r="B519" t="inlineStr"/>
@@ -8346,7 +8346,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B524" t="inlineStr"/>
@@ -8496,7 +8496,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B534" t="inlineStr"/>
@@ -8571,7 +8571,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B539" t="inlineStr"/>
@@ -8796,7 +8796,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Category: ['Performing Arts', 'Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours', 'Performing Arts']</t>
         </is>
       </c>
       <c r="B554" t="inlineStr"/>
@@ -8946,7 +8946,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B564" t="inlineStr"/>
@@ -9171,7 +9171,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B579" t="inlineStr"/>
@@ -9246,7 +9246,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B584" t="inlineStr"/>
@@ -9546,7 +9546,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B604" t="inlineStr"/>
@@ -9621,7 +9621,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B609" t="inlineStr"/>
@@ -10221,7 +10221,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B649" t="inlineStr"/>
@@ -10296,7 +10296,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B654" t="inlineStr"/>
@@ -10371,7 +10371,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B659" t="inlineStr"/>
@@ -10521,7 +10521,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B669" t="inlineStr"/>
@@ -10821,7 +10821,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B689" t="inlineStr"/>
@@ -10971,7 +10971,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B699" t="inlineStr"/>
@@ -11046,7 +11046,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B704" t="inlineStr"/>
@@ -11121,7 +11121,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B709" t="inlineStr"/>
@@ -11196,7 +11196,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B714" t="inlineStr"/>
@@ -11346,7 +11346,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B724" t="inlineStr"/>
@@ -11571,7 +11571,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B739" t="inlineStr"/>
@@ -11721,7 +11721,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B749" t="inlineStr"/>
@@ -11796,7 +11796,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B754" t="inlineStr"/>
@@ -12171,7 +12171,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B779" t="inlineStr"/>
@@ -12546,7 +12546,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B804" t="inlineStr"/>
@@ -12621,7 +12621,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B809" t="inlineStr"/>
@@ -12771,7 +12771,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B819" t="inlineStr"/>
@@ -12996,7 +12996,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B834" t="inlineStr"/>
@@ -13446,7 +13446,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B864" t="inlineStr"/>
@@ -13596,7 +13596,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B874" t="inlineStr"/>
@@ -13671,7 +13671,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B879" t="inlineStr"/>
@@ -13821,7 +13821,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B889" t="inlineStr"/>
@@ -13896,7 +13896,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B894" t="inlineStr"/>
@@ -14046,7 +14046,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B904" t="inlineStr"/>
@@ -14346,7 +14346,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B924" t="inlineStr"/>
@@ -14421,7 +14421,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B929" t="inlineStr"/>
@@ -14496,7 +14496,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B934" t="inlineStr"/>
@@ -14721,7 +14721,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B949" t="inlineStr"/>
@@ -15021,7 +15021,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B969" t="inlineStr"/>
@@ -15096,7 +15096,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B974" t="inlineStr"/>
@@ -15171,7 +15171,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B979" t="inlineStr"/>
@@ -15321,7 +15321,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B989" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B996" t="inlineStr"/>
@@ -15577,7 +15577,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['Performing Arts', 'Cultural Tours', 'Dining Experiences']</t>
+          <t>Category: ['Cultural Tours', 'Dining Experiences', 'Performing Arts']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Category: ['Performing Arts', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Performing Arts']</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
@@ -17602,7 +17602,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr"/>
@@ -17752,7 +17752,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr"/>
@@ -17827,7 +17827,7 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr"/>
@@ -17902,7 +17902,7 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Dining Experiences', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr"/>
@@ -17977,7 +17977,7 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr"/>
@@ -18052,7 +18052,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr"/>
@@ -18202,7 +18202,7 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr"/>
@@ -18427,7 +18427,7 @@
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr"/>
@@ -18652,7 +18652,7 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 26613P4</t>
+          <t>PRODUCTCODE: 24338P53</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr"/>
@@ -18682,7 +18682,7 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>Summarized description: 2.5 hour guided walking tour. Taste delicious and healthy tapas while exploring the city's main sights. Immerse yourself in more than 2,000 years of history through two charming neighborhoods.</t>
+          <t>Summarized description: The Gothic Quarter is one of Barcelona’s most vibrant areas. Join us on a delicious discovery of the Gothic quarter. There will be enough tapas and wine to discover a lot of Barcelona.</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr"/>
@@ -18697,7 +18697,7 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>Title: Barcelona Vegetarian Tapas Walking Tour</t>
+          <t>Title: Local Barcelona Tapas Tour with Wine &amp; Dinner</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr"/>
@@ -18727,7 +18727,7 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr"/>
@@ -18742,7 +18742,7 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24338P53</t>
+          <t>PRODUCTCODE: 11498P141</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr"/>
@@ -18757,7 +18757,7 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>Summarized description: The Gothic Quarter is one of Barcelona’s most vibrant areas. Join us on a delicious discovery of the Gothic quarter. There will be enough tapas and wine to discover a lot of Barcelona.</t>
+          <t>Summarized description: The best way to discover Barcelona is to try local wine and tapas with a private local guide. At each cafe, sample handpicked Catalonian wine and complimentary tapas. Visit some of the most interesting corners of the Barcelona Old Town.</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr"/>
@@ -18772,7 +18772,7 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>Title: Local Barcelona Tapas Tour with Wine &amp; Dinner</t>
+          <t>Title: Barcelona Tapas &amp; Wine Tour with a Private Local Guide</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr"/>
@@ -18802,7 +18802,7 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr"/>
@@ -18817,7 +18817,7 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 11498P141</t>
+          <t>PRODUCTCODE: 152463P1</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>Summarized description: The best way to discover Barcelona is to try local wine and tapas with a private local guide. At each cafe, sample handpicked Catalonian wine and complimentary tapas. Visit some of the most interesting corners of the Barcelona Old Town.</t>
+          <t>Summarized description: This 2.5-hour tour offers a pleasant and economical way to visit some of the best tapas places in Barcelona. Your guide will share your passion for Spanish food and the secrets of Spanish gastronomy.</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr"/>
@@ -18847,7 +18847,7 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>Title: Barcelona Tapas &amp; Wine Tour with a Private Local Guide</t>
+          <t>Title: Best Tapas Tour of Barcelona!</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr"/>
@@ -18877,7 +18877,7 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr"/>
@@ -18892,7 +18892,7 @@
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 152463P1</t>
+          <t>PRODUCTCODE: 118881P4</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr"/>
@@ -18907,7 +18907,7 @@
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>Summarized description: This 2.5-hour tour offers a pleasant and economical way to visit some of the best tapas places in Barcelona. Your guide will share your passion for Spanish food and the secrets of Spanish gastronomy.</t>
+          <t>Summarized description: Barcelona is known around the world for its sumptuous wines, tapas, art, architecture, history and culture. Walk in the footsteps of the most emblematic Spanish artists, such as Picasso, Dali, Miro and Gaudi.</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr"/>
@@ -18922,7 +18922,7 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>Title: Best Tapas Tour of Barcelona!</t>
+          <t xml:space="preserve">Title: Secret Barcelona, wine tasting &amp; Spanish Tapas </t>
         </is>
       </c>
       <c r="B1229" t="inlineStr"/>
@@ -18952,7 +18952,7 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Cultural Tours']</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr"/>
@@ -18967,7 +18967,7 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 118881P4</t>
+          <t>PRODUCTCODE: 400660P1</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr"/>
@@ -18982,7 +18982,7 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>Summarized description: Barcelona is known around the world for its sumptuous wines, tapas, art, architecture, history and culture. Walk in the footsteps of the most emblematic Spanish artists, such as Picasso, Dali, Miro and Gaudi.</t>
+          <t>Summarized description: Learn about the history and culture of tapas in Catalonia and Spain, and enjoy a variety of delicious bites paired with local wines. We'll take you to four different restaurants, each offering their own unique spin on traditional tapas.</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Secret Barcelona, wine tasting &amp; Spanish Tapas </t>
+          <t>Title: Private Tapas and Wine Walking Tour in Barcelona</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr"/>
@@ -19027,7 +19027,7 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr"/>
@@ -19042,7 +19042,7 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 400660P1</t>
+          <t>PRODUCTCODE: 3394P17</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr"/>
@@ -19057,7 +19057,7 @@
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the history and culture of tapas in Catalonia and Spain, and enjoy a variety of delicious bites paired with local wines. We'll take you to four different restaurants, each offering their own unique spin on traditional tapas.</t>
+          <t>Summarized description: Learn about the history of Barcelona and the century-old tradition of vermouth. Visit a carefully picked selection of modern and classic vermouth bars to offer you a truly authentic experience.</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr"/>
@@ -19072,7 +19072,7 @@
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>Title: Private Tapas and Wine Walking Tour in Barcelona</t>
+          <t>Title: Barcelona Alternative Tapas Guided Tour with Traditional Vermouth Tasting</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr"/>
@@ -19087,7 +19087,7 @@
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1240" t="inlineStr"/>
@@ -19117,7 +19117,7 @@
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3394P17</t>
+          <t>PRODUCTCODE: 239937P60</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr"/>
@@ -19132,7 +19132,7 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the history of Barcelona and the century-old tradition of vermouth. Visit a carefully picked selection of modern and classic vermouth bars to offer you a truly authentic experience.</t>
+          <t>Summarized description: Enjoy 10 delicious and typical tastings ranging from sweet to salty, as well as drinks on a tasty Gastronomic tour in Barcelona. Try the classic churros, chocolate and pintxos in real local places. It's not just food, it's a cultural experience.</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr"/>
@@ -19147,7 +19147,7 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>Title: Barcelona Alternative Tapas Guided Tour with Traditional Vermouth Tasting</t>
+          <t>Title: Barcelona - Food Tasteing &amp; Cultural experience (Private Tour)</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr"/>
@@ -19177,7 +19177,7 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr"/>
@@ -19192,7 +19192,7 @@
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239937P60</t>
+          <t>PRODUCTCODE: 90219P2</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr"/>
@@ -19207,7 +19207,7 @@
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy 10 delicious and typical tastings ranging from sweet to salty, as well as drinks on a tasty Gastronomic tour in Barcelona. Try the classic churros, chocolate and pintxos in real local places. It's not just food, it's a cultural experience.</t>
+          <t>Summarized description: The best way to experience Barcelona is through its architecture and food. You will discover Spain's delectable gastronomy by eating a lot of tapas at 3 different restaurants.</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr"/>
@@ -19222,7 +19222,7 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>Title: Barcelona - Food Tasteing &amp; Cultural experience (Private Tour)</t>
+          <t>Title: Barcelona Amazing Architecture Exploring and Delicious Tapas Experience</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr"/>
@@ -19252,7 +19252,7 @@
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr"/>
@@ -19267,7 +19267,7 @@
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P2</t>
+          <t>PRODUCTCODE: 239937P64</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr"/>
@@ -19282,7 +19282,7 @@
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>Summarized description: The best way to experience Barcelona is through its architecture and food. You will discover Spain's delectable gastronomy by eating a lot of tapas at 3 different restaurants.</t>
+          <t>Summarized description: Explore the vibrant areas of Sant Antoni and Poble Sec in a local way. Treat yourself with 4 glasses of wine from the local region of Catalunia and 4 delicious bites.</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr"/>
@@ -19297,7 +19297,7 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>Title: Barcelona Amazing Architecture Exploring and Delicious Tapas Experience</t>
+          <t>Title: Barcelona Tapas &amp; Wine Tasting Private Tour</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr"/>
@@ -19342,7 +19342,7 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239937P64</t>
+          <t>PRODUCTCODE: 9919P4</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr"/>
@@ -19357,7 +19357,7 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the vibrant areas of Sant Antoni and Poble Sec in a local way. Treat yourself with 4 glasses of wine from the local region of Catalunia and 4 delicious bites.</t>
+          <t>Summarized description: El Born is a city quarter that dates back to the Middle Ages. Hear how people lived during that time and see some of the important landmarks. Visit the Mercat Princesa, a major gastronomic destination.</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr"/>
@@ -19372,7 +19372,7 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>Title: Barcelona Tapas &amp; Wine Tasting Private Tour</t>
+          <t>Title: El Born Quarter and Tapas Tasting Guided Tour in Barcelona</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr"/>
@@ -19402,7 +19402,7 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr"/>
@@ -19417,7 +19417,7 @@
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9919P4</t>
+          <t>PRODUCTCODE: 243885P4</t>
         </is>
       </c>
       <c r="B1262" t="inlineStr"/>
@@ -19432,7 +19432,7 @@
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>Summarized description: El Born is a city quarter that dates back to the Middle Ages. Hear how people lived during that time and see some of the important landmarks. Visit the Mercat Princesa, a major gastronomic destination.</t>
+          <t>Summarized description: The most delicious bites in Barcelona can be found in the Born area. The tour begins with a short walk through Barcelona’s old town. Then, we’ll make our first stop at Vidrios y Cristales.</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr"/>
@@ -19447,7 +19447,7 @@
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>Title: El Born Quarter and Tapas Tasting Guided Tour in Barcelona</t>
+          <t>Title: Barcelona Tapas Tour (Small Group)</t>
         </is>
       </c>
       <c r="B1264" t="inlineStr"/>
@@ -19477,7 +19477,7 @@
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1266" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 243885P4</t>
+          <t>PRODUCTCODE: 26153P26</t>
         </is>
       </c>
       <c r="B1267" t="inlineStr"/>
@@ -19507,7 +19507,7 @@
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>Summarized description: The most delicious bites in Barcelona can be found in the Born area. The tour begins with a short walk through Barcelona’s old town. Then, we’ll make our first stop at Vidrios y Cristales.</t>
+          <t>Summarized description: Explore Barcelona through its deliciously and vibrant cuisine to get deeply in touch with the authenticity of the city. In only three hours, you get to experience the best local appetizers and typical Catalonian recipes.</t>
         </is>
       </c>
       <c r="B1268" t="inlineStr"/>
@@ -19522,7 +19522,7 @@
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>Title: Barcelona Tapas Tour (Small Group)</t>
+          <t>Title: Barcelona private tour for foodies</t>
         </is>
       </c>
       <c r="B1269" t="inlineStr"/>
@@ -19552,7 +19552,7 @@
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr"/>
@@ -19567,7 +19567,7 @@
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 26153P26</t>
+          <t>PRODUCTCODE: 7234P5</t>
         </is>
       </c>
       <c r="B1272" t="inlineStr"/>
@@ -19582,7 +19582,7 @@
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>Summarized description: Explore Barcelona through its deliciously and vibrant cuisine to get deeply in touch with the authenticity of the city. In only three hours, you get to experience the best local appetizers and typical Catalonian recipes.</t>
+          <t>Summarized description: Gothic Quarter is one of Barcelona's oldest districts. Explore the city's most emblematic squares and monuments. Enjoy an evening in a small wine cellar in the heart of the district.</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr"/>
@@ -19597,7 +19597,7 @@
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>Title: Barcelona private tour for foodies</t>
+          <t>Title: The Gothic Quarter and Wine Tasting Tour of Barcelona</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr"/>
@@ -19627,7 +19627,7 @@
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1276" t="inlineStr"/>
@@ -19642,7 +19642,7 @@
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7234P5</t>
+          <t>PRODUCTCODE: 23254P1</t>
         </is>
       </c>
       <c r="B1277" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>Summarized description: Gothic Quarter is one of Barcelona's oldest districts. Explore the city's most emblematic squares and monuments. Enjoy an evening in a small wine cellar in the heart of the district.</t>
+          <t>Summarized description: Barcelona is home to one of the most geographically interesting wines regions of the world. Explore this wine region by tasting some of the best local wines.</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr"/>
@@ -19672,7 +19672,7 @@
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>Title: The Gothic Quarter and Wine Tasting Tour of Barcelona</t>
+          <t>Title: Barcelona Guided Local Wine Tasting Tour</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr"/>
@@ -19702,7 +19702,7 @@
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1281" t="inlineStr"/>
@@ -19717,7 +19717,7 @@
     <row r="1282">
       <c r="A1282" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 23254P1</t>
+          <t>PRODUCTCODE: 247394P4</t>
         </is>
       </c>
       <c r="B1282" t="inlineStr"/>
@@ -19732,7 +19732,7 @@
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
-          <t>Summarized description: Barcelona is home to one of the most geographically interesting wines regions of the world. Explore this wine region by tasting some of the best local wines.</t>
+          <t>Summarized description: The guide has perfect knowns about those shops, restaurants and place you should not miss. Also you will love to taste Spanish tapas and beer or wine in the best places in town.</t>
         </is>
       </c>
       <c r="B1283" t="inlineStr"/>
@@ -19747,7 +19747,7 @@
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t>Title: Barcelona Guided Local Wine Tasting Tour</t>
+          <t>Title: Walking tour in Barcelona, with wine and tapas</t>
         </is>
       </c>
       <c r="B1284" t="inlineStr"/>
@@ -19777,7 +19777,7 @@
     <row r="1286">
       <c r="A1286" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['Shopping and Fashion', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1286" t="inlineStr"/>
@@ -19792,7 +19792,7 @@
     <row r="1287">
       <c r="A1287" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 247394P4</t>
+          <t>PRODUCTCODE: 196771P2</t>
         </is>
       </c>
       <c r="B1287" t="inlineStr"/>
@@ -19807,7 +19807,7 @@
     <row r="1288">
       <c r="A1288" t="inlineStr">
         <is>
-          <t>Summarized description: The guide has perfect knowns about those shops, restaurants and place you should not miss. Also you will love to taste Spanish tapas and beer or wine in the best places in town.</t>
+          <t>Summarized description: The Tapas Tour takes you through Barcelona’s famous Gothic Quarter, in the Ciutat Vella (old city) Past Roman walls, alongside cathedrals, through precious plazas and, most importantly, in-and-out of small local restaurants.</t>
         </is>
       </c>
       <c r="B1288" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
     <row r="1289">
       <c r="A1289" t="inlineStr">
         <is>
-          <t>Title: Walking tour in Barcelona, with wine and tapas</t>
+          <t xml:space="preserve">Title: Barcelona Special : 3 Hours Evening Tapas Tour </t>
         </is>
       </c>
       <c r="B1289" t="inlineStr"/>
@@ -19852,7 +19852,7 @@
     <row r="1291">
       <c r="A1291" t="inlineStr">
         <is>
-          <t>Category: ['Shopping and Fashion', 'Culinary Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1291" t="inlineStr"/>
@@ -19867,7 +19867,7 @@
     <row r="1292">
       <c r="A1292" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 196771P2</t>
+          <t>PRODUCTCODE: 26613P2</t>
         </is>
       </c>
       <c r="B1292" t="inlineStr"/>
@@ -19882,7 +19882,7 @@
     <row r="1293">
       <c r="A1293" t="inlineStr">
         <is>
-          <t>Summarized description: The Tapas Tour takes you through Barcelona’s famous Gothic Quarter, in the Ciutat Vella (old city) Past Roman walls, alongside cathedrals, through precious plazas and, most importantly, in-and-out of small local restaurants.</t>
+          <t>Summarized description: Explore popular neighborhoods such as El Born and the Barceloneta area with a knowledgable local guide. Stop at 4 outstanding local tapas bars and learn the etiquette and art of ordering tapas.</t>
         </is>
       </c>
       <c r="B1293" t="inlineStr"/>
@@ -19897,7 +19897,7 @@
     <row r="1294">
       <c r="A1294" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Barcelona Special : 3 Hours Evening Tapas Tour </t>
+          <t>Title: Private Barcelona Neighborhoods and Tapas Walking Tour</t>
         </is>
       </c>
       <c r="B1294" t="inlineStr"/>
@@ -19927,7 +19927,7 @@
     <row r="1296">
       <c r="A1296" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1296" t="inlineStr"/>
@@ -19942,7 +19942,7 @@
     <row r="1297">
       <c r="A1297" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 26613P2</t>
+          <t>PRODUCTCODE: 16637P14</t>
         </is>
       </c>
       <c r="B1297" t="inlineStr"/>
@@ -19957,7 +19957,7 @@
     <row r="1298">
       <c r="A1298" t="inlineStr">
         <is>
-          <t>Summarized description: Explore popular neighborhoods such as El Born and the Barceloneta area with a knowledgable local guide. Stop at 4 outstanding local tapas bars and learn the etiquette and art of ordering tapas.</t>
+          <t>Summarized description: Walk through Barcelona's Wine Culture with a blindfolded wine tasting. Your guide will take you to 4 local wine stops, where you will receive a glass of wine at each... and maybe even more if you ask sweetly!</t>
         </is>
       </c>
       <c r="B1298" t="inlineStr"/>
@@ -19972,7 +19972,7 @@
     <row r="1299">
       <c r="A1299" t="inlineStr">
         <is>
-          <t>Title: Private Barcelona Neighborhoods and Tapas Walking Tour</t>
+          <t>Title: Wine Tasting Walking Tour in Barcelona</t>
         </is>
       </c>
       <c r="B1299" t="inlineStr"/>
@@ -20002,7 +20002,7 @@
     <row r="1301">
       <c r="A1301" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1301" t="inlineStr"/>
@@ -20017,7 +20017,7 @@
     <row r="1302">
       <c r="A1302" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 16637P14</t>
+          <t>PRODUCTCODE: 9866P157</t>
         </is>
       </c>
       <c r="B1302" t="inlineStr"/>
@@ -20032,7 +20032,7 @@
     <row r="1303">
       <c r="A1303" t="inlineStr">
         <is>
-          <t>Summarized description: Walk through Barcelona's Wine Culture with a blindfolded wine tasting. Your guide will take you to 4 local wine stops, where you will receive a glass of wine at each... and maybe even more if you ask sweetly!</t>
+          <t>Summarized description: Explore Barcelona’s most interesting neighbourhoods and a small group of rich cuisine with local tapas and wine. Explore the beauty of the city under the guidance of our experts and gain culinary insights into local products and wine pairings.</t>
         </is>
       </c>
       <c r="B1303" t="inlineStr"/>
@@ -20047,7 +20047,7 @@
     <row r="1304">
       <c r="A1304" t="inlineStr">
         <is>
-          <t>Title: Wine Tasting Walking Tour in Barcelona</t>
+          <t>Title: Barcelona Local Tapas &amp; Wine Bike Tour in Small Group</t>
         </is>
       </c>
       <c r="B1304" t="inlineStr"/>
@@ -20077,7 +20077,7 @@
     <row r="1306">
       <c r="A1306" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1306" t="inlineStr"/>
@@ -20092,7 +20092,7 @@
     <row r="1307">
       <c r="A1307" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9866P157</t>
+          <t>PRODUCTCODE: 25160P19</t>
         </is>
       </c>
       <c r="B1307" t="inlineStr"/>
@@ -20107,7 +20107,7 @@
     <row r="1308">
       <c r="A1308" t="inlineStr">
         <is>
-          <t>Summarized description: Explore Barcelona’s most interesting neighbourhoods and a small group of rich cuisine with local tapas and wine. Explore the beauty of the city under the guidance of our experts and gain culinary insights into local products and wine pairings.</t>
+          <t>Summarized description: 3,5-hour guided tour: Montjuïc with Olympic Games, El Born neighbourhood, Port Vell, Barceloneta. 2 tasting stops with fresh ﬁsh in front of the sea and exquisite chocolate cake with cava.</t>
         </is>
       </c>
       <c r="B1308" t="inlineStr"/>
@@ -20122,7 +20122,7 @@
     <row r="1309">
       <c r="A1309" t="inlineStr">
         <is>
-          <t>Title: Barcelona Local Tapas &amp; Wine Bike Tour in Small Group</t>
+          <t>Title: Barcelona Tapas Tour on Wheels</t>
         </is>
       </c>
       <c r="B1309" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
     <row r="1311">
       <c r="A1311" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1311" t="inlineStr"/>
@@ -20167,7 +20167,7 @@
     <row r="1312">
       <c r="A1312" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 25160P19</t>
+          <t>PRODUCTCODE: 7728P8</t>
         </is>
       </c>
       <c r="B1312" t="inlineStr"/>
@@ -20182,7 +20182,7 @@
     <row r="1313">
       <c r="A1313" t="inlineStr">
         <is>
-          <t>Summarized description: 3,5-hour guided tour: Montjuïc with Olympic Games, El Born neighbourhood, Port Vell, Barceloneta. 2 tasting stops with fresh ﬁsh in front of the sea and exquisite chocolate cake with cava.</t>
+          <t>Summarized description: Catalan Vermouth and tapas tour. Enjoy a tasting of Catalan Vermouth with tapas in a hidden and authentic café. On the way, you will walking Paseo de Gracia for an overview of Catalan Modern Art.</t>
         </is>
       </c>
       <c r="B1313" t="inlineStr"/>
@@ -20197,7 +20197,7 @@
     <row r="1314">
       <c r="A1314" t="inlineStr">
         <is>
-          <t>Title: Barcelona Tapas Tour on Wheels</t>
+          <t>Title: Gothic and Bohemian Tapas Walking and E-biking tour in Barcelona</t>
         </is>
       </c>
       <c r="B1314" t="inlineStr"/>
@@ -20227,7 +20227,7 @@
     <row r="1316">
       <c r="A1316" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1316" t="inlineStr"/>
@@ -20242,7 +20242,7 @@
     <row r="1317">
       <c r="A1317" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7728P8</t>
+          <t>PRODUCTCODE: 85145P8</t>
         </is>
       </c>
       <c r="B1317" t="inlineStr"/>
@@ -20257,7 +20257,7 @@
     <row r="1318">
       <c r="A1318" t="inlineStr">
         <is>
-          <t>Summarized description: Catalan Vermouth and tapas tour. Enjoy a tasting of Catalan Vermouth with tapas in a hidden and authentic café. On the way, you will walking Paseo de Gracia for an overview of Catalan Modern Art.</t>
+          <t>Summarized description: Join us at our wine experience at a local Catalan wine tasting cellar in Barcelona. Where you will enjoy a various category of Catalan wines with some delicious tapas!</t>
         </is>
       </c>
       <c r="B1318" t="inlineStr"/>
@@ -20272,7 +20272,7 @@
     <row r="1319">
       <c r="A1319" t="inlineStr">
         <is>
-          <t>Title: Gothic and Bohemian Tapas Walking and E-biking tour in Barcelona</t>
+          <t>Title: Wine tasting &amp; tapas</t>
         </is>
       </c>
       <c r="B1319" t="inlineStr"/>
@@ -20302,7 +20302,7 @@
     <row r="1321">
       <c r="A1321" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1321" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
     <row r="1322">
       <c r="A1322" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3394P50</t>
+          <t>PRODUCTCODE: 22314P5</t>
         </is>
       </c>
       <c r="B1322" t="inlineStr"/>
@@ -20332,7 +20332,7 @@
     <row r="1323">
       <c r="A1323" t="inlineStr">
         <is>
-          <t>Summarized description: Taste five Catalan beers chosen by your local brewer expert with cured meats and Traditional Catalan flat breaf. Learn about our fascinating local Beers and meet Craft Beer lovers from over the world.</t>
+          <t>Summarized description: Segway Tour explores Barcelona's gastronomic culture and way of life. Visit the popular Barceloneta and places to enjoy the famous traditional tapas.</t>
         </is>
       </c>
       <c r="B1323" t="inlineStr"/>
@@ -20347,7 +20347,7 @@
     <row r="1324">
       <c r="A1324" t="inlineStr">
         <is>
-          <t>Title: Barcelona Craft Beer Tasting with tapas</t>
+          <t>Title: Barcelona on a Segway: Guided Tapas Tour</t>
         </is>
       </c>
       <c r="B1324" t="inlineStr"/>
@@ -20377,7 +20377,7 @@
     <row r="1326">
       <c r="A1326" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1326" t="inlineStr"/>
@@ -20392,7 +20392,7 @@
     <row r="1327">
       <c r="A1327" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 85145P8</t>
+          <t>PRODUCTCODE: 22314P6</t>
         </is>
       </c>
       <c r="B1327" t="inlineStr"/>
@@ -20407,7 +20407,7 @@
     <row r="1328">
       <c r="A1328" t="inlineStr">
         <is>
-          <t>Summarized description: Join us at our wine experience at a local Catalan wine tasting cellar in Barcelona. Where you will enjoy a various category of Catalan wines with some delicious tapas!</t>
+          <t>Summarized description: Discover Barcelona and its gastronomic culture and way of life in a unique Bike Tour. You will visit the popular Barceloneta and places to enjoy the famous traditional tapas.</t>
         </is>
       </c>
       <c r="B1328" t="inlineStr"/>
@@ -20422,7 +20422,7 @@
     <row r="1329">
       <c r="A1329" t="inlineStr">
         <is>
-          <t>Title: Wine tasting &amp; tapas</t>
+          <t>Title: Barcelona Bike and Tapas Tour</t>
         </is>
       </c>
       <c r="B1329" t="inlineStr"/>
@@ -20452,7 +20452,7 @@
     <row r="1331">
       <c r="A1331" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1331" t="inlineStr"/>
@@ -20467,7 +20467,7 @@
     <row r="1332">
       <c r="A1332" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 22314P5</t>
+          <t>PRODUCTCODE: 107187P1</t>
         </is>
       </c>
       <c r="B1332" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
     <row r="1333">
       <c r="A1333" t="inlineStr">
         <is>
-          <t>Summarized description: Segway Tour explores Barcelona's gastronomic culture and way of life. Visit the popular Barceloneta and places to enjoy the famous traditional tapas.</t>
+          <t>Summarized description: We take a walk across 3 districts of the city center, each one with its own personality. We stop to taste tapas and the most popular crafted beer of Barcelona directly from its own modern Micro Brewery Lab. Take a walk back in time through the Gothic past of Barcelona and get to those times when the Romans founded the city.</t>
         </is>
       </c>
       <c r="B1333" t="inlineStr"/>
@@ -20497,7 +20497,7 @@
     <row r="1334">
       <c r="A1334" t="inlineStr">
         <is>
-          <t>Title: Barcelona on a Segway: Guided Tapas Tour</t>
+          <t>Title: The Taste of Barcelona Cultural and Foodie Tour</t>
         </is>
       </c>
       <c r="B1334" t="inlineStr"/>
@@ -20527,7 +20527,7 @@
     <row r="1336">
       <c r="A1336" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1336" t="inlineStr"/>
@@ -20542,7 +20542,7 @@
     <row r="1337">
       <c r="A1337" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 22314P6</t>
+          <t>PRODUCTCODE: 21175P31</t>
         </is>
       </c>
       <c r="B1337" t="inlineStr"/>
@@ -20557,7 +20557,7 @@
     <row r="1338">
       <c r="A1338" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Barcelona and its gastronomic culture and way of life in a unique Bike Tour. You will visit the popular Barceloneta and places to enjoy the famous traditional tapas.</t>
+          <t>Summarized description: 3-hour private culinary tour of Barcelona. Three tapas bars in Gothic Quarter and El Born neighbourhoods. Try out traditional Catalonian recipes as well as favorites from other regions.</t>
         </is>
       </c>
       <c r="B1338" t="inlineStr"/>
@@ -20572,7 +20572,7 @@
     <row r="1339">
       <c r="A1339" t="inlineStr">
         <is>
-          <t>Title: Barcelona Bike and Tapas Tour</t>
+          <t>Title: Private Guided Tapas Tour of Barcelona</t>
         </is>
       </c>
       <c r="B1339" t="inlineStr"/>
@@ -20602,7 +20602,7 @@
     <row r="1341">
       <c r="A1341" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1341" t="inlineStr"/>
@@ -20617,7 +20617,7 @@
     <row r="1342">
       <c r="A1342" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 107187P1</t>
+          <t>*****</t>
         </is>
       </c>
       <c r="B1342" t="inlineStr"/>
@@ -20629,156 +20629,6 @@
       <c r="H1342" t="inlineStr"/>
       <c r="I1342" t="inlineStr"/>
     </row>
-    <row r="1343">
-      <c r="A1343" t="inlineStr">
-        <is>
-          <t>Summarized description: We take a walk across 3 districts of the city center, each one with its own personality. We stop to taste tapas and the most popular crafted beer of Barcelona directly from its own modern Micro Brewery Lab. Take a walk back in time through the Gothic past of Barcelona and get to those times when the Romans founded the city.</t>
-        </is>
-      </c>
-      <c r="B1343" t="inlineStr"/>
-      <c r="C1343" t="inlineStr"/>
-      <c r="D1343" t="inlineStr"/>
-      <c r="E1343" t="inlineStr"/>
-      <c r="F1343" t="inlineStr"/>
-      <c r="G1343" t="inlineStr"/>
-      <c r="H1343" t="inlineStr"/>
-      <c r="I1343" t="inlineStr"/>
-    </row>
-    <row r="1344">
-      <c r="A1344" t="inlineStr">
-        <is>
-          <t>Title: The Taste of Barcelona Cultural and Foodie Tour</t>
-        </is>
-      </c>
-      <c r="B1344" t="inlineStr"/>
-      <c r="C1344" t="inlineStr"/>
-      <c r="D1344" t="inlineStr"/>
-      <c r="E1344" t="inlineStr"/>
-      <c r="F1344" t="inlineStr"/>
-      <c r="G1344" t="inlineStr"/>
-      <c r="H1344" t="inlineStr"/>
-      <c r="I1344" t="inlineStr"/>
-    </row>
-    <row r="1345">
-      <c r="A1345" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1345" t="inlineStr"/>
-      <c r="C1345" t="inlineStr"/>
-      <c r="D1345" t="inlineStr"/>
-      <c r="E1345" t="inlineStr"/>
-      <c r="F1345" t="inlineStr"/>
-      <c r="G1345" t="inlineStr"/>
-      <c r="H1345" t="inlineStr"/>
-      <c r="I1345" t="inlineStr"/>
-    </row>
-    <row r="1346">
-      <c r="A1346" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Culinary Tours']</t>
-        </is>
-      </c>
-      <c r="B1346" t="inlineStr"/>
-      <c r="C1346" t="inlineStr"/>
-      <c r="D1346" t="inlineStr"/>
-      <c r="E1346" t="inlineStr"/>
-      <c r="F1346" t="inlineStr"/>
-      <c r="G1346" t="inlineStr"/>
-      <c r="H1346" t="inlineStr"/>
-      <c r="I1346" t="inlineStr"/>
-    </row>
-    <row r="1347">
-      <c r="A1347" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 21175P31</t>
-        </is>
-      </c>
-      <c r="B1347" t="inlineStr"/>
-      <c r="C1347" t="inlineStr"/>
-      <c r="D1347" t="inlineStr"/>
-      <c r="E1347" t="inlineStr"/>
-      <c r="F1347" t="inlineStr"/>
-      <c r="G1347" t="inlineStr"/>
-      <c r="H1347" t="inlineStr"/>
-      <c r="I1347" t="inlineStr"/>
-    </row>
-    <row r="1348">
-      <c r="A1348" t="inlineStr">
-        <is>
-          <t>Summarized description: 3-hour private culinary tour of Barcelona. Three tapas bars in Gothic Quarter and El Born neighbourhoods. Try out traditional Catalonian recipes as well as favorites from other regions.</t>
-        </is>
-      </c>
-      <c r="B1348" t="inlineStr"/>
-      <c r="C1348" t="inlineStr"/>
-      <c r="D1348" t="inlineStr"/>
-      <c r="E1348" t="inlineStr"/>
-      <c r="F1348" t="inlineStr"/>
-      <c r="G1348" t="inlineStr"/>
-      <c r="H1348" t="inlineStr"/>
-      <c r="I1348" t="inlineStr"/>
-    </row>
-    <row r="1349">
-      <c r="A1349" t="inlineStr">
-        <is>
-          <t>Title: Private Guided Tapas Tour of Barcelona</t>
-        </is>
-      </c>
-      <c r="B1349" t="inlineStr"/>
-      <c r="C1349" t="inlineStr"/>
-      <c r="D1349" t="inlineStr"/>
-      <c r="E1349" t="inlineStr"/>
-      <c r="F1349" t="inlineStr"/>
-      <c r="G1349" t="inlineStr"/>
-      <c r="H1349" t="inlineStr"/>
-      <c r="I1349" t="inlineStr"/>
-    </row>
-    <row r="1350">
-      <c r="A1350" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1350" t="inlineStr"/>
-      <c r="C1350" t="inlineStr"/>
-      <c r="D1350" t="inlineStr"/>
-      <c r="E1350" t="inlineStr"/>
-      <c r="F1350" t="inlineStr"/>
-      <c r="G1350" t="inlineStr"/>
-      <c r="H1350" t="inlineStr"/>
-      <c r="I1350" t="inlineStr"/>
-    </row>
-    <row r="1351">
-      <c r="A1351" t="inlineStr">
-        <is>
-          <t>Category: ['Culinary Tours']</t>
-        </is>
-      </c>
-      <c r="B1351" t="inlineStr"/>
-      <c r="C1351" t="inlineStr"/>
-      <c r="D1351" t="inlineStr"/>
-      <c r="E1351" t="inlineStr"/>
-      <c r="F1351" t="inlineStr"/>
-      <c r="G1351" t="inlineStr"/>
-      <c r="H1351" t="inlineStr"/>
-      <c r="I1351" t="inlineStr"/>
-    </row>
-    <row r="1352">
-      <c r="A1352" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-      <c r="B1352" t="inlineStr"/>
-      <c r="C1352" t="inlineStr"/>
-      <c r="D1352" t="inlineStr"/>
-      <c r="E1352" t="inlineStr"/>
-      <c r="F1352" t="inlineStr"/>
-      <c r="G1352" t="inlineStr"/>
-      <c r="H1352" t="inlineStr"/>
-      <c r="I1352" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment_results/16168P1.xlsx
+++ b/experiment_results/16168P1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1369"/>
+  <dimension ref="A1:I1464"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,7 +651,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Aerial Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -876,7 +876,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -951,7 +951,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -1251,7 +1251,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -1326,7 +1326,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -1851,7 +1851,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
@@ -2151,7 +2151,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
@@ -2601,7 +2601,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B141" t="inlineStr"/>
@@ -2676,7 +2676,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B146" t="inlineStr"/>
@@ -2751,7 +2751,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B151" t="inlineStr"/>
@@ -2976,7 +2976,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B166" t="inlineStr"/>
@@ -3051,7 +3051,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B171" t="inlineStr"/>
@@ -3126,7 +3126,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B176" t="inlineStr"/>
@@ -3276,7 +3276,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B186" t="inlineStr"/>
@@ -3576,7 +3576,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['City Tours', 'Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B206" t="inlineStr"/>
@@ -3651,7 +3651,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B211" t="inlineStr"/>
@@ -3726,7 +3726,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B216" t="inlineStr"/>
@@ -3801,7 +3801,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Category: ['Performing Arts', 'Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['Dining Experiences', 'Performing Arts', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B221" t="inlineStr"/>
@@ -4326,7 +4326,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B256" t="inlineStr"/>
@@ -4701,7 +4701,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B281" t="inlineStr"/>
@@ -4776,7 +4776,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B286" t="inlineStr"/>
@@ -4851,7 +4851,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B291" t="inlineStr"/>
@@ -5001,7 +5001,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B301" t="inlineStr"/>
@@ -5151,7 +5151,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B311" t="inlineStr"/>
@@ -5301,7 +5301,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Water Sports', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['City Tours', 'Wine and Beverage Tastings', 'Water Sports']</t>
         </is>
       </c>
       <c r="B321" t="inlineStr"/>
@@ -5376,7 +5376,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B326" t="inlineStr"/>
@@ -5526,7 +5526,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B336" t="inlineStr"/>
@@ -5676,7 +5676,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Scenic Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B346" t="inlineStr"/>
@@ -5976,7 +5976,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B366" t="inlineStr"/>
@@ -6051,7 +6051,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B371" t="inlineStr"/>
@@ -6201,7 +6201,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B381" t="inlineStr"/>
@@ -6351,7 +6351,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B391" t="inlineStr"/>
@@ -6576,7 +6576,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['Dining Experiences', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B406" t="inlineStr"/>
@@ -6726,7 +6726,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B416" t="inlineStr"/>
@@ -6801,7 +6801,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B421" t="inlineStr"/>
@@ -6951,7 +6951,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['City Tours', 'Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B431" t="inlineStr"/>
@@ -7251,7 +7251,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B451" t="inlineStr"/>
@@ -7326,7 +7326,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B456" t="inlineStr"/>
@@ -7476,7 +7476,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B466" t="inlineStr"/>
@@ -7551,7 +7551,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B471" t="inlineStr"/>
@@ -7626,7 +7626,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B476" t="inlineStr"/>
@@ -7701,7 +7701,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Wine and Beverage Tastings', 'Cultural Tours']</t>
+          <t>Category: ['Dining Experiences', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B481" t="inlineStr"/>
@@ -7776,7 +7776,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B486" t="inlineStr"/>
@@ -7851,7 +7851,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B491" t="inlineStr"/>
@@ -8226,7 +8226,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Category: ['Performing Arts', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Performing Arts', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B516" t="inlineStr"/>
@@ -8301,7 +8301,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B521" t="inlineStr"/>
@@ -8451,7 +8451,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B531" t="inlineStr"/>
@@ -8676,7 +8676,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Entertainment']</t>
         </is>
       </c>
       <c r="B546" t="inlineStr"/>
@@ -8751,7 +8751,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Category: ['Performing Arts', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'Performing Arts', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B551" t="inlineStr"/>
@@ -8826,7 +8826,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B556" t="inlineStr"/>
@@ -8901,7 +8901,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B561" t="inlineStr"/>
@@ -8976,7 +8976,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B566" t="inlineStr"/>
@@ -9051,7 +9051,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B571" t="inlineStr"/>
@@ -9126,7 +9126,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B576" t="inlineStr"/>
@@ -9201,7 +9201,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B581" t="inlineStr"/>
@@ -9276,7 +9276,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B586" t="inlineStr"/>
@@ -9426,7 +9426,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B596" t="inlineStr"/>
@@ -9576,7 +9576,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B606" t="inlineStr"/>
@@ -9726,7 +9726,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B616" t="inlineStr"/>
@@ -10176,7 +10176,7 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B646" t="inlineStr"/>
@@ -10326,7 +10326,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B656" t="inlineStr"/>
@@ -10701,7 +10701,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B681" t="inlineStr"/>
@@ -10776,7 +10776,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B686" t="inlineStr"/>
@@ -10926,7 +10926,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B696" t="inlineStr"/>
@@ -11076,7 +11076,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B706" t="inlineStr"/>
@@ -11151,7 +11151,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B711" t="inlineStr"/>
@@ -11301,7 +11301,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B721" t="inlineStr"/>
@@ -11376,7 +11376,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B726" t="inlineStr"/>
@@ -11676,7 +11676,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B746" t="inlineStr"/>
@@ -11751,7 +11751,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B751" t="inlineStr"/>
@@ -11826,7 +11826,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B756" t="inlineStr"/>
@@ -11901,7 +11901,7 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B761" t="inlineStr"/>
@@ -12051,7 +12051,7 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B771" t="inlineStr"/>
@@ -12126,7 +12126,7 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B776" t="inlineStr"/>
@@ -12501,7 +12501,7 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B801" t="inlineStr"/>
@@ -12576,7 +12576,7 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B806" t="inlineStr"/>
@@ -12726,7 +12726,7 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B816" t="inlineStr"/>
@@ -13101,7 +13101,7 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B841" t="inlineStr"/>
@@ -13326,7 +13326,7 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B856" t="inlineStr"/>
@@ -13401,7 +13401,7 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B861" t="inlineStr"/>
@@ -13626,7 +13626,7 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B876" t="inlineStr"/>
@@ -13776,7 +13776,7 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B886" t="inlineStr"/>
@@ -13851,7 +13851,7 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B891" t="inlineStr"/>
@@ -13926,7 +13926,7 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B896" t="inlineStr"/>
@@ -14001,7 +14001,7 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B901" t="inlineStr"/>
@@ -14451,7 +14451,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B931" t="inlineStr"/>
@@ -14601,7 +14601,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B941" t="inlineStr"/>
@@ -14976,7 +14976,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B966" t="inlineStr"/>
@@ -15126,7 +15126,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B976" t="inlineStr"/>
@@ -15276,7 +15276,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B986" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr"/>
@@ -15607,7 +15607,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 109384P70</t>
+          <t>PRODUCTCODE: 5963WINE</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15712,7 +15712,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>Summarized description: The El Born Tapas Food Tour takes you on a culinary adventure in Barcelona's Gothic Quarter. Enjoy a variety of traditional and modern tapas paired with wine, beer, and shots.</t>
+          <t>Summarized description: The electric bike has an electric motor that kicks in as soon as you pedal. See landmarks such as El Born Cultural Centre and Frank Gehry’s ‘Golden Fish’ sculpture. Explore Parc de la Ciutadella, Las Ramblas and the fishing port of La Barceloneta.</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Title: Barcelona Tipsy Tapas Guided Food Tour with Dinner</t>
+          <t>Title: Barcelona E-Bike Small Group Tour with Tapas &amp; Wine Tasting</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15742,7 +15742,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>TotalReviews: 498</t>
+          <t>TotalReviews: 546</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr"/>
@@ -15757,7 +15757,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Culinary Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr"/>
@@ -15772,7 +15772,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 25359P5</t>
+          <t>PRODUCTCODE: 109384P70</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr"/>
@@ -15787,7 +15787,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>Summarized description: Explore three local family-run tapas bars with 5 types of Spanish wine. Go on a taste journey through the food of the region with an expert foodie guide. Indulge in a selection of flavorsome tapas – enough for a complete meal.</t>
+          <t>Summarized description: The El Born Tapas Food Tour takes you on a culinary adventure in Barcelona's Gothic Quarter. Enjoy a variety of traditional and modern tapas paired with wine, beer, and shots.</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Barcelona: Tapas &amp; Wine Early Evening Small Group Tour </t>
+          <t>Title: Barcelona Tipsy Tapas Guided Food Tour with Dinner</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>TotalReviews: 342</t>
+          <t>TotalReviews: 498</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24380P131</t>
+          <t>PRODUCTCODE: 3142TAPASFLAMENCO</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>Summarized description: 4 glasses of wine &amp; 4 tapas included. 100% personalized to your wishes. Private tour: only you &amp; your host. Get to know the city in a local way.</t>
+          <t>Summarized description: Small-group tour includes a stroll around Eixample and a visit to a ham delicatessen. Finish your evening with a 45-minute authentic flamenco show featuring some of the genre's newest rising stars.</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Title: Barcelona With Locals: Wine and Tapas PRIVATE Tour (Bites &amp; Drinks Included)</t>
+          <t>Title: Gourmet Tapas Small Group Walking Tour and Flamenco Show</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>TotalReviews: 268</t>
+          <t>TotalReviews: 372</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Performing Arts', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9866P2</t>
+          <t>PRODUCTCODE: 25359P5</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15937,7 +15937,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>Summarized description: Explore Barcelona´s Gothic Quarter and El Raval. Stop at a local bar for tapas and a drink before experiencing the passion of an authentic flamenco show.</t>
+          <t>Summarized description: Explore three local family-run tapas bars with 5 types of Spanish wine. Go on a taste journey through the food of the region with an expert foodie guide. Indulge in a selection of flavorsome tapas – enough for a complete meal.</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Title: Barcelona Old Town Night Small Group Tour with Tapas &amp; Flamenco</t>
+          <t xml:space="preserve">Title: Barcelona: Tapas &amp; Wine Early Evening Small Group Tour </t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>TotalReviews: 210</t>
+          <t>TotalReviews: 342</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Category: ['Performing Arts', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 126707P3</t>
+          <t>PRODUCTCODE: 26613P7</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16012,7 +16012,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>Summarized description: Marvel at the Gothic Quarter and its culinary delights on our exclusive walking tapas &amp; wine tour. We visit 3 emblematic restaurants to indulge in the city's finest tapas - so you can experience the best during your limited time in town.</t>
+          <t>Summarized description: Discover 4 outstanding local spots in 2 charming neighborhoods away from the hustle and bustle of the crowds. Try different local tapas dishes, paired in harmony with outstanding wines from diverse wine-growing regions.</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Title: Premium Gothic Quarter Tapas Tour - Small Group, Top Quality</t>
+          <t xml:space="preserve">Title: Barcelona Food &amp; Wine Small Group Tour with a Sommelier </t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>TotalReviews: 205</t>
+          <t>TotalReviews: 296</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 118881P2</t>
+          <t>PRODUCTCODE: 24380P131</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16087,7 +16087,7 @@
     <row r="1040">
       <c r="A1040" t="inlineStr">
         <is>
-          <t>Summarized description: Walking tour brings the medieval Gothic Quarter to life as you learn about Barcelona’s transcendental artists, culture, cuisine, personalities and history. We conclude our wonderful journey through Barcelona by relaxing and sharing refreshing complementary sangria.</t>
+          <t>Summarized description: 4 glasses of wine &amp; 4 tapas included. 100% personalized to your wishes. Private tour: only you &amp; your host. Get to know the city in a local way.</t>
         </is>
       </c>
       <c r="B1040" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Title: Barcelona Gothic Quarter's Deepest Secrets &amp; Sangria</t>
+          <t>Title: Barcelona With Locals: Wine and Tapas PRIVATE Tour (Bites &amp; Drinks Included)</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>TotalReviews: 199</t>
+          <t>TotalReviews: 268</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 49634P6</t>
+          <t>PRODUCTCODE: 9866P2</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16162,7 +16162,7 @@
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>Summarized description: The essential and most complete gastronomic experience you could have. A genuine 3-stop with 2 stops for typical local tapas following by a proper gastronomics diner in a high end restaurant.</t>
+          <t>Summarized description: Explore Barcelona´s Gothic Quarter and El Raval. Stop at a local bar for tapas and a drink before experiencing the passion of an authentic flamenco show.</t>
         </is>
       </c>
       <c r="B1045" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Title: Barcelona Wine &amp; Gourmet Tapas Tour</t>
+          <t>Title: Barcelona Old Town Night Small Group Tour with Tapas &amp; Flamenco</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>TotalReviews: 132</t>
+          <t>TotalReviews: 210</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Performing Arts', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 70667P2</t>
+          <t>PRODUCTCODE: 126707P3</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16237,7 +16237,7 @@
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>Summarized description: This 3-hour tour offers an enjoyable and affordable way to visit some of the best tapas places in Barcelona. You will visit one of the most emblematic quarters in Barcelona, El Born, and try beloved classic tapas dishes.</t>
+          <t>Summarized description: Marvel at the Gothic Quarter and its culinary delights on our exclusive walking tapas &amp; wine tour. We visit 3 emblematic restaurants to indulge in the city's finest tapas - so you can experience the best during your limited time in town.</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Title: Barcelona Evening Tapas Tour</t>
+          <t>Title: Premium Gothic Quarter Tapas Tour - Small Group, Top Quality</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>TotalReviews: 115</t>
+          <t>TotalReviews: 205</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 40679P2</t>
+          <t>PRODUCTCODE: 224689P1</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16312,7 +16312,7 @@
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about Spanish wines, regional tapas and how to best pair the two. Join our Sommeliers for a wine tasting and tapas pairing dinner in the heart of Barcelona.</t>
+          <t>Summarized description: Our tour is tailored for anyone who wants to enjoy the taste of Spain. You will go to local bars where you can experience tapas in a friendly environment. And of course, wine is also included, but not the well-known and easy to find Spanish wine.</t>
         </is>
       </c>
       <c r="B1055" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Title: Barcelona: Wine Tasting &amp; Tapas Pairing Dinner</t>
+          <t xml:space="preserve">Title: Spanish Wine &amp; Tapas tour in a local Neighborhood in Barcelona </t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>TotalReviews: 102</t>
+          <t>TotalReviews: 141</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 108026P1</t>
+          <t>PRODUCTCODE: 64594P1</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16387,7 +16387,7 @@
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>Summarized description: 3.5 hour tasting journey through Barceloneta, Gothic, and Born neighborhoods. Authentic food like the legendary "Pa amb Tomàquet", the famous Patatas Bravas, and much more. Accompanied by an assortment of locally made cheeses, cured meats, and heavenly house-made sparkling wine.</t>
+          <t>Summarized description: Savor Spain boutique walking food tour. Sample over 15 dishes from all corners of Spain. We explore 3 neighbourhoods: Raval, Gothic and Born in Barcelona.</t>
         </is>
       </c>
       <c r="B1060" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Sip, Sites &amp; Bites Barcelona Food, Drinks &amp; History Tour </t>
+          <t>Title: Savor Spain: Food, Wine, History &amp; Culture Small Group Tour in Old Barcelona</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>TotalReviews: 82</t>
+          <t>TotalReviews: 138</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 43309P1</t>
+          <t>PRODUCTCODE: 49634P6</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16462,7 +16462,7 @@
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>Summarized description: The 3 hour walking tour takes you through the iconic neighborhoods of Barcelona. Stop for a bite to eat in 4 of the area's best plant-based restaurants.</t>
+          <t>Summarized description: The essential and most complete gastronomic experience you could have. A genuine 3-stop with 2 stops for typical local tapas following by a proper gastronomics diner in a high end restaurant.</t>
         </is>
       </c>
       <c r="B1065" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Title: Vegan Food Tour Experience in Barcelona</t>
+          <t>Title: Barcelona Wine &amp; Gourmet Tapas Tour</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>TotalReviews: 76</t>
+          <t>TotalReviews: 132</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 64594P2</t>
+          <t>PRODUCTCODE: 70667P2</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16537,7 +16537,7 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>Summarized description: "Born to Eat" is a travel guide to the best bars, bodegas and restaurants in Barcelona. The guide is based on the artisanal neighborhood of El Born, the heart of the old city.</t>
+          <t>Summarized description: This 3-hour tour offers an enjoyable and affordable way to visit some of the best tapas places in Barcelona. You will visit one of the most emblematic quarters in Barcelona, El Born, and try beloved classic tapas dishes.</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Title: Born to Eat: Gourmet Tapas &amp; Wine Small Group Tour in Old Barcelona</t>
+          <t>Title: Barcelona Evening Tapas Tour</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>TotalReviews: 67</t>
+          <t>TotalReviews: 115</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 110975P1</t>
+          <t>PRODUCTCODE: 40679P2</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16612,7 +16612,7 @@
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the Gothic Quarter. Taste our famous ‘Spanish tapas’ accompanied with red wine and a local glass of cava. Walk through the Born District, the most charming Quarter of Barcelona.</t>
+          <t>Summarized description: Learn about Spanish wines, regional tapas and how to best pair the two. Join our Sommeliers for a wine tasting and tapas pairing dinner in the heart of Barcelona.</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Title: The best Tapas &amp; Flamenco Show - City Tour, Tapas &amp; Wine, and Flamenco Show</t>
+          <t>Title: Barcelona: Wine Tasting &amp; Tapas Pairing Dinner</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>TotalReviews: 63</t>
+          <t>TotalReviews: 102</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7071P5</t>
+          <t>PRODUCTCODE: 108026P1</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>Summarized description: Wine and dine in flavourful local venues throughout Barcelona’s lively districts. An indulgent, off-the-beaten-path city tour to experience a wide range of tastes.</t>
+          <t>Summarized description: 3.5 hour tasting journey through Barceloneta, Gothic, and Born neighborhoods. Authentic food like the legendary "Pa amb Tomàquet", the famous Patatas Bravas, and much more. Accompanied by an assortment of locally made cheeses, cured meats, and heavenly house-made sparkling wine.</t>
         </is>
       </c>
       <c r="B1080" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Title: Tapas and Wine Walking Tour in Barcelona</t>
+          <t xml:space="preserve">Title: Sip, Sites &amp; Bites Barcelona Food, Drinks &amp; History Tour </t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>TotalReviews: 42</t>
+          <t>TotalReviews: 82</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 180568P3</t>
+          <t>PRODUCTCODE: 43309P1</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16762,7 +16762,7 @@
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>Summarized description: 3 hours tour in Barcelona's Old Town and el Born Quarter. Traditional Catalan tomato bread, Murcian cured tuna, Basque pintxo "Gilda"</t>
+          <t>Summarized description: The 3 hour walking tour takes you through the iconic neighborhoods of Barcelona. Stop for a bite to eat in 4 of the area's best plant-based restaurants.</t>
         </is>
       </c>
       <c r="B1085" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Title: Tapas and Wine at the hidden Bodegas</t>
+          <t>Title: Vegan Food Tour Experience in Barcelona</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>TotalReviews: 37</t>
+          <t>TotalReviews: 76</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 49634P5</t>
+          <t>PRODUCTCODE: 7812P128</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16837,7 +16837,7 @@
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>Summarized description: This food tour in Barcelona is designed to show you the essential morning food habits you can find in Spain and nowhere else. You will live a typical Spanish morning food adventure, a full immersion in the traditions and culinary behaviors.</t>
+          <t>Summarized description: The Secret Food Tour: Barcelona offers a variety of the best authentic Spanish dishes. You'll try tapas, mouth-watering Paëlla, refreshing Sangria and wines, the best jamón, and much more.</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Title: Barcelona Brunch Tapas Tour</t>
+          <t>Title: Barcelona Private Walking Food Tour With Secret Food Tours</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>TotalReviews: 36</t>
+          <t>TotalReviews: 75</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 14218P3</t>
+          <t>PRODUCTCODE: 64594P2</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16912,7 +16912,7 @@
     <row r="1095">
       <c r="A1095" t="inlineStr">
         <is>
-          <t>Summarized description: The Gothic Quarter is the oldest district of the city, with more than 2,000 years of history. Enjoy this private tour and discover the history of Barcelona from its Roman period.</t>
+          <t>Summarized description: "Born to Eat" is a travel guide to the best bars, bodegas and restaurants in Barcelona. The guide is based on the artisanal neighborhood of El Born, the heart of the old city.</t>
         </is>
       </c>
       <c r="B1095" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Title: Barcelona Old Town Private Walking Tour</t>
+          <t>Title: Born to Eat: Gourmet Tapas &amp; Wine Small Group Tour in Old Barcelona</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>TotalReviews: 31</t>
+          <t>TotalReviews: 67</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 73429P6</t>
+          <t>PRODUCTCODE: 110975P1</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -16987,7 +16987,7 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>Summarized description: Two-hour walk through the streets of Barcelona. Learn about the history of the city and the architects who designed it. See the city through the eyes of the people who built it.</t>
+          <t>Summarized description: Explore the Gothic Quarter. Taste our famous ‘Spanish tapas’ accompanied with red wine and a local glass of cava. Walk through the Born District, the most charming Quarter of Barcelona.</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Title: Gaudí and Barcelona Legends Walking Tour</t>
+          <t>Title: The best Tapas &amp; Flamenco Show - City Tour, Tapas &amp; Wine, and Flamenco Show</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>TotalReviews: 30</t>
+          <t>TotalReviews: 63</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9866P12</t>
+          <t>PRODUCTCODE: 7071P5</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17062,7 +17062,7 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>Summarized description: Barcelona's Picasso Museum and Barcelona Museum of Contemporary Art are included in the 4-hour tapas bar crawl. Enjoy authentic tapas (small plates) at various local bars along the way.</t>
+          <t>Summarized description: Wine and dine in flavourful local venues throughout Barcelona’s lively districts. An indulgent, off-the-beaten-path city tour to experience a wide range of tastes.</t>
         </is>
       </c>
       <c r="B1105" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Title: Barcelona Art and Tapas Small Group Walking Tour with Picasso Museum</t>
+          <t>Title: Tapas and Wine Walking Tour in Barcelona</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>TotalReviews: 27</t>
+          <t>TotalReviews: 42</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 298466P13</t>
+          <t>PRODUCTCODE: 20115P1</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17137,7 +17137,7 @@
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Barcelona’s Gothic Quarter from a different perspective on a self-guided walking tour and scavenger hunt of the city. Solve riddles and clues that lead to the next location, showing all the city highlights.</t>
+          <t>Summarized description: Go on a food tour of Barcelona's Sant Antoni and El Poblesec neighborhoods. Enjoy nine tastings of regional gastronomy including patatas bravas and Spanish ham.</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Title: Barcelona Gothic Quarter Scavenger Hunt and City Highlights Walking Tour</t>
+          <t>Title: Taste of Barcelona Food Tour</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>TotalReviews: 20</t>
+          <t>TotalReviews: 42</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr"/>
@@ -17197,7 +17197,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9866P51</t>
+          <t>PRODUCTCODE: 180568P3</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr"/>
@@ -17212,7 +17212,7 @@
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>Summarized description: Foodie and Museums Tour is especially tailored for food lovers that also want to learn more about Spanish art in Barcelona and Picasso. It is especially thought for art explorers who wish to find reliable tapas restaurants popular among locals.</t>
+          <t>Summarized description: 3 hours tour in Barcelona's Old Town and el Born Quarter. Traditional Catalan tomato bread, Murcian cured tuna, Basque pintxo "Gilda"</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Title: Private Barcelona Art and Tapas Walking Tour with Picasso Museum</t>
+          <t>Title: Tapas and Wine at the hidden Bodegas</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>TotalReviews: 15</t>
+          <t>TotalReviews: 37</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -17257,7 +17257,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Museums']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 73429P11</t>
+          <t>PRODUCTCODE: 49634P5</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -17287,7 +17287,7 @@
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about Barcelona from Roman times to the medieval golden era. Discover Spanish food &amp; Barcelona history. With 3 stops in distinct restaurants we’ll also show you the broad variety of tapas.</t>
+          <t>Summarized description: This food tour in Barcelona is designed to show you the essential morning food habits you can find in Spain and nowhere else. You will live a typical Spanish morning food adventure, a full immersion in the traditions and culinary behaviors.</t>
         </is>
       </c>
       <c r="B1120" t="inlineStr"/>
@@ -17302,7 +17302,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Title: Barcelona Historic Walking Tour and Food Experience</t>
+          <t>Title: Barcelona Brunch Tapas Tour</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr"/>
@@ -17317,7 +17317,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>TotalReviews: 15</t>
+          <t>TotalReviews: 36</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr"/>
@@ -17332,7 +17332,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9866P52</t>
+          <t>PRODUCTCODE: 9866P11</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr"/>
@@ -17362,7 +17362,7 @@
     <row r="1125">
       <c r="A1125" t="inlineStr">
         <is>
-          <t>Summarized description: Tapas Walking Tour and Flamenco Show in Barcelona. Enjoy a Spanish culture experience with some tasty tapas. Finish the evening watching a live flamenco show in Barcelona's Gothic quarter.</t>
+          <t>Summarized description: 4-hour guided walking tour consists of four stops. Savor Catalan-style tapas, traditional Spanish meat dishes, and pintxos.</t>
         </is>
       </c>
       <c r="B1125" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Title: Private Tapas Walking Tour in Barcelona Old Town and Flamenco Show</t>
+          <t>Title: Night Tapas Walking Tour in Barcelona Modernist Area with Small Group and Dinner</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>TotalReviews: 15</t>
+          <t>TotalReviews: 33</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr"/>
@@ -17407,7 +17407,7 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>Category: ['Performing Arts', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr"/>
@@ -17422,7 +17422,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 20220P28</t>
+          <t>PRODUCTCODE: 17377P42</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr"/>
@@ -17437,7 +17437,7 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the authentic local gastronomy of Barcelona with native experts. Get to know the heart of Barcelona's historic center. This is a shared experience, with a maximum of 12 foodies.</t>
+          <t>Summarized description: Learn about some of the most important things for us - our culture, our gastronomy, and flamenco on this guided tour. Enjoy your walking tour through the Roman and medieval part of the city, the oldest neighborhoods, and have an exclusivetapas dinner of local products. Then, round out your day with a flamenco show where you will experience one of Spain's extraordinary traditional dances.</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr"/>
@@ -17452,7 +17452,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>Title: Barcelona History and Food tasting Tour</t>
+          <t>Title: Barcelona Small Group Walking Tour &amp; Flamenco Show + Tapas Dinner</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr"/>
@@ -17467,7 +17467,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>TotalReviews: 12</t>
+          <t>TotalReviews: 27</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr"/>
@@ -17482,7 +17482,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Dining Experiences', 'Performing Arts', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr"/>
@@ -17497,7 +17497,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 26613P3</t>
+          <t>PRODUCTCODE: 9866P12</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Barcelona’s gastronomic hotspots and culinary specialties with a knowledgeable foodie guide. Along the way, visit two remarkable restaurants that are owned by Michelin-starred chefs.</t>
+          <t>Summarized description: Barcelona's Picasso Museum and Barcelona Museum of Contemporary Art are included in the 4-hour tapas bar crawl. Enjoy authentic tapas (small plates) at various local bars along the way.</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr"/>
@@ -17527,7 +17527,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Title: Barcelona Michelin Star Tapas Experience Walking Tour</t>
+          <t>Title: Barcelona Art and Tapas Small Group Walking Tour with Picasso Museum</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr"/>
@@ -17542,7 +17542,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>TotalReviews: 11</t>
+          <t>TotalReviews: 27</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr"/>
@@ -17572,7 +17572,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 364246P1</t>
+          <t>PRODUCTCODE: 73429P11</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr"/>
@@ -17587,7 +17587,7 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>Summarized description: Located in the trendy Born area of Barcelona, it's the perfect activity to start of your night. With an experienced team of mixologists and access to a superb range of spirits, liqueurs and fresh ingredients, you'll be sure to create some delicious drinks.</t>
+          <t>Summarized description: Learn about Barcelona from Roman times to the medieval golden era. Discover Spanish food &amp; Barcelona history. With 3 stops in distinct restaurants we’ll also show you the broad variety of tapas.</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr"/>
@@ -17602,7 +17602,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Title: Cocktail Masterclass with Tapas - Barcelona</t>
+          <t>Title: Barcelona Historic Walking Tour and Food Experience</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr"/>
@@ -17617,7 +17617,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>TotalReviews: 11</t>
+          <t>TotalReviews: 15</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr"/>
@@ -17632,7 +17632,7 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Workshops and Classes']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr"/>
@@ -17647,7 +17647,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 109384P74</t>
+          <t>PRODUCTCODE: 9866P52</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr"/>
@@ -17662,7 +17662,7 @@
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>Summarized description: Experience the irresistible flavors of traditional and modern tapas expertly paired with wine, beer, cava, and shots. Join us as we explore the lively streets of the historic center and visit Barcelona's best tapas bars and restaurants accompanied by a knowledgeable local guide.</t>
+          <t>Summarized description: Tapas Walking Tour and Flamenco Show in Barcelona. Enjoy a Spanish culture experience with some tasty tapas. Finish the evening watching a live flamenco show in Barcelona's Gothic quarter.</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>Title: Guided Food Tour with Tapas and Dinner in El Born Barcelona</t>
+          <t>Title: Private Tapas Walking Tour in Barcelona Old Town and Flamenco Show</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr"/>
@@ -17692,7 +17692,7 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>TotalReviews: 8</t>
+          <t>TotalReviews: 15</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr"/>
@@ -17707,7 +17707,7 @@
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Performing Arts', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr"/>
@@ -17722,7 +17722,7 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5716P14</t>
+          <t>PRODUCTCODE: 20220P28</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr"/>
@@ -17737,7 +17737,7 @@
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>Summarized description: Walk through the Gothic Quarter with the tastiest food stops. Explore iconic landmarks such as Liceu Opera House, El Palau de la Música.</t>
+          <t>Summarized description: Explore the authentic local gastronomy of Barcelona with native experts. Get to know the heart of Barcelona's historic center. This is a shared experience, with a maximum of 12 foodies.</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr"/>
@@ -17752,7 +17752,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Barcelona Essentials: Tapas &amp; Gothic Quarter Small Group Tour </t>
+          <t>Title: Barcelona History and Food tasting Tour</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr"/>
@@ -17767,7 +17767,7 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 12</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr"/>
@@ -17782,7 +17782,7 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr"/>
@@ -17797,7 +17797,7 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 174817P29</t>
+          <t>PRODUCTCODE: 26613P3</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr"/>
@@ -17812,7 +17812,7 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>Summarized description: The El Born Tapas Food Tour is a gastronomic journey through Barcelona’s El Born neighborhood. Enjoy traditional and modern tapas, paired perfectly with an assortment of drinks, including wine, beer, cava, and shots.</t>
+          <t>Summarized description: Discover Barcelona’s gastronomic hotspots and culinary specialties with a knowledgeable foodie guide. Along the way, visit two remarkable restaurants that are owned by Michelin-starred chefs.</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr"/>
@@ -17827,7 +17827,7 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>Title: Barcelona Tipsy Tapas Food Crawl</t>
+          <t>Title: Barcelona Michelin Star Tapas Experience Walking Tour</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 11</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr"/>
@@ -17857,7 +17857,7 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr"/>
@@ -17872,7 +17872,7 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9866P34</t>
+          <t>PRODUCTCODE: 109384P74</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr"/>
@@ -17887,7 +17887,7 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>Summarized description: During four stops, explore local places that offer authentic food with a guide. Each offers world-famous tapas, but with a Catalan twist. Visit places known by locals but unknown to outsiders.</t>
+          <t>Summarized description: Experience the irresistible flavors of traditional and modern tapas expertly paired with wine, beer, cava, and shots. Join us as we explore the lively streets of the historic center and visit Barcelona's best tapas bars and restaurants accompanied by a knowledgeable local guide.</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr"/>
@@ -17902,7 +17902,7 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>Title: Private Tapas Walking Tour in Barcelona Modernist Area with Dinner included</t>
+          <t>Title: Guided Food Tour with Tapas and Dinner in El Born Barcelona</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr"/>
@@ -17917,7 +17917,7 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 8</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr"/>
@@ -17932,7 +17932,7 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr"/>
@@ -17947,7 +17947,7 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3394P21</t>
+          <t>PRODUCTCODE: 5716P14</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr"/>
@@ -17962,7 +17962,7 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>Summarized description: Learn how to order tapas, meet people who love food and discover some of the best bars Barcelona has to offer. Plus, your friendly guide can offer suggestions to help you get the most from your stay in Barcelona.</t>
+          <t>Summarized description: Walk through the Gothic Quarter with the tastiest food stops. Explore iconic landmarks such as Liceu Opera House, El Palau de la Música.</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr"/>
@@ -17977,7 +17977,7 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Barcelona Guided Tapas Walking Tour - Private </t>
+          <t xml:space="preserve">Title: Barcelona Essentials: Tapas &amp; Gothic Quarter Small Group Tour </t>
         </is>
       </c>
       <c r="B1166" t="inlineStr"/>
@@ -17992,7 +17992,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr"/>
@@ -18022,7 +18022,7 @@
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 243885P1</t>
+          <t>PRODUCTCODE: 14218P10</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr"/>
@@ -18037,7 +18037,7 @@
     <row r="1170">
       <c r="A1170" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the hidden corners of Barcelona's old town with this Barcelona Gothic Quarter Tour in Chinese, Japanese, or Korean. This is a small group tour of 1-12 pople, so you can enjoy Barcelona in comfort.</t>
+          <t>Summarized description: 3-hour private walking tour. Enjoy some of the best tapas in different typical bars of the area. Talk about the history, culture and life style of the amazing city of Barcelona.</t>
         </is>
       </c>
       <c r="B1170" t="inlineStr"/>
@@ -18052,7 +18052,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>Title: Barcelona Gothic Quarter Tour (Small Group)</t>
+          <t>Title: Tapas like a local Private Tour in Barcelona</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr"/>
@@ -18067,7 +18067,7 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr"/>
@@ -18082,7 +18082,7 @@
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr"/>
@@ -18097,7 +18097,7 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7234P8</t>
+          <t>PRODUCTCODE: 107577P4</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr"/>
@@ -18112,7 +18112,7 @@
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>Summarized description: Private tour takes you through Barcelona's most historic district, the Gothic quarter. With its labyrinth-like streets and hidden squares, this hard to navigate neighborhood is a storybook of amazing history.</t>
+          <t>Summarized description: Craft beer tour of Barcelona. Learn some quirky facts in a laid back friendly atmosphere. Enjoy some tapas in each unique bar we go to.</t>
         </is>
       </c>
       <c r="B1175" t="inlineStr"/>
@@ -18127,7 +18127,7 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>Title: Private Guided Walking Tour of Gothic Quarter in Barcelona</t>
+          <t>Title: Craft Beer Tour with Tapas, Brewery Tour and 3 Local Bars</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr"/>
@@ -18142,7 +18142,7 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr"/>
@@ -18157,7 +18157,7 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 284316P44</t>
+          <t>PRODUCTCODE: 174817P29</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr"/>
@@ -18187,7 +18187,7 @@
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the Gothic Quarter, the historic heart of Barcelona with its narrow streets, artisans, beautiful squares and famous buildings. The stories, designed by professional guides and actors, are automatically triggered from the Rewind app.</t>
+          <t>Summarized description: The El Born Tapas Food Tour is a gastronomic journey through Barcelona’s El Born neighborhood. Enjoy traditional and modern tapas, paired perfectly with an assortment of drinks, including wine, beer, cava, and shots.</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr"/>
@@ -18202,7 +18202,7 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>Title: Barcelona: The Gothic Quarter Self-Guided Walking Tour</t>
+          <t>Title: Barcelona Tipsy Tapas Food Crawl</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr"/>
@@ -18217,7 +18217,7 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr"/>
@@ -18232,7 +18232,7 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr"/>
@@ -18247,7 +18247,7 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 118211P2</t>
+          <t>PRODUCTCODE: 66178P9</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr"/>
@@ -18262,7 +18262,7 @@
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>Summarized description: Explore several thousand years of Barcelona's history with Rasmus. Walk through one of the world's best-preserved Roman walls. Discover Plaça del Rei, Barcelona Cathedral and many other interesting buildings.</t>
+          <t>Summarized description: Embark on a captivating private tour of Barcelona's Gothic Quarter with us. Wander through medieval walls, an ancestral market, and a Gothic cathedral. Discover the resilience of the Jewish Quarter amidst century-old shops.</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr"/>
@@ -18277,7 +18277,7 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>Title: Small Group Barcelona Gothic Quarter Walking Tour</t>
+          <t xml:space="preserve">Title: Private Barcelona Walking Tour &amp; Flamenco Show-Tapas Dinner </t>
         </is>
       </c>
       <c r="B1186" t="inlineStr"/>
@@ -18292,7 +18292,7 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr"/>
@@ -18307,7 +18307,7 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr"/>
@@ -18322,7 +18322,7 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3394P36</t>
+          <t>PRODUCTCODE: 9866P34</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>Summarized description: Dinner walking tour of Barcelona's famous tapas bars. Learn how to order tapas, meet people who love food and discover some of the best bars Barcelona has to offer.</t>
+          <t>Summarized description: During four stops, explore local places that offer authentic food with a guide. Each offers world-famous tapas, but with a Catalan twist. Visit places known by locals but unknown to outsiders.</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr"/>
@@ -18352,7 +18352,7 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>Title: Barcelona Tapas walking Tour with Flamenco Show</t>
+          <t>Title: Private Tapas Walking Tour in Barcelona Modernist Area with Dinner included</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr"/>
@@ -18367,7 +18367,7 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr"/>
@@ -18382,7 +18382,7 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr"/>
@@ -18397,7 +18397,7 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 314180P2</t>
+          <t>PRODUCTCODE: 3394P21</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr"/>
@@ -18412,7 +18412,7 @@
     <row r="1195">
       <c r="A1195" t="inlineStr">
         <is>
-          <t>Summarized description: This 3-in-1 tour is a combination of a tapa tour, a cultural walking tour and dinner/lunch. You will feel like an old friend is sharing his/her Barcelona with you.</t>
+          <t>Summarized description: Learn how to order tapas, meet people who love food and discover some of the best bars Barcelona has to offer. Plus, your friendly guide can offer suggestions to help you get the most from your stay in Barcelona.</t>
         </is>
       </c>
       <c r="B1195" t="inlineStr"/>
@@ -18427,7 +18427,7 @@
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>Title: Together Food and Culture Walking Tour in Barcelona</t>
+          <t xml:space="preserve">Title: Barcelona Guided Tapas Walking Tour - Private </t>
         </is>
       </c>
       <c r="B1196" t="inlineStr"/>
@@ -18442,7 +18442,7 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr"/>
@@ -18457,7 +18457,7 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr"/>
@@ -18472,7 +18472,7 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 17377P33</t>
+          <t>PRODUCTCODE: 20220P3</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr"/>
@@ -18487,7 +18487,7 @@
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about some of the most important things for us - our culture, the wine, and our gastronomy on this private tour. Enjoy your walking tour through the Roman and medieval part of the city, the oldest neighborhoods, and do an exclusive wine-tasting of local products. Then, round out your day with a tapas dinner where you will taste the unique Spanish culinary specialties.</t>
+          <t>Summarized description: Savor Barcelona’s gastronomy and learn about its culinary heritage from a local perspective. Foodie guide will introduce you to a wide range of local products to taste while you visit traditional gourmet stores, wine bars, tapas restaurant and hidden spots.</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Private Barcelona Walking Tour &amp; Wine Tasting + Tapas Dinner </t>
+          <t>Title: Barcelona Tapas and Wine Gourmet Walking Tour</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr"/>
@@ -18517,7 +18517,7 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr"/>
@@ -18532,7 +18532,7 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Wine and Beverage Tastings', 'Cultural Tours']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr"/>
@@ -18547,7 +18547,7 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3394P27</t>
+          <t>PRODUCTCODE: 400660P3</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr"/>
@@ -18562,7 +18562,7 @@
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>Summarized description: Wine walking tour of Barcelona. Enjoy five wines and more than five food pairings over the course of two and a half hours. Authentic Spanish style meal.</t>
+          <t>Summarized description: Solo travelers can sample a variety of local dishes and drinks. Guides will share insider tips and stories about Barcelona's food culture and history. You'll have the opportunity to connect with other solo travelers along the way.</t>
         </is>
       </c>
       <c r="B1205" t="inlineStr"/>
@@ -18577,7 +18577,7 @@
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>Title: Private Wine &amp; Tapas Meal Experience Walking Tour</t>
+          <t>Title: Barcelona Tapas and Wine Tour for Solo Travelers | Small Group</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr"/>
@@ -18592,7 +18592,7 @@
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr"/>
@@ -18607,7 +18607,7 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr"/>
@@ -18622,7 +18622,7 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3394P31</t>
+          <t>PRODUCTCODE: 2140WALKXMAS</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr"/>
@@ -18637,7 +18637,7 @@
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>Summarized description: Wine &amp; tapas meal walking tour to historical andhidden bars. Enjoy five wines and more than five food pairings over the course of a wine walking tour of two and a half hours.</t>
+          <t>Summarized description: Visit Fira de Santa Llúcia, the city's oldest Christmas market. Learn about Catalan Christmas traditions as you stroll through the city’s elaborate outdoor Nativity scene.</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr"/>
@@ -18652,7 +18652,7 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>Title: Wine &amp; Tapas Meal Experience Walking Tour in Barcelona</t>
+          <t>Title: Barcelona Christmas Market Small Group Walking Tour</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr"/>
@@ -18682,7 +18682,7 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['City Tours', 'Cultural Festivals']</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr"/>
@@ -18697,7 +18697,7 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 10122P2</t>
+          <t>PRODUCTCODE: 102055P3</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr"/>
@@ -18712,7 +18712,7 @@
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>Summarized description: A foodie guide introduces you to a wide range of local products. Discover the city's flavorful delis, Santa Caterina Market and El Borne.</t>
+          <t>Summarized description: Discover the origins of Barcelona on this guided walking tour. Your official guide will tell you anecdotes, legends and stories. Visit such emblematic places as Las Ramblas or the Plaza de Sant Jaume.</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr"/>
@@ -18727,7 +18727,7 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>Title: Gourmet Tapas Guided Walking Tour in Barcelona</t>
+          <t>Title: Barcelona Gothic Quarter: guided walking tour</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr"/>
@@ -18742,7 +18742,7 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr"/>
@@ -18757,7 +18757,7 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr"/>
@@ -18772,7 +18772,7 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 231273P8</t>
+          <t>PRODUCTCODE: 3394P36</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr"/>
@@ -18787,7 +18787,7 @@
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>Summarized description: Tapas tasting, Gothic Quarter tour and flamenco dance show. Make sure your night out in Barcelona sizzles with this private 3-hour tour combination.</t>
+          <t>Summarized description: Dinner walking tour of Barcelona's famous tapas bars. Learn how to order tapas, meet people who love food and discover some of the best bars Barcelona has to offer.</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr"/>
@@ -18802,7 +18802,7 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>Title: Private night tour in Barcelona: Old Town, Tapas and Flamenco Show</t>
+          <t>Title: Barcelona Tapas walking Tour with Flamenco Show</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr"/>
@@ -18817,7 +18817,7 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>Category: ['Performing Arts', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr"/>
@@ -18847,7 +18847,7 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 22869P96</t>
+          <t>PRODUCTCODE: 20115P2</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr"/>
@@ -18862,7 +18862,7 @@
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the gothic quarter of Barcelona while you discover the tipical gastronomy of the city. See alongside your knowledgeable local guide the popular center of Barcelona, also the some of the most popular bars.</t>
+          <t>Summarized description: 2,5hour guided walking tour. Uncover Barcelona's beer revolution, iconic tapas culture, and history at La Barceloneta district. Taste amazing local craft beers, some are brewed on the spot.</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr"/>
@@ -18877,7 +18877,7 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>Title: Gastronomic Experience: Wine, Jamon and Tapas Tasting in Barcelona</t>
+          <t>Title: Small-Group Craft Beer and Tapas Tour in La Barceloneta</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr"/>
@@ -18892,7 +18892,7 @@
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr"/>
@@ -18907,7 +18907,7 @@
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr"/>
@@ -18922,7 +18922,7 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 122336P2</t>
+          <t>PRODUCTCODE: 314180P2</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr"/>
@@ -18937,7 +18937,7 @@
     <row r="1230">
       <c r="A1230" t="inlineStr">
         <is>
-          <t>Summarized description: 3 hour tour around the Gothic Quarter and Born. We will explain the architecture of the streets, buildings, history and multiple anecdotes. You will also try different Pinchos.</t>
+          <t>Summarized description: This 3-in-1 tour is a combination of a tapa tour, a cultural walking tour and dinner/lunch. You will feel like an old friend is sharing his/her Barcelona with you.</t>
         </is>
       </c>
       <c r="B1230" t="inlineStr"/>
@@ -18952,7 +18952,7 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>Title: Pinchos, Wine and Architecture in Barcelona</t>
+          <t>Title: Together Food and Culture Walking Tour in Barcelona</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr"/>
@@ -18967,7 +18967,7 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr"/>
@@ -18982,7 +18982,7 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 25359P6</t>
+          <t>PRODUCTCODE: 17377P33</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr"/>
@@ -19012,7 +19012,7 @@
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>Summarized description: 3-hour evening in Barcelona's old historic center. Includes 12+ food tastings accompanied by 5 drinks and an authentic, 1-hour flamenco show.</t>
+          <t>Summarized description: Learn about some of the most important things for us - our culture, the wine, and our gastronomy on this private tour. Enjoy your walking tour through the Roman and medieval part of the city, the oldest neighborhoods, and do an exclusive wine-tasting of local products. Then, round out your day with a tapas dinner where you will taste the unique Spanish culinary specialties.</t>
         </is>
       </c>
       <c r="B1235" t="inlineStr"/>
@@ -19027,7 +19027,7 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>Title: Barcelona Tapas and Flamenco Tour</t>
+          <t xml:space="preserve">Title: Private Barcelona Walking Tour &amp; Wine Tasting + Tapas Dinner </t>
         </is>
       </c>
       <c r="B1236" t="inlineStr"/>
@@ -19042,7 +19042,7 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr"/>
@@ -19057,7 +19057,7 @@
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>Category: ['Performing Arts', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Dining Experiences', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr"/>
@@ -19072,7 +19072,7 @@
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3394FOOD</t>
+          <t>PRODUCTCODE: 3394P27</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr"/>
@@ -19087,7 +19087,7 @@
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>Summarized description: Explore authentic local cuisine with this tour created for foodies. With your expert Food guide taste excellent tapas &amp; gourmet sweets, followed by an unforgettable Michelin star cuisine meal. The Barcelona Food Lovers Walking Tour is led by a professional foodie tour guide.</t>
+          <t>Summarized description: Wine walking tour of Barcelona. Enjoy five wines and more than five food pairings over the course of two and a half hours. Authentic Spanish style meal.</t>
         </is>
       </c>
       <c r="B1240" t="inlineStr"/>
@@ -19102,7 +19102,7 @@
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>Title: Small-Group Barcelona Food Walking Tour with Gourmet Meal</t>
+          <t>Title: Private Wine &amp; Tapas Meal Experience Walking Tour</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr"/>
@@ -19117,7 +19117,7 @@
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr"/>
@@ -19132,7 +19132,7 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr"/>
@@ -19147,7 +19147,7 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6874P144</t>
+          <t>PRODUCTCODE: 3394P31</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
     <row r="1245">
       <c r="A1245" t="inlineStr">
         <is>
-          <t>Summarized description: 4hr gourmet food tour of Barcelona is designed by Foodies, for Foodies. You will explore, tapas bars and unique historic buildings, immersing yourself in foods and drinks.</t>
+          <t>Summarized description: Wine &amp; tapas meal walking tour to historical andhidden bars. Enjoy five wines and more than five food pairings over the course of a wine walking tour of two and a half hours.</t>
         </is>
       </c>
       <c r="B1245" t="inlineStr"/>
@@ -19177,7 +19177,7 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>Title: Private Barcelona Gourmet Tapas Experience</t>
+          <t>Title: Wine &amp; Tapas Meal Experience Walking Tour in Barcelona</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr"/>
@@ -19207,7 +19207,7 @@
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr"/>
@@ -19222,7 +19222,7 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 16637P2</t>
+          <t>PRODUCTCODE: 10122P2</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr"/>
@@ -19237,7 +19237,7 @@
     <row r="1250">
       <c r="A1250" t="inlineStr">
         <is>
-          <t>Summarized description: Barcelona is a city brimming with culture and fascinating history. Hear fascinating stories of Barcelona’s history and how it has formed the culture of the city. You will also learn fun facts and be entertained the whole way around by one of our expert tour guides.</t>
+          <t>Summarized description: A foodie guide introduces you to a wide range of local products. Discover the city's flavorful delis, Santa Caterina Market and El Borne.</t>
         </is>
       </c>
       <c r="B1250" t="inlineStr"/>
@@ -19252,7 +19252,7 @@
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>Title: Guided Walking Tour With Tapas Lunch</t>
+          <t>Title: Gourmet Tapas Guided Walking Tour in Barcelona</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr"/>
@@ -19282,7 +19282,7 @@
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr"/>
@@ -19297,7 +19297,7 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 11498P141</t>
+          <t>PRODUCTCODE: 22869P96</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr"/>
@@ -19312,7 +19312,7 @@
     <row r="1255">
       <c r="A1255" t="inlineStr">
         <is>
-          <t>Summarized description: The best way to discover Barcelona is to try local wine and tapas with a private local guide. At each cafe, sample handpicked Catalonian wine and complimentary tapas. Visit some of the most interesting corners of the Barcelona Old Town.</t>
+          <t>Summarized description: Visit the gothic quarter of Barcelona while you discover the tipical gastronomy of the city. See alongside your knowledgeable local guide the popular center of Barcelona, also the some of the most popular bars.</t>
         </is>
       </c>
       <c r="B1255" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>Title: Barcelona Tapas &amp; Wine Tour with a Private Local Guide</t>
+          <t>Title: Gastronomic Experience: Wine, Jamon and Tapas Tasting in Barcelona</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr"/>
@@ -19357,7 +19357,7 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['City Tours', 'Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr"/>
@@ -19372,7 +19372,7 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 400660P1</t>
+          <t>PRODUCTCODE: 5411P202</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr"/>
@@ -19387,7 +19387,7 @@
     <row r="1260">
       <c r="A1260" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the history and culture of tapas in Catalonia and Spain, and enjoy a variety of delicious bites paired with local wines. We'll take you to four different restaurants, each offering their own unique spin on traditional tapas.</t>
+          <t>Summarized description: A private, expert-led tapas tour taking place in one of Barcelona's trendy, up-and-coming areas. The tour is led by an expert in the city's tapas scene.</t>
         </is>
       </c>
       <c r="B1260" t="inlineStr"/>
@@ -19402,7 +19402,7 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>Title: Private Tapas and Wine Walking Tour in Barcelona</t>
+          <t>Title: Expert Led Private Tapas Tour through Barcelona</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr"/>
@@ -19447,7 +19447,7 @@
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P2</t>
+          <t>PRODUCTCODE: 25359P6</t>
         </is>
       </c>
       <c r="B1264" t="inlineStr"/>
@@ -19462,7 +19462,7 @@
     <row r="1265">
       <c r="A1265" t="inlineStr">
         <is>
-          <t>Summarized description: The best way to experience Barcelona is through its architecture and food. You will discover Spain's delectable gastronomy by eating a lot of tapas at 3 different restaurants.</t>
+          <t>Summarized description: 3-hour evening in Barcelona's old historic center. Includes 12+ food tastings accompanied by 5 drinks and an authentic, 1-hour flamenco show.</t>
         </is>
       </c>
       <c r="B1265" t="inlineStr"/>
@@ -19477,7 +19477,7 @@
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>Title: Barcelona Amazing Architecture Exploring and Delicious Tapas Experience</t>
+          <t>Title: Barcelona Tapas and Flamenco Tour</t>
         </is>
       </c>
       <c r="B1266" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1267" t="inlineStr"/>
@@ -19507,7 +19507,7 @@
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'Performing Arts', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1268" t="inlineStr"/>
@@ -19522,7 +19522,7 @@
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3394P24</t>
+          <t>PRODUCTCODE: 112658P2</t>
         </is>
       </c>
       <c r="B1269" t="inlineStr"/>
@@ -19537,7 +19537,7 @@
     <row r="1270">
       <c r="A1270" t="inlineStr">
         <is>
-          <t>Summarized description: Taste wines from regions such as Rioja, Priorat or Ribera with an expert guide. Relax in an elegant gourmet center right in the heart of Barcelona.</t>
+          <t>Summarized description: We will meet in front of Hard Rock Cafe in Plaza Cataluña and we will have a tour around the city center based on secret stories that happened centuries ago. We will learn stories of emblemathic places as Las Ramblas and why its name, what happened there, the Gothic Quarter... After the walking tour, we will visit a secret space hidden inside a hotel to do a special wine tasting, focused on local wines of Spain.</t>
         </is>
       </c>
       <c r="B1270" t="inlineStr"/>
@@ -19552,7 +19552,7 @@
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>Title: Private Spanish Wine Tasting Experience in Barcelona</t>
+          <t>Title: The secret Barcelona, wine tasting and tapas</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr"/>
@@ -19567,7 +19567,7 @@
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1272" t="inlineStr"/>
@@ -19582,7 +19582,7 @@
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr"/>
@@ -19597,7 +19597,7 @@
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 332541P590</t>
+          <t>PRODUCTCODE: 3394FOOD</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr"/>
@@ -19612,7 +19612,7 @@
     <row r="1275">
       <c r="A1275" t="inlineStr">
         <is>
-          <t>Summarized description: Discover historical treasures hidden in a maze of narrow streets of the Gothic Quarter. See the city harbor, La Rambla and unique Gothic and Roman monuments. Optional: visit the Basilica de Santa Maria del Mar and Barcelona Cathedral.</t>
+          <t>Summarized description: Explore authentic local cuisine with this tour created for foodies. With your expert Food guide taste excellent tapas &amp; gourmet sweets, followed by an unforgettable Michelin star cuisine meal. The Barcelona Food Lovers Walking Tour is led by a professional foodie tour guide.</t>
         </is>
       </c>
       <c r="B1275" t="inlineStr"/>
@@ -19627,7 +19627,7 @@
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>Title: Barcelona Gothic Quarter Private Walking Tour</t>
+          <t>Title: Small-Group Barcelona Food Walking Tour with Gourmet Meal</t>
         </is>
       </c>
       <c r="B1276" t="inlineStr"/>
@@ -19642,7 +19642,7 @@
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1277" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr"/>
@@ -19672,7 +19672,7 @@
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239937P64</t>
+          <t>PRODUCTCODE: 6874P144</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr"/>
@@ -19687,7 +19687,7 @@
     <row r="1280">
       <c r="A1280" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the vibrant areas of Sant Antoni and Poble Sec in a local way. Treat yourself with 4 glasses of wine from the local region of Catalunia and 4 delicious bites.</t>
+          <t>Summarized description: 4hr gourmet food tour of Barcelona is designed by Foodies, for Foodies. You will explore, tapas bars and unique historic buildings, immersing yourself in foods and drinks.</t>
         </is>
       </c>
       <c r="B1280" t="inlineStr"/>
@@ -19702,7 +19702,7 @@
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t>Title: Barcelona Tapas &amp; Wine Tasting Private Tour</t>
+          <t>Title: Private Barcelona Gourmet Tapas Experience</t>
         </is>
       </c>
       <c r="B1281" t="inlineStr"/>
@@ -19717,7 +19717,7 @@
     <row r="1282">
       <c r="A1282" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1282" t="inlineStr"/>
@@ -19732,7 +19732,7 @@
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1283" t="inlineStr"/>
@@ -19747,7 +19747,7 @@
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9919P4</t>
+          <t>PRODUCTCODE: 16637P2</t>
         </is>
       </c>
       <c r="B1284" t="inlineStr"/>
@@ -19762,7 +19762,7 @@
     <row r="1285">
       <c r="A1285" t="inlineStr">
         <is>
-          <t>Summarized description: El Born is a city quarter that dates back to the Middle Ages. Hear how people lived during that time and see some of the important landmarks. Visit the Mercat Princesa, a major gastronomic destination.</t>
+          <t>Summarized description: Barcelona is a city brimming with culture and fascinating history. Hear fascinating stories of Barcelona’s history and how it has formed the culture of the city. You will also learn fun facts and be entertained the whole way around by one of our expert tour guides.</t>
         </is>
       </c>
       <c r="B1285" t="inlineStr"/>
@@ -19777,7 +19777,7 @@
     <row r="1286">
       <c r="A1286" t="inlineStr">
         <is>
-          <t>Title: El Born Quarter and Tapas Tasting Guided Tour in Barcelona</t>
+          <t>Title: Guided Walking Tour With Tapas Lunch</t>
         </is>
       </c>
       <c r="B1286" t="inlineStr"/>
@@ -19792,7 +19792,7 @@
     <row r="1287">
       <c r="A1287" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1287" t="inlineStr"/>
@@ -19807,7 +19807,7 @@
     <row r="1288">
       <c r="A1288" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1288" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
     <row r="1289">
       <c r="A1289" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 243885P4</t>
+          <t>PRODUCTCODE: 75909P473</t>
         </is>
       </c>
       <c r="B1289" t="inlineStr"/>
@@ -19837,7 +19837,7 @@
     <row r="1290">
       <c r="A1290" t="inlineStr">
         <is>
-          <t>Summarized description: The most delicious bites in Barcelona can be found in the Born area. The tour begins with a short walk through Barcelona’s old town. Then, we’ll make our first stop at Vidrios y Cristales.</t>
+          <t>Summarized description: Fabio's food tour explores the Boqueria market and El Born. Taste a range of cold cuts and Iberian ham, cheeses, pan con tomate and olive oil. Finish in the hipster neighborhood of El Born to eat at one of the best tapas restaurants in Barcelona.</t>
         </is>
       </c>
       <c r="B1290" t="inlineStr"/>
@@ -19852,7 +19852,7 @@
     <row r="1291">
       <c r="A1291" t="inlineStr">
         <is>
-          <t>Title: Barcelona Tapas Tour (Small Group)</t>
+          <t xml:space="preserve">Title: Barcelona Food, Wine and Tapas tasting tour - Morning </t>
         </is>
       </c>
       <c r="B1291" t="inlineStr"/>
@@ -19867,7 +19867,7 @@
     <row r="1292">
       <c r="A1292" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1292" t="inlineStr"/>
@@ -19882,7 +19882,7 @@
     <row r="1293">
       <c r="A1293" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1293" t="inlineStr"/>
@@ -19897,7 +19897,7 @@
     <row r="1294">
       <c r="A1294" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 75909P559</t>
+          <t>PRODUCTCODE: 26613P4</t>
         </is>
       </c>
       <c r="B1294" t="inlineStr"/>
@@ -19912,7 +19912,7 @@
     <row r="1295">
       <c r="A1295" t="inlineStr">
         <is>
-          <t>Summarized description: Learn all about the diverse Born district in Barcelona. Taste a variety of traditional delicacies, from Spanish ham to Turrón. Sample local specialities at every stop. Food walk for 2 to 16 people.</t>
+          <t>Summarized description: 2.5 hour guided walking tour. Taste delicious and healthy tapas while exploring the city's main sights. Immerse yourself in more than 2,000 years of history through two charming neighborhoods.</t>
         </is>
       </c>
       <c r="B1295" t="inlineStr"/>
@@ -19927,7 +19927,7 @@
     <row r="1296">
       <c r="A1296" t="inlineStr">
         <is>
-          <t>Title: Born district food tour and tasting in Barcelona</t>
+          <t>Title: Barcelona Vegetarian Tapas Walking Tour</t>
         </is>
       </c>
       <c r="B1296" t="inlineStr"/>
@@ -19942,7 +19942,7 @@
     <row r="1297">
       <c r="A1297" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1297" t="inlineStr"/>
@@ -19957,7 +19957,7 @@
     <row r="1298">
       <c r="A1298" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1298" t="inlineStr"/>
@@ -19972,7 +19972,7 @@
     <row r="1299">
       <c r="A1299" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 26153P26</t>
+          <t>PRODUCTCODE: 24338P53</t>
         </is>
       </c>
       <c r="B1299" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
     <row r="1300">
       <c r="A1300" t="inlineStr">
         <is>
-          <t>Summarized description: Explore Barcelona through its deliciously and vibrant cuisine to get deeply in touch with the authenticity of the city. In only three hours, you get to experience the best local appetizers and typical Catalonian recipes.</t>
+          <t>Summarized description: The Gothic Quarter is one of Barcelona’s most vibrant areas. Join us on a delicious discovery of the Gothic quarter. There will be enough tapas and wine to discover a lot of Barcelona.</t>
         </is>
       </c>
       <c r="B1300" t="inlineStr"/>
@@ -20002,7 +20002,7 @@
     <row r="1301">
       <c r="A1301" t="inlineStr">
         <is>
-          <t>Title: Barcelona private tour for foodies</t>
+          <t>Title: Local Barcelona Tapas Tour with Wine &amp; Dinner</t>
         </is>
       </c>
       <c r="B1301" t="inlineStr"/>
@@ -20017,7 +20017,7 @@
     <row r="1302">
       <c r="A1302" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1302" t="inlineStr"/>
@@ -20032,7 +20032,7 @@
     <row r="1303">
       <c r="A1303" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1303" t="inlineStr"/>
@@ -20047,7 +20047,7 @@
     <row r="1304">
       <c r="A1304" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7234P5</t>
+          <t>PRODUCTCODE: 11498P141</t>
         </is>
       </c>
       <c r="B1304" t="inlineStr"/>
@@ -20062,7 +20062,7 @@
     <row r="1305">
       <c r="A1305" t="inlineStr">
         <is>
-          <t>Summarized description: Gothic Quarter is one of Barcelona's oldest districts. Explore the city's most emblematic squares and monuments. Enjoy an evening in a small wine cellar in the heart of the district.</t>
+          <t>Summarized description: The best way to discover Barcelona is to try local wine and tapas with a private local guide. At each cafe, sample handpicked Catalonian wine and complimentary tapas. Visit some of the most interesting corners of the Barcelona Old Town.</t>
         </is>
       </c>
       <c r="B1305" t="inlineStr"/>
@@ -20077,7 +20077,7 @@
     <row r="1306">
       <c r="A1306" t="inlineStr">
         <is>
-          <t>Title: The Gothic Quarter and Wine Tasting Tour of Barcelona</t>
+          <t>Title: Barcelona Tapas &amp; Wine Tour with a Private Local Guide</t>
         </is>
       </c>
       <c r="B1306" t="inlineStr"/>
@@ -20092,7 +20092,7 @@
     <row r="1307">
       <c r="A1307" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1307" t="inlineStr"/>
@@ -20107,7 +20107,7 @@
     <row r="1308">
       <c r="A1308" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1308" t="inlineStr"/>
@@ -20122,7 +20122,7 @@
     <row r="1309">
       <c r="A1309" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 23254P1</t>
+          <t>PRODUCTCODE: 152463P1</t>
         </is>
       </c>
       <c r="B1309" t="inlineStr"/>
@@ -20137,7 +20137,7 @@
     <row r="1310">
       <c r="A1310" t="inlineStr">
         <is>
-          <t>Summarized description: Barcelona is home to one of the most geographically interesting wines regions of the world. Explore this wine region by tasting some of the best local wines.</t>
+          <t>Summarized description: This 2.5-hour tour offers a pleasant and economical way to visit some of the best tapas places in Barcelona. Your guide will share your passion for Spanish food and the secrets of Spanish gastronomy.</t>
         </is>
       </c>
       <c r="B1310" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
     <row r="1311">
       <c r="A1311" t="inlineStr">
         <is>
-          <t>Title: Barcelona Guided Local Wine Tasting Tour</t>
+          <t>Title: Best Tapas Tour of Barcelona!</t>
         </is>
       </c>
       <c r="B1311" t="inlineStr"/>
@@ -20167,7 +20167,7 @@
     <row r="1312">
       <c r="A1312" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1312" t="inlineStr"/>
@@ -20182,7 +20182,7 @@
     <row r="1313">
       <c r="A1313" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1313" t="inlineStr"/>
@@ -20197,7 +20197,7 @@
     <row r="1314">
       <c r="A1314" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 247394P4</t>
+          <t>PRODUCTCODE: 118881P4</t>
         </is>
       </c>
       <c r="B1314" t="inlineStr"/>
@@ -20212,7 +20212,7 @@
     <row r="1315">
       <c r="A1315" t="inlineStr">
         <is>
-          <t>Summarized description: The guide has perfect knowns about those shops, restaurants and place you should not miss. Also you will love to taste Spanish tapas and beer or wine in the best places in town.</t>
+          <t>Summarized description: Barcelona is known around the world for its sumptuous wines, tapas, art, architecture, history and culture. Walk in the footsteps of the most emblematic Spanish artists, such as Picasso, Dali, Miro and Gaudi.</t>
         </is>
       </c>
       <c r="B1315" t="inlineStr"/>
@@ -20227,7 +20227,7 @@
     <row r="1316">
       <c r="A1316" t="inlineStr">
         <is>
-          <t>Title: Walking tour in Barcelona, with wine and tapas</t>
+          <t xml:space="preserve">Title: Secret Barcelona, wine tasting &amp; Spanish Tapas </t>
         </is>
       </c>
       <c r="B1316" t="inlineStr"/>
@@ -20242,7 +20242,7 @@
     <row r="1317">
       <c r="A1317" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1317" t="inlineStr"/>
@@ -20257,7 +20257,7 @@
     <row r="1318">
       <c r="A1318" t="inlineStr">
         <is>
-          <t>Category: ['Shopping and Fashion', 'Culinary Tours']</t>
+          <t>Category: ['Cultural Tours']</t>
         </is>
       </c>
       <c r="B1318" t="inlineStr"/>
@@ -20272,7 +20272,7 @@
     <row r="1319">
       <c r="A1319" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 196771P2</t>
+          <t>PRODUCTCODE: 400660P1</t>
         </is>
       </c>
       <c r="B1319" t="inlineStr"/>
@@ -20287,7 +20287,7 @@
     <row r="1320">
       <c r="A1320" t="inlineStr">
         <is>
-          <t>Summarized description: The Tapas Tour takes you through Barcelona’s famous Gothic Quarter, in the Ciutat Vella (old city) Past Roman walls, alongside cathedrals, through precious plazas and, most importantly, in-and-out of small local restaurants.</t>
+          <t>Summarized description: Learn about the history and culture of tapas in Catalonia and Spain, and enjoy a variety of delicious bites paired with local wines. We'll take you to four different restaurants, each offering their own unique spin on traditional tapas.</t>
         </is>
       </c>
       <c r="B1320" t="inlineStr"/>
@@ -20302,7 +20302,7 @@
     <row r="1321">
       <c r="A1321" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Barcelona Special : 3 Hours Evening Tapas Tour </t>
+          <t>Title: Private Tapas and Wine Walking Tour in Barcelona</t>
         </is>
       </c>
       <c r="B1321" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
     <row r="1322">
       <c r="A1322" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1322" t="inlineStr"/>
@@ -20332,7 +20332,7 @@
     <row r="1323">
       <c r="A1323" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1323" t="inlineStr"/>
@@ -20347,7 +20347,7 @@
     <row r="1324">
       <c r="A1324" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 16637P14</t>
+          <t>PRODUCTCODE: 118881P8</t>
         </is>
       </c>
       <c r="B1324" t="inlineStr"/>
@@ -20362,7 +20362,7 @@
     <row r="1325">
       <c r="A1325" t="inlineStr">
         <is>
-          <t>Summarized description: Walk through Barcelona's Wine Culture with a blindfolded wine tasting. Your guide will take you to 4 local wine stops, where you will receive a glass of wine at each... and maybe even more if you ask sweetly!</t>
+          <t>Summarized description: Exclusive wine pairing experience with tapas in the heart of Barcelona. Expert team will guide you through a carefully curated selection of 3 premium wines from across Spain.</t>
         </is>
       </c>
       <c r="B1325" t="inlineStr"/>
@@ -20377,7 +20377,7 @@
     <row r="1326">
       <c r="A1326" t="inlineStr">
         <is>
-          <t>Title: Wine Tasting Walking Tour in Barcelona</t>
+          <t>Title: Gourmet Wine Experience in Barcelona</t>
         </is>
       </c>
       <c r="B1326" t="inlineStr"/>
@@ -20392,7 +20392,7 @@
     <row r="1327">
       <c r="A1327" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1327" t="inlineStr"/>
@@ -20407,7 +20407,7 @@
     <row r="1328">
       <c r="A1328" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1328" t="inlineStr"/>
@@ -20422,7 +20422,7 @@
     <row r="1329">
       <c r="A1329" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 20455P296</t>
+          <t>PRODUCTCODE: 3394P17</t>
         </is>
       </c>
       <c r="B1329" t="inlineStr"/>
@@ -20437,7 +20437,7 @@
     <row r="1330">
       <c r="A1330" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the Old City of Barcelona on this 3 hour tour. You’ll see iconic landmarks such as the Gothic Quarter and Las Ramblas. Discover more about the rich history of this vibrant city.</t>
+          <t>Summarized description: Learn about the history of Barcelona and the century-old tradition of vermouth. Visit a carefully picked selection of modern and classic vermouth bars to offer you a truly authentic experience.</t>
         </is>
       </c>
       <c r="B1330" t="inlineStr"/>
@@ -20452,7 +20452,7 @@
     <row r="1331">
       <c r="A1331" t="inlineStr">
         <is>
-          <t>Title: Barcelona Old City Walking Tour and Churros Stop with a Local Guide</t>
+          <t>Title: Barcelona Alternative Tapas Guided Tour with Traditional Vermouth Tasting</t>
         </is>
       </c>
       <c r="B1331" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
     <row r="1333">
       <c r="A1333" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1333" t="inlineStr"/>
@@ -20497,7 +20497,7 @@
     <row r="1334">
       <c r="A1334" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 25160P19</t>
+          <t>PRODUCTCODE: 239937P60</t>
         </is>
       </c>
       <c r="B1334" t="inlineStr"/>
@@ -20512,7 +20512,7 @@
     <row r="1335">
       <c r="A1335" t="inlineStr">
         <is>
-          <t>Summarized description: 3,5-hour guided tour: Montjuïc with Olympic Games, El Born neighbourhood, Port Vell, Barceloneta. 2 tasting stops with fresh ﬁsh in front of the sea and exquisite chocolate cake with cava.</t>
+          <t>Summarized description: Enjoy 10 delicious and typical tastings ranging from sweet to salty, as well as drinks on a tasty Gastronomic tour in Barcelona. Try the classic churros, chocolate and pintxos in real local places. It's not just food, it's a cultural experience.</t>
         </is>
       </c>
       <c r="B1335" t="inlineStr"/>
@@ -20527,7 +20527,7 @@
     <row r="1336">
       <c r="A1336" t="inlineStr">
         <is>
-          <t>Title: Barcelona Tapas Tour on Wheels</t>
+          <t>Title: Barcelona - Food Tasteing &amp; Cultural experience (Private Tour)</t>
         </is>
       </c>
       <c r="B1336" t="inlineStr"/>
@@ -20557,7 +20557,7 @@
     <row r="1338">
       <c r="A1338" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1338" t="inlineStr"/>
@@ -20572,7 +20572,7 @@
     <row r="1339">
       <c r="A1339" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 11131P17</t>
+          <t>PRODUCTCODE: 90219P2</t>
         </is>
       </c>
       <c r="B1339" t="inlineStr"/>
@@ -20587,7 +20587,7 @@
     <row r="1340">
       <c r="A1340" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the origin of Barcelona in this walking tour with an official guide. During this tour you will visit emblematic places such as the Ramblas or the Plaza de Sant Jaume.</t>
+          <t>Summarized description: The best way to experience Barcelona is through its architecture and food. You will discover Spain's delectable gastronomy by eating a lot of tapas at 3 different restaurants.</t>
         </is>
       </c>
       <c r="B1340" t="inlineStr"/>
@@ -20602,7 +20602,7 @@
     <row r="1341">
       <c r="A1341" t="inlineStr">
         <is>
-          <t>Title: Barcelona Gothic Quarter: Guided Walking Tour</t>
+          <t>Title: Barcelona Amazing Architecture Exploring and Delicious Tapas Experience</t>
         </is>
       </c>
       <c r="B1341" t="inlineStr"/>
@@ -20632,7 +20632,7 @@
     <row r="1343">
       <c r="A1343" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1343" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
     <row r="1344">
       <c r="A1344" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 22314P5</t>
+          <t>PRODUCTCODE: 3394P24</t>
         </is>
       </c>
       <c r="B1344" t="inlineStr"/>
@@ -20662,7 +20662,7 @@
     <row r="1345">
       <c r="A1345" t="inlineStr">
         <is>
-          <t>Summarized description: Segway Tour explores Barcelona's gastronomic culture and way of life. Visit the popular Barceloneta and places to enjoy the famous traditional tapas.</t>
+          <t>Summarized description: Taste wines from regions such as Rioja, Priorat or Ribera with an expert guide. Relax in an elegant gourmet center right in the heart of Barcelona.</t>
         </is>
       </c>
       <c r="B1345" t="inlineStr"/>
@@ -20677,7 +20677,7 @@
     <row r="1346">
       <c r="A1346" t="inlineStr">
         <is>
-          <t>Title: Barcelona on a Segway: Guided Tapas Tour</t>
+          <t>Title: Private Spanish Wine Tasting Experience in Barcelona</t>
         </is>
       </c>
       <c r="B1346" t="inlineStr"/>
@@ -20707,7 +20707,7 @@
     <row r="1348">
       <c r="A1348" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1348" t="inlineStr"/>
@@ -20722,7 +20722,7 @@
     <row r="1349">
       <c r="A1349" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 22314P6</t>
+          <t>PRODUCTCODE: 239937P64</t>
         </is>
       </c>
       <c r="B1349" t="inlineStr"/>
@@ -20737,7 +20737,7 @@
     <row r="1350">
       <c r="A1350" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Barcelona and its gastronomic culture and way of life in a unique Bike Tour. You will visit the popular Barceloneta and places to enjoy the famous traditional tapas.</t>
+          <t>Summarized description: Explore the vibrant areas of Sant Antoni and Poble Sec in a local way. Treat yourself with 4 glasses of wine from the local region of Catalunia and 4 delicious bites.</t>
         </is>
       </c>
       <c r="B1350" t="inlineStr"/>
@@ -20752,7 +20752,7 @@
     <row r="1351">
       <c r="A1351" t="inlineStr">
         <is>
-          <t>Title: Barcelona Bike and Tapas Tour</t>
+          <t>Title: Barcelona Tapas &amp; Wine Tasting Private Tour</t>
         </is>
       </c>
       <c r="B1351" t="inlineStr"/>
@@ -20782,7 +20782,7 @@
     <row r="1353">
       <c r="A1353" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1353" t="inlineStr"/>
@@ -20797,7 +20797,7 @@
     <row r="1354">
       <c r="A1354" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 25160P11</t>
+          <t>PRODUCTCODE: 9919P4</t>
         </is>
       </c>
       <c r="B1354" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
     <row r="1355">
       <c r="A1355" t="inlineStr">
         <is>
-          <t>Summarized description: Explore pastry shops and boutiques while having fun learning about historic food trends. Discover Barcelona Gothic Quarter and taste enjoy a guided tour along the streets and plazas of its neighborhood.</t>
+          <t>Summarized description: El Born is a city quarter that dates back to the Middle Ages. Hear how people lived during that time and see some of the important landmarks. Visit the Mercat Princesa, a major gastronomic destination.</t>
         </is>
       </c>
       <c r="B1355" t="inlineStr"/>
@@ -20827,7 +20827,7 @@
     <row r="1356">
       <c r="A1356" t="inlineStr">
         <is>
-          <t>Title: Chocolate Walking Private Tour in Barcelona</t>
+          <t>Title: El Born Quarter and Tapas Tasting Guided Tour in Barcelona</t>
         </is>
       </c>
       <c r="B1356" t="inlineStr"/>
@@ -20857,7 +20857,7 @@
     <row r="1358">
       <c r="A1358" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1358" t="inlineStr"/>
@@ -20872,7 +20872,7 @@
     <row r="1359">
       <c r="A1359" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 107187P1</t>
+          <t>PRODUCTCODE: 243885P4</t>
         </is>
       </c>
       <c r="B1359" t="inlineStr"/>
@@ -20887,7 +20887,7 @@
     <row r="1360">
       <c r="A1360" t="inlineStr">
         <is>
-          <t>Summarized description: We take a walk across 3 districts of the city center, each one with its own personality. We stop to taste tapas and the most popular crafted beer of Barcelona directly from its own modern Micro Brewery Lab. Take a walk back in time through the Gothic past of Barcelona and get to those times when the Romans founded the city.</t>
+          <t>Summarized description: The most delicious bites in Barcelona can be found in the Born area. The tour begins with a short walk through Barcelona’s old town. Then, we’ll make our first stop at Vidrios y Cristales.</t>
         </is>
       </c>
       <c r="B1360" t="inlineStr"/>
@@ -20902,7 +20902,7 @@
     <row r="1361">
       <c r="A1361" t="inlineStr">
         <is>
-          <t>Title: The Taste of Barcelona Cultural and Foodie Tour</t>
+          <t>Title: Barcelona Tapas Tour (Small Group)</t>
         </is>
       </c>
       <c r="B1361" t="inlineStr"/>
@@ -20932,7 +20932,7 @@
     <row r="1363">
       <c r="A1363" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1363" t="inlineStr"/>
@@ -20947,7 +20947,7 @@
     <row r="1364">
       <c r="A1364" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 21175P31</t>
+          <t>PRODUCTCODE: 75909P559</t>
         </is>
       </c>
       <c r="B1364" t="inlineStr"/>
@@ -20962,7 +20962,7 @@
     <row r="1365">
       <c r="A1365" t="inlineStr">
         <is>
-          <t>Summarized description: 3-hour private culinary tour of Barcelona. Three tapas bars in Gothic Quarter and El Born neighbourhoods. Try out traditional Catalonian recipes as well as favorites from other regions.</t>
+          <t>Summarized description: Learn all about the diverse Born district in Barcelona. Taste a variety of traditional delicacies, from Spanish ham to Turrón. Sample local specialities at every stop. Food walk for 2 to 16 people.</t>
         </is>
       </c>
       <c r="B1365" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
     <row r="1366">
       <c r="A1366" t="inlineStr">
         <is>
-          <t>Title: Private Guided Tapas Tour of Barcelona</t>
+          <t>Title: Born district food tour and tasting in Barcelona</t>
         </is>
       </c>
       <c r="B1366" t="inlineStr"/>
@@ -21007,7 +21007,7 @@
     <row r="1368">
       <c r="A1368" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1368" t="inlineStr"/>
@@ -21022,7 +21022,7 @@
     <row r="1369">
       <c r="A1369" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>PRODUCTCODE: 26153P26</t>
         </is>
       </c>
       <c r="B1369" t="inlineStr"/>
@@ -21034,6 +21034,1431 @@
       <c r="H1369" t="inlineStr"/>
       <c r="I1369" t="inlineStr"/>
     </row>
+    <row r="1370">
+      <c r="A1370" t="inlineStr">
+        <is>
+          <t>Summarized description: Explore Barcelona through its deliciously and vibrant cuisine to get deeply in touch with the authenticity of the city. In only three hours, you get to experience the best local appetizers and typical Catalonian recipes.</t>
+        </is>
+      </c>
+      <c r="B1370" t="inlineStr"/>
+      <c r="C1370" t="inlineStr"/>
+      <c r="D1370" t="inlineStr"/>
+      <c r="E1370" t="inlineStr"/>
+      <c r="F1370" t="inlineStr"/>
+      <c r="G1370" t="inlineStr"/>
+      <c r="H1370" t="inlineStr"/>
+      <c r="I1370" t="inlineStr"/>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="inlineStr">
+        <is>
+          <t>Title: Barcelona private tour for foodies</t>
+        </is>
+      </c>
+      <c r="B1371" t="inlineStr"/>
+      <c r="C1371" t="inlineStr"/>
+      <c r="D1371" t="inlineStr"/>
+      <c r="E1371" t="inlineStr"/>
+      <c r="F1371" t="inlineStr"/>
+      <c r="G1371" t="inlineStr"/>
+      <c r="H1371" t="inlineStr"/>
+      <c r="I1371" t="inlineStr"/>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1372" t="inlineStr"/>
+      <c r="C1372" t="inlineStr"/>
+      <c r="D1372" t="inlineStr"/>
+      <c r="E1372" t="inlineStr"/>
+      <c r="F1372" t="inlineStr"/>
+      <c r="G1372" t="inlineStr"/>
+      <c r="H1372" t="inlineStr"/>
+      <c r="I1372" t="inlineStr"/>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="inlineStr">
+        <is>
+          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+        </is>
+      </c>
+      <c r="B1373" t="inlineStr"/>
+      <c r="C1373" t="inlineStr"/>
+      <c r="D1373" t="inlineStr"/>
+      <c r="E1373" t="inlineStr"/>
+      <c r="F1373" t="inlineStr"/>
+      <c r="G1373" t="inlineStr"/>
+      <c r="H1373" t="inlineStr"/>
+      <c r="I1373" t="inlineStr"/>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 7234P5</t>
+        </is>
+      </c>
+      <c r="B1374" t="inlineStr"/>
+      <c r="C1374" t="inlineStr"/>
+      <c r="D1374" t="inlineStr"/>
+      <c r="E1374" t="inlineStr"/>
+      <c r="F1374" t="inlineStr"/>
+      <c r="G1374" t="inlineStr"/>
+      <c r="H1374" t="inlineStr"/>
+      <c r="I1374" t="inlineStr"/>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="inlineStr">
+        <is>
+          <t>Summarized description: Gothic Quarter is one of Barcelona's oldest districts. Explore the city's most emblematic squares and monuments. Enjoy an evening in a small wine cellar in the heart of the district.</t>
+        </is>
+      </c>
+      <c r="B1375" t="inlineStr"/>
+      <c r="C1375" t="inlineStr"/>
+      <c r="D1375" t="inlineStr"/>
+      <c r="E1375" t="inlineStr"/>
+      <c r="F1375" t="inlineStr"/>
+      <c r="G1375" t="inlineStr"/>
+      <c r="H1375" t="inlineStr"/>
+      <c r="I1375" t="inlineStr"/>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="inlineStr">
+        <is>
+          <t>Title: The Gothic Quarter and Wine Tasting Tour of Barcelona</t>
+        </is>
+      </c>
+      <c r="B1376" t="inlineStr"/>
+      <c r="C1376" t="inlineStr"/>
+      <c r="D1376" t="inlineStr"/>
+      <c r="E1376" t="inlineStr"/>
+      <c r="F1376" t="inlineStr"/>
+      <c r="G1376" t="inlineStr"/>
+      <c r="H1376" t="inlineStr"/>
+      <c r="I1376" t="inlineStr"/>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1377" t="inlineStr"/>
+      <c r="C1377" t="inlineStr"/>
+      <c r="D1377" t="inlineStr"/>
+      <c r="E1377" t="inlineStr"/>
+      <c r="F1377" t="inlineStr"/>
+      <c r="G1377" t="inlineStr"/>
+      <c r="H1377" t="inlineStr"/>
+      <c r="I1377" t="inlineStr"/>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1378" t="inlineStr"/>
+      <c r="C1378" t="inlineStr"/>
+      <c r="D1378" t="inlineStr"/>
+      <c r="E1378" t="inlineStr"/>
+      <c r="F1378" t="inlineStr"/>
+      <c r="G1378" t="inlineStr"/>
+      <c r="H1378" t="inlineStr"/>
+      <c r="I1378" t="inlineStr"/>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 23254P1</t>
+        </is>
+      </c>
+      <c r="B1379" t="inlineStr"/>
+      <c r="C1379" t="inlineStr"/>
+      <c r="D1379" t="inlineStr"/>
+      <c r="E1379" t="inlineStr"/>
+      <c r="F1379" t="inlineStr"/>
+      <c r="G1379" t="inlineStr"/>
+      <c r="H1379" t="inlineStr"/>
+      <c r="I1379" t="inlineStr"/>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="inlineStr">
+        <is>
+          <t>Summarized description: Barcelona is home to one of the most geographically interesting wines regions of the world. Explore this wine region by tasting some of the best local wines.</t>
+        </is>
+      </c>
+      <c r="B1380" t="inlineStr"/>
+      <c r="C1380" t="inlineStr"/>
+      <c r="D1380" t="inlineStr"/>
+      <c r="E1380" t="inlineStr"/>
+      <c r="F1380" t="inlineStr"/>
+      <c r="G1380" t="inlineStr"/>
+      <c r="H1380" t="inlineStr"/>
+      <c r="I1380" t="inlineStr"/>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="inlineStr">
+        <is>
+          <t>Title: Barcelona Guided Local Wine Tasting Tour</t>
+        </is>
+      </c>
+      <c r="B1381" t="inlineStr"/>
+      <c r="C1381" t="inlineStr"/>
+      <c r="D1381" t="inlineStr"/>
+      <c r="E1381" t="inlineStr"/>
+      <c r="F1381" t="inlineStr"/>
+      <c r="G1381" t="inlineStr"/>
+      <c r="H1381" t="inlineStr"/>
+      <c r="I1381" t="inlineStr"/>
+    </row>
+    <row r="1382">
+      <c r="A1382" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1382" t="inlineStr"/>
+      <c r="C1382" t="inlineStr"/>
+      <c r="D1382" t="inlineStr"/>
+      <c r="E1382" t="inlineStr"/>
+      <c r="F1382" t="inlineStr"/>
+      <c r="G1382" t="inlineStr"/>
+      <c r="H1382" t="inlineStr"/>
+      <c r="I1382" t="inlineStr"/>
+    </row>
+    <row r="1383">
+      <c r="A1383" t="inlineStr">
+        <is>
+          <t>Category: ['Wine and Beverage Tastings']</t>
+        </is>
+      </c>
+      <c r="B1383" t="inlineStr"/>
+      <c r="C1383" t="inlineStr"/>
+      <c r="D1383" t="inlineStr"/>
+      <c r="E1383" t="inlineStr"/>
+      <c r="F1383" t="inlineStr"/>
+      <c r="G1383" t="inlineStr"/>
+      <c r="H1383" t="inlineStr"/>
+      <c r="I1383" t="inlineStr"/>
+    </row>
+    <row r="1384">
+      <c r="A1384" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 247394P4</t>
+        </is>
+      </c>
+      <c r="B1384" t="inlineStr"/>
+      <c r="C1384" t="inlineStr"/>
+      <c r="D1384" t="inlineStr"/>
+      <c r="E1384" t="inlineStr"/>
+      <c r="F1384" t="inlineStr"/>
+      <c r="G1384" t="inlineStr"/>
+      <c r="H1384" t="inlineStr"/>
+      <c r="I1384" t="inlineStr"/>
+    </row>
+    <row r="1385">
+      <c r="A1385" t="inlineStr">
+        <is>
+          <t>Summarized description: The guide has perfect knowns about those shops, restaurants and place you should not miss. Also you will love to taste Spanish tapas and beer or wine in the best places in town.</t>
+        </is>
+      </c>
+      <c r="B1385" t="inlineStr"/>
+      <c r="C1385" t="inlineStr"/>
+      <c r="D1385" t="inlineStr"/>
+      <c r="E1385" t="inlineStr"/>
+      <c r="F1385" t="inlineStr"/>
+      <c r="G1385" t="inlineStr"/>
+      <c r="H1385" t="inlineStr"/>
+      <c r="I1385" t="inlineStr"/>
+    </row>
+    <row r="1386">
+      <c r="A1386" t="inlineStr">
+        <is>
+          <t>Title: Walking tour in Barcelona, with wine and tapas</t>
+        </is>
+      </c>
+      <c r="B1386" t="inlineStr"/>
+      <c r="C1386" t="inlineStr"/>
+      <c r="D1386" t="inlineStr"/>
+      <c r="E1386" t="inlineStr"/>
+      <c r="F1386" t="inlineStr"/>
+      <c r="G1386" t="inlineStr"/>
+      <c r="H1386" t="inlineStr"/>
+      <c r="I1386" t="inlineStr"/>
+    </row>
+    <row r="1387">
+      <c r="A1387" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1387" t="inlineStr"/>
+      <c r="C1387" t="inlineStr"/>
+      <c r="D1387" t="inlineStr"/>
+      <c r="E1387" t="inlineStr"/>
+      <c r="F1387" t="inlineStr"/>
+      <c r="G1387" t="inlineStr"/>
+      <c r="H1387" t="inlineStr"/>
+      <c r="I1387" t="inlineStr"/>
+    </row>
+    <row r="1388">
+      <c r="A1388" t="inlineStr">
+        <is>
+          <t>Category: ['Shopping and Fashion', 'Culinary Tours']</t>
+        </is>
+      </c>
+      <c r="B1388" t="inlineStr"/>
+      <c r="C1388" t="inlineStr"/>
+      <c r="D1388" t="inlineStr"/>
+      <c r="E1388" t="inlineStr"/>
+      <c r="F1388" t="inlineStr"/>
+      <c r="G1388" t="inlineStr"/>
+      <c r="H1388" t="inlineStr"/>
+      <c r="I1388" t="inlineStr"/>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 196771P2</t>
+        </is>
+      </c>
+      <c r="B1389" t="inlineStr"/>
+      <c r="C1389" t="inlineStr"/>
+      <c r="D1389" t="inlineStr"/>
+      <c r="E1389" t="inlineStr"/>
+      <c r="F1389" t="inlineStr"/>
+      <c r="G1389" t="inlineStr"/>
+      <c r="H1389" t="inlineStr"/>
+      <c r="I1389" t="inlineStr"/>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="inlineStr">
+        <is>
+          <t>Summarized description: The Tapas Tour takes you through Barcelona’s famous Gothic Quarter, in the Ciutat Vella (old city) Past Roman walls, alongside cathedrals, through precious plazas and, most importantly, in-and-out of small local restaurants.</t>
+        </is>
+      </c>
+      <c r="B1390" t="inlineStr"/>
+      <c r="C1390" t="inlineStr"/>
+      <c r="D1390" t="inlineStr"/>
+      <c r="E1390" t="inlineStr"/>
+      <c r="F1390" t="inlineStr"/>
+      <c r="G1390" t="inlineStr"/>
+      <c r="H1390" t="inlineStr"/>
+      <c r="I1390" t="inlineStr"/>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Title: Barcelona Special : 3 Hours Evening Tapas Tour </t>
+        </is>
+      </c>
+      <c r="B1391" t="inlineStr"/>
+      <c r="C1391" t="inlineStr"/>
+      <c r="D1391" t="inlineStr"/>
+      <c r="E1391" t="inlineStr"/>
+      <c r="F1391" t="inlineStr"/>
+      <c r="G1391" t="inlineStr"/>
+      <c r="H1391" t="inlineStr"/>
+      <c r="I1391" t="inlineStr"/>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1392" t="inlineStr"/>
+      <c r="C1392" t="inlineStr"/>
+      <c r="D1392" t="inlineStr"/>
+      <c r="E1392" t="inlineStr"/>
+      <c r="F1392" t="inlineStr"/>
+      <c r="G1392" t="inlineStr"/>
+      <c r="H1392" t="inlineStr"/>
+      <c r="I1392" t="inlineStr"/>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="inlineStr">
+        <is>
+          <t>Category: ['Culinary Tours', 'Historical Tours', 'Cultural Tours']</t>
+        </is>
+      </c>
+      <c r="B1393" t="inlineStr"/>
+      <c r="C1393" t="inlineStr"/>
+      <c r="D1393" t="inlineStr"/>
+      <c r="E1393" t="inlineStr"/>
+      <c r="F1393" t="inlineStr"/>
+      <c r="G1393" t="inlineStr"/>
+      <c r="H1393" t="inlineStr"/>
+      <c r="I1393" t="inlineStr"/>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 26613P2</t>
+        </is>
+      </c>
+      <c r="B1394" t="inlineStr"/>
+      <c r="C1394" t="inlineStr"/>
+      <c r="D1394" t="inlineStr"/>
+      <c r="E1394" t="inlineStr"/>
+      <c r="F1394" t="inlineStr"/>
+      <c r="G1394" t="inlineStr"/>
+      <c r="H1394" t="inlineStr"/>
+      <c r="I1394" t="inlineStr"/>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="inlineStr">
+        <is>
+          <t>Summarized description: Explore popular neighborhoods such as El Born and the Barceloneta area with a knowledgable local guide. Stop at 4 outstanding local tapas bars and learn the etiquette and art of ordering tapas.</t>
+        </is>
+      </c>
+      <c r="B1395" t="inlineStr"/>
+      <c r="C1395" t="inlineStr"/>
+      <c r="D1395" t="inlineStr"/>
+      <c r="E1395" t="inlineStr"/>
+      <c r="F1395" t="inlineStr"/>
+      <c r="G1395" t="inlineStr"/>
+      <c r="H1395" t="inlineStr"/>
+      <c r="I1395" t="inlineStr"/>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="inlineStr">
+        <is>
+          <t>Title: Private Barcelona Neighborhoods and Tapas Walking Tour</t>
+        </is>
+      </c>
+      <c r="B1396" t="inlineStr"/>
+      <c r="C1396" t="inlineStr"/>
+      <c r="D1396" t="inlineStr"/>
+      <c r="E1396" t="inlineStr"/>
+      <c r="F1396" t="inlineStr"/>
+      <c r="G1396" t="inlineStr"/>
+      <c r="H1396" t="inlineStr"/>
+      <c r="I1396" t="inlineStr"/>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1397" t="inlineStr"/>
+      <c r="C1397" t="inlineStr"/>
+      <c r="D1397" t="inlineStr"/>
+      <c r="E1397" t="inlineStr"/>
+      <c r="F1397" t="inlineStr"/>
+      <c r="G1397" t="inlineStr"/>
+      <c r="H1397" t="inlineStr"/>
+      <c r="I1397" t="inlineStr"/>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="inlineStr">
+        <is>
+          <t>Category: ['Culinary Tours']</t>
+        </is>
+      </c>
+      <c r="B1398" t="inlineStr"/>
+      <c r="C1398" t="inlineStr"/>
+      <c r="D1398" t="inlineStr"/>
+      <c r="E1398" t="inlineStr"/>
+      <c r="F1398" t="inlineStr"/>
+      <c r="G1398" t="inlineStr"/>
+      <c r="H1398" t="inlineStr"/>
+      <c r="I1398" t="inlineStr"/>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 16637P14</t>
+        </is>
+      </c>
+      <c r="B1399" t="inlineStr"/>
+      <c r="C1399" t="inlineStr"/>
+      <c r="D1399" t="inlineStr"/>
+      <c r="E1399" t="inlineStr"/>
+      <c r="F1399" t="inlineStr"/>
+      <c r="G1399" t="inlineStr"/>
+      <c r="H1399" t="inlineStr"/>
+      <c r="I1399" t="inlineStr"/>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="inlineStr">
+        <is>
+          <t>Summarized description: Walk through Barcelona's Wine Culture with a blindfolded wine tasting. Your guide will take you to 4 local wine stops, where you will receive a glass of wine at each... and maybe even more if you ask sweetly!</t>
+        </is>
+      </c>
+      <c r="B1400" t="inlineStr"/>
+      <c r="C1400" t="inlineStr"/>
+      <c r="D1400" t="inlineStr"/>
+      <c r="E1400" t="inlineStr"/>
+      <c r="F1400" t="inlineStr"/>
+      <c r="G1400" t="inlineStr"/>
+      <c r="H1400" t="inlineStr"/>
+      <c r="I1400" t="inlineStr"/>
+    </row>
+    <row r="1401">
+      <c r="A1401" t="inlineStr">
+        <is>
+          <t>Title: Wine Tasting Walking Tour in Barcelona</t>
+        </is>
+      </c>
+      <c r="B1401" t="inlineStr"/>
+      <c r="C1401" t="inlineStr"/>
+      <c r="D1401" t="inlineStr"/>
+      <c r="E1401" t="inlineStr"/>
+      <c r="F1401" t="inlineStr"/>
+      <c r="G1401" t="inlineStr"/>
+      <c r="H1401" t="inlineStr"/>
+      <c r="I1401" t="inlineStr"/>
+    </row>
+    <row r="1402">
+      <c r="A1402" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1402" t="inlineStr"/>
+      <c r="C1402" t="inlineStr"/>
+      <c r="D1402" t="inlineStr"/>
+      <c r="E1402" t="inlineStr"/>
+      <c r="F1402" t="inlineStr"/>
+      <c r="G1402" t="inlineStr"/>
+      <c r="H1402" t="inlineStr"/>
+      <c r="I1402" t="inlineStr"/>
+    </row>
+    <row r="1403">
+      <c r="A1403" t="inlineStr">
+        <is>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+        </is>
+      </c>
+      <c r="B1403" t="inlineStr"/>
+      <c r="C1403" t="inlineStr"/>
+      <c r="D1403" t="inlineStr"/>
+      <c r="E1403" t="inlineStr"/>
+      <c r="F1403" t="inlineStr"/>
+      <c r="G1403" t="inlineStr"/>
+      <c r="H1403" t="inlineStr"/>
+      <c r="I1403" t="inlineStr"/>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 9866P113</t>
+        </is>
+      </c>
+      <c r="B1404" t="inlineStr"/>
+      <c r="C1404" t="inlineStr"/>
+      <c r="D1404" t="inlineStr"/>
+      <c r="E1404" t="inlineStr"/>
+      <c r="F1404" t="inlineStr"/>
+      <c r="G1404" t="inlineStr"/>
+      <c r="H1404" t="inlineStr"/>
+      <c r="I1404" t="inlineStr"/>
+    </row>
+    <row r="1405">
+      <c r="A1405" t="inlineStr">
+        <is>
+          <t>Summarized description: Discover the hidden gems of Barcelona on our beer tasting walking tour. Enjoy a pleasant walking tour in a small group tour that allows personalized attention. Know and situate the iconic neighborhood of Sant Antoni and Old Town.</t>
+        </is>
+      </c>
+      <c r="B1405" t="inlineStr"/>
+      <c r="C1405" t="inlineStr"/>
+      <c r="D1405" t="inlineStr"/>
+      <c r="E1405" t="inlineStr"/>
+      <c r="F1405" t="inlineStr"/>
+      <c r="G1405" t="inlineStr"/>
+      <c r="H1405" t="inlineStr"/>
+      <c r="I1405" t="inlineStr"/>
+    </row>
+    <row r="1406">
+      <c r="A1406" t="inlineStr">
+        <is>
+          <t>Title: Beer Tasting with Best of Barcelona Small Group Tour</t>
+        </is>
+      </c>
+      <c r="B1406" t="inlineStr"/>
+      <c r="C1406" t="inlineStr"/>
+      <c r="D1406" t="inlineStr"/>
+      <c r="E1406" t="inlineStr"/>
+      <c r="F1406" t="inlineStr"/>
+      <c r="G1406" t="inlineStr"/>
+      <c r="H1406" t="inlineStr"/>
+      <c r="I1406" t="inlineStr"/>
+    </row>
+    <row r="1407">
+      <c r="A1407" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1407" t="inlineStr"/>
+      <c r="C1407" t="inlineStr"/>
+      <c r="D1407" t="inlineStr"/>
+      <c r="E1407" t="inlineStr"/>
+      <c r="F1407" t="inlineStr"/>
+      <c r="G1407" t="inlineStr"/>
+      <c r="H1407" t="inlineStr"/>
+      <c r="I1407" t="inlineStr"/>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="inlineStr">
+        <is>
+          <t>Category: ['Culinary Tours']</t>
+        </is>
+      </c>
+      <c r="B1408" t="inlineStr"/>
+      <c r="C1408" t="inlineStr"/>
+      <c r="D1408" t="inlineStr"/>
+      <c r="E1408" t="inlineStr"/>
+      <c r="F1408" t="inlineStr"/>
+      <c r="G1408" t="inlineStr"/>
+      <c r="H1408" t="inlineStr"/>
+      <c r="I1408" t="inlineStr"/>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 26613P6</t>
+        </is>
+      </c>
+      <c r="B1409" t="inlineStr"/>
+      <c r="C1409" t="inlineStr"/>
+      <c r="D1409" t="inlineStr"/>
+      <c r="E1409" t="inlineStr"/>
+      <c r="F1409" t="inlineStr"/>
+      <c r="G1409" t="inlineStr"/>
+      <c r="H1409" t="inlineStr"/>
+      <c r="I1409" t="inlineStr"/>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="inlineStr">
+        <is>
+          <t>Summarized description: Discover Barcelona on this interesting 3-hour walking tour. Try delicious trendy food made by young innovative chefs while sipping down locally produced craft beers. Learn about more than 2,000 years of the history of Barcelona while strolling around 2 of the most distinctive neighborhoods.</t>
+        </is>
+      </c>
+      <c r="B1410" t="inlineStr"/>
+      <c r="C1410" t="inlineStr"/>
+      <c r="D1410" t="inlineStr"/>
+      <c r="E1410" t="inlineStr"/>
+      <c r="F1410" t="inlineStr"/>
+      <c r="G1410" t="inlineStr"/>
+      <c r="H1410" t="inlineStr"/>
+      <c r="I1410" t="inlineStr"/>
+    </row>
+    <row r="1411">
+      <c r="A1411" t="inlineStr">
+        <is>
+          <t>Title: Barcelona Street Food and Craft Beer Walking Tour</t>
+        </is>
+      </c>
+      <c r="B1411" t="inlineStr"/>
+      <c r="C1411" t="inlineStr"/>
+      <c r="D1411" t="inlineStr"/>
+      <c r="E1411" t="inlineStr"/>
+      <c r="F1411" t="inlineStr"/>
+      <c r="G1411" t="inlineStr"/>
+      <c r="H1411" t="inlineStr"/>
+      <c r="I1411" t="inlineStr"/>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1412" t="inlineStr"/>
+      <c r="C1412" t="inlineStr"/>
+      <c r="D1412" t="inlineStr"/>
+      <c r="E1412" t="inlineStr"/>
+      <c r="F1412" t="inlineStr"/>
+      <c r="G1412" t="inlineStr"/>
+      <c r="H1412" t="inlineStr"/>
+      <c r="I1412" t="inlineStr"/>
+    </row>
+    <row r="1413">
+      <c r="A1413" t="inlineStr">
+        <is>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1413" t="inlineStr"/>
+      <c r="C1413" t="inlineStr"/>
+      <c r="D1413" t="inlineStr"/>
+      <c r="E1413" t="inlineStr"/>
+      <c r="F1413" t="inlineStr"/>
+      <c r="G1413" t="inlineStr"/>
+      <c r="H1413" t="inlineStr"/>
+      <c r="I1413" t="inlineStr"/>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 20455P296</t>
+        </is>
+      </c>
+      <c r="B1414" t="inlineStr"/>
+      <c r="C1414" t="inlineStr"/>
+      <c r="D1414" t="inlineStr"/>
+      <c r="E1414" t="inlineStr"/>
+      <c r="F1414" t="inlineStr"/>
+      <c r="G1414" t="inlineStr"/>
+      <c r="H1414" t="inlineStr"/>
+      <c r="I1414" t="inlineStr"/>
+    </row>
+    <row r="1415">
+      <c r="A1415" t="inlineStr">
+        <is>
+          <t>Summarized description: Explore the Old City of Barcelona on this 3 hour tour. You’ll see iconic landmarks such as the Gothic Quarter and Las Ramblas. Discover more about the rich history of this vibrant city.</t>
+        </is>
+      </c>
+      <c r="B1415" t="inlineStr"/>
+      <c r="C1415" t="inlineStr"/>
+      <c r="D1415" t="inlineStr"/>
+      <c r="E1415" t="inlineStr"/>
+      <c r="F1415" t="inlineStr"/>
+      <c r="G1415" t="inlineStr"/>
+      <c r="H1415" t="inlineStr"/>
+      <c r="I1415" t="inlineStr"/>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="inlineStr">
+        <is>
+          <t>Title: Barcelona Old City Walking Tour and Churros Stop with a Local Guide</t>
+        </is>
+      </c>
+      <c r="B1416" t="inlineStr"/>
+      <c r="C1416" t="inlineStr"/>
+      <c r="D1416" t="inlineStr"/>
+      <c r="E1416" t="inlineStr"/>
+      <c r="F1416" t="inlineStr"/>
+      <c r="G1416" t="inlineStr"/>
+      <c r="H1416" t="inlineStr"/>
+      <c r="I1416" t="inlineStr"/>
+    </row>
+    <row r="1417">
+      <c r="A1417" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1417" t="inlineStr"/>
+      <c r="C1417" t="inlineStr"/>
+      <c r="D1417" t="inlineStr"/>
+      <c r="E1417" t="inlineStr"/>
+      <c r="F1417" t="inlineStr"/>
+      <c r="G1417" t="inlineStr"/>
+      <c r="H1417" t="inlineStr"/>
+      <c r="I1417" t="inlineStr"/>
+    </row>
+    <row r="1418">
+      <c r="A1418" t="inlineStr">
+        <is>
+          <t>Category: ['Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1418" t="inlineStr"/>
+      <c r="C1418" t="inlineStr"/>
+      <c r="D1418" t="inlineStr"/>
+      <c r="E1418" t="inlineStr"/>
+      <c r="F1418" t="inlineStr"/>
+      <c r="G1418" t="inlineStr"/>
+      <c r="H1418" t="inlineStr"/>
+      <c r="I1418" t="inlineStr"/>
+    </row>
+    <row r="1419">
+      <c r="A1419" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 25160P19</t>
+        </is>
+      </c>
+      <c r="B1419" t="inlineStr"/>
+      <c r="C1419" t="inlineStr"/>
+      <c r="D1419" t="inlineStr"/>
+      <c r="E1419" t="inlineStr"/>
+      <c r="F1419" t="inlineStr"/>
+      <c r="G1419" t="inlineStr"/>
+      <c r="H1419" t="inlineStr"/>
+      <c r="I1419" t="inlineStr"/>
+    </row>
+    <row r="1420">
+      <c r="A1420" t="inlineStr">
+        <is>
+          <t>Summarized description: 3,5-hour guided tour: Montjuïc with Olympic Games, El Born neighbourhood, Port Vell, Barceloneta. 2 tasting stops with fresh ﬁsh in front of the sea and exquisite chocolate cake with cava.</t>
+        </is>
+      </c>
+      <c r="B1420" t="inlineStr"/>
+      <c r="C1420" t="inlineStr"/>
+      <c r="D1420" t="inlineStr"/>
+      <c r="E1420" t="inlineStr"/>
+      <c r="F1420" t="inlineStr"/>
+      <c r="G1420" t="inlineStr"/>
+      <c r="H1420" t="inlineStr"/>
+      <c r="I1420" t="inlineStr"/>
+    </row>
+    <row r="1421">
+      <c r="A1421" t="inlineStr">
+        <is>
+          <t>Title: Barcelona Tapas Tour on Wheels</t>
+        </is>
+      </c>
+      <c r="B1421" t="inlineStr"/>
+      <c r="C1421" t="inlineStr"/>
+      <c r="D1421" t="inlineStr"/>
+      <c r="E1421" t="inlineStr"/>
+      <c r="F1421" t="inlineStr"/>
+      <c r="G1421" t="inlineStr"/>
+      <c r="H1421" t="inlineStr"/>
+      <c r="I1421" t="inlineStr"/>
+    </row>
+    <row r="1422">
+      <c r="A1422" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1422" t="inlineStr"/>
+      <c r="C1422" t="inlineStr"/>
+      <c r="D1422" t="inlineStr"/>
+      <c r="E1422" t="inlineStr"/>
+      <c r="F1422" t="inlineStr"/>
+      <c r="G1422" t="inlineStr"/>
+      <c r="H1422" t="inlineStr"/>
+      <c r="I1422" t="inlineStr"/>
+    </row>
+    <row r="1423">
+      <c r="A1423" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Culinary Tours', 'Cultural Tours']</t>
+        </is>
+      </c>
+      <c r="B1423" t="inlineStr"/>
+      <c r="C1423" t="inlineStr"/>
+      <c r="D1423" t="inlineStr"/>
+      <c r="E1423" t="inlineStr"/>
+      <c r="F1423" t="inlineStr"/>
+      <c r="G1423" t="inlineStr"/>
+      <c r="H1423" t="inlineStr"/>
+      <c r="I1423" t="inlineStr"/>
+    </row>
+    <row r="1424">
+      <c r="A1424" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 7728P8</t>
+        </is>
+      </c>
+      <c r="B1424" t="inlineStr"/>
+      <c r="C1424" t="inlineStr"/>
+      <c r="D1424" t="inlineStr"/>
+      <c r="E1424" t="inlineStr"/>
+      <c r="F1424" t="inlineStr"/>
+      <c r="G1424" t="inlineStr"/>
+      <c r="H1424" t="inlineStr"/>
+      <c r="I1424" t="inlineStr"/>
+    </row>
+    <row r="1425">
+      <c r="A1425" t="inlineStr">
+        <is>
+          <t>Summarized description: Catalan Vermouth and tapas tour. Enjoy a tasting of Catalan Vermouth with tapas in a hidden and authentic café. On the way, you will walking Paseo de Gracia for an overview of Catalan Modern Art.</t>
+        </is>
+      </c>
+      <c r="B1425" t="inlineStr"/>
+      <c r="C1425" t="inlineStr"/>
+      <c r="D1425" t="inlineStr"/>
+      <c r="E1425" t="inlineStr"/>
+      <c r="F1425" t="inlineStr"/>
+      <c r="G1425" t="inlineStr"/>
+      <c r="H1425" t="inlineStr"/>
+      <c r="I1425" t="inlineStr"/>
+    </row>
+    <row r="1426">
+      <c r="A1426" t="inlineStr">
+        <is>
+          <t>Title: Gothic and Bohemian Tapas Walking and E-biking tour in Barcelona</t>
+        </is>
+      </c>
+      <c r="B1426" t="inlineStr"/>
+      <c r="C1426" t="inlineStr"/>
+      <c r="D1426" t="inlineStr"/>
+      <c r="E1426" t="inlineStr"/>
+      <c r="F1426" t="inlineStr"/>
+      <c r="G1426" t="inlineStr"/>
+      <c r="H1426" t="inlineStr"/>
+      <c r="I1426" t="inlineStr"/>
+    </row>
+    <row r="1427">
+      <c r="A1427" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1427" t="inlineStr"/>
+      <c r="C1427" t="inlineStr"/>
+      <c r="D1427" t="inlineStr"/>
+      <c r="E1427" t="inlineStr"/>
+      <c r="F1427" t="inlineStr"/>
+      <c r="G1427" t="inlineStr"/>
+      <c r="H1427" t="inlineStr"/>
+      <c r="I1427" t="inlineStr"/>
+    </row>
+    <row r="1428">
+      <c r="A1428" t="inlineStr">
+        <is>
+          <t>Category: ['Dining Experiences', 'Culinary Tours', 'Cultural Tours']</t>
+        </is>
+      </c>
+      <c r="B1428" t="inlineStr"/>
+      <c r="C1428" t="inlineStr"/>
+      <c r="D1428" t="inlineStr"/>
+      <c r="E1428" t="inlineStr"/>
+      <c r="F1428" t="inlineStr"/>
+      <c r="G1428" t="inlineStr"/>
+      <c r="H1428" t="inlineStr"/>
+      <c r="I1428" t="inlineStr"/>
+    </row>
+    <row r="1429">
+      <c r="A1429" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 3394P50</t>
+        </is>
+      </c>
+      <c r="B1429" t="inlineStr"/>
+      <c r="C1429" t="inlineStr"/>
+      <c r="D1429" t="inlineStr"/>
+      <c r="E1429" t="inlineStr"/>
+      <c r="F1429" t="inlineStr"/>
+      <c r="G1429" t="inlineStr"/>
+      <c r="H1429" t="inlineStr"/>
+      <c r="I1429" t="inlineStr"/>
+    </row>
+    <row r="1430">
+      <c r="A1430" t="inlineStr">
+        <is>
+          <t>Summarized description: Taste five Catalan beers chosen by your local brewer expert with cured meats and Traditional Catalan flat breaf. Learn about our fascinating local Beers and meet Craft Beer lovers from over the world.</t>
+        </is>
+      </c>
+      <c r="B1430" t="inlineStr"/>
+      <c r="C1430" t="inlineStr"/>
+      <c r="D1430" t="inlineStr"/>
+      <c r="E1430" t="inlineStr"/>
+      <c r="F1430" t="inlineStr"/>
+      <c r="G1430" t="inlineStr"/>
+      <c r="H1430" t="inlineStr"/>
+      <c r="I1430" t="inlineStr"/>
+    </row>
+    <row r="1431">
+      <c r="A1431" t="inlineStr">
+        <is>
+          <t>Title: Barcelona Craft Beer Tasting with tapas</t>
+        </is>
+      </c>
+      <c r="B1431" t="inlineStr"/>
+      <c r="C1431" t="inlineStr"/>
+      <c r="D1431" t="inlineStr"/>
+      <c r="E1431" t="inlineStr"/>
+      <c r="F1431" t="inlineStr"/>
+      <c r="G1431" t="inlineStr"/>
+      <c r="H1431" t="inlineStr"/>
+      <c r="I1431" t="inlineStr"/>
+    </row>
+    <row r="1432">
+      <c r="A1432" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1432" t="inlineStr"/>
+      <c r="C1432" t="inlineStr"/>
+      <c r="D1432" t="inlineStr"/>
+      <c r="E1432" t="inlineStr"/>
+      <c r="F1432" t="inlineStr"/>
+      <c r="G1432" t="inlineStr"/>
+      <c r="H1432" t="inlineStr"/>
+      <c r="I1432" t="inlineStr"/>
+    </row>
+    <row r="1433">
+      <c r="A1433" t="inlineStr">
+        <is>
+          <t>Category: ['Dining Experiences', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
+        </is>
+      </c>
+      <c r="B1433" t="inlineStr"/>
+      <c r="C1433" t="inlineStr"/>
+      <c r="D1433" t="inlineStr"/>
+      <c r="E1433" t="inlineStr"/>
+      <c r="F1433" t="inlineStr"/>
+      <c r="G1433" t="inlineStr"/>
+      <c r="H1433" t="inlineStr"/>
+      <c r="I1433" t="inlineStr"/>
+    </row>
+    <row r="1434">
+      <c r="A1434" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 85145P8</t>
+        </is>
+      </c>
+      <c r="B1434" t="inlineStr"/>
+      <c r="C1434" t="inlineStr"/>
+      <c r="D1434" t="inlineStr"/>
+      <c r="E1434" t="inlineStr"/>
+      <c r="F1434" t="inlineStr"/>
+      <c r="G1434" t="inlineStr"/>
+      <c r="H1434" t="inlineStr"/>
+      <c r="I1434" t="inlineStr"/>
+    </row>
+    <row r="1435">
+      <c r="A1435" t="inlineStr">
+        <is>
+          <t>Summarized description: Join us at our wine experience at a local Catalan wine tasting cellar in Barcelona. Where you will enjoy a various category of Catalan wines with some delicious tapas!</t>
+        </is>
+      </c>
+      <c r="B1435" t="inlineStr"/>
+      <c r="C1435" t="inlineStr"/>
+      <c r="D1435" t="inlineStr"/>
+      <c r="E1435" t="inlineStr"/>
+      <c r="F1435" t="inlineStr"/>
+      <c r="G1435" t="inlineStr"/>
+      <c r="H1435" t="inlineStr"/>
+      <c r="I1435" t="inlineStr"/>
+    </row>
+    <row r="1436">
+      <c r="A1436" t="inlineStr">
+        <is>
+          <t>Title: Wine tasting &amp; tapas</t>
+        </is>
+      </c>
+      <c r="B1436" t="inlineStr"/>
+      <c r="C1436" t="inlineStr"/>
+      <c r="D1436" t="inlineStr"/>
+      <c r="E1436" t="inlineStr"/>
+      <c r="F1436" t="inlineStr"/>
+      <c r="G1436" t="inlineStr"/>
+      <c r="H1436" t="inlineStr"/>
+      <c r="I1436" t="inlineStr"/>
+    </row>
+    <row r="1437">
+      <c r="A1437" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1437" t="inlineStr"/>
+      <c r="C1437" t="inlineStr"/>
+      <c r="D1437" t="inlineStr"/>
+      <c r="E1437" t="inlineStr"/>
+      <c r="F1437" t="inlineStr"/>
+      <c r="G1437" t="inlineStr"/>
+      <c r="H1437" t="inlineStr"/>
+      <c r="I1437" t="inlineStr"/>
+    </row>
+    <row r="1438">
+      <c r="A1438" t="inlineStr">
+        <is>
+          <t>Category: ['Wine and Beverage Tastings']</t>
+        </is>
+      </c>
+      <c r="B1438" t="inlineStr"/>
+      <c r="C1438" t="inlineStr"/>
+      <c r="D1438" t="inlineStr"/>
+      <c r="E1438" t="inlineStr"/>
+      <c r="F1438" t="inlineStr"/>
+      <c r="G1438" t="inlineStr"/>
+      <c r="H1438" t="inlineStr"/>
+      <c r="I1438" t="inlineStr"/>
+    </row>
+    <row r="1439">
+      <c r="A1439" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 22314P5</t>
+        </is>
+      </c>
+      <c r="B1439" t="inlineStr"/>
+      <c r="C1439" t="inlineStr"/>
+      <c r="D1439" t="inlineStr"/>
+      <c r="E1439" t="inlineStr"/>
+      <c r="F1439" t="inlineStr"/>
+      <c r="G1439" t="inlineStr"/>
+      <c r="H1439" t="inlineStr"/>
+      <c r="I1439" t="inlineStr"/>
+    </row>
+    <row r="1440">
+      <c r="A1440" t="inlineStr">
+        <is>
+          <t>Summarized description: Segway Tour explores Barcelona's gastronomic culture and way of life. Visit the popular Barceloneta and places to enjoy the famous traditional tapas.</t>
+        </is>
+      </c>
+      <c r="B1440" t="inlineStr"/>
+      <c r="C1440" t="inlineStr"/>
+      <c r="D1440" t="inlineStr"/>
+      <c r="E1440" t="inlineStr"/>
+      <c r="F1440" t="inlineStr"/>
+      <c r="G1440" t="inlineStr"/>
+      <c r="H1440" t="inlineStr"/>
+      <c r="I1440" t="inlineStr"/>
+    </row>
+    <row r="1441">
+      <c r="A1441" t="inlineStr">
+        <is>
+          <t>Title: Barcelona on a Segway: Guided Tapas Tour</t>
+        </is>
+      </c>
+      <c r="B1441" t="inlineStr"/>
+      <c r="C1441" t="inlineStr"/>
+      <c r="D1441" t="inlineStr"/>
+      <c r="E1441" t="inlineStr"/>
+      <c r="F1441" t="inlineStr"/>
+      <c r="G1441" t="inlineStr"/>
+      <c r="H1441" t="inlineStr"/>
+      <c r="I1441" t="inlineStr"/>
+    </row>
+    <row r="1442">
+      <c r="A1442" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1442" t="inlineStr"/>
+      <c r="C1442" t="inlineStr"/>
+      <c r="D1442" t="inlineStr"/>
+      <c r="E1442" t="inlineStr"/>
+      <c r="F1442" t="inlineStr"/>
+      <c r="G1442" t="inlineStr"/>
+      <c r="H1442" t="inlineStr"/>
+      <c r="I1442" t="inlineStr"/>
+    </row>
+    <row r="1443">
+      <c r="A1443" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
+        </is>
+      </c>
+      <c r="B1443" t="inlineStr"/>
+      <c r="C1443" t="inlineStr"/>
+      <c r="D1443" t="inlineStr"/>
+      <c r="E1443" t="inlineStr"/>
+      <c r="F1443" t="inlineStr"/>
+      <c r="G1443" t="inlineStr"/>
+      <c r="H1443" t="inlineStr"/>
+      <c r="I1443" t="inlineStr"/>
+    </row>
+    <row r="1444">
+      <c r="A1444" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 110975P18</t>
+        </is>
+      </c>
+      <c r="B1444" t="inlineStr"/>
+      <c r="C1444" t="inlineStr"/>
+      <c r="D1444" t="inlineStr"/>
+      <c r="E1444" t="inlineStr"/>
+      <c r="F1444" t="inlineStr"/>
+      <c r="G1444" t="inlineStr"/>
+      <c r="H1444" t="inlineStr"/>
+      <c r="I1444" t="inlineStr"/>
+    </row>
+    <row r="1445">
+      <c r="A1445" t="inlineStr">
+        <is>
+          <t>Summarized description: Book now this amazing tour with a private guide, just for you. Walk throught the medieval quarters. Discover the hidden highlights of Barcelona. Listen incredible stories from your local guide.</t>
+        </is>
+      </c>
+      <c r="B1445" t="inlineStr"/>
+      <c r="C1445" t="inlineStr"/>
+      <c r="D1445" t="inlineStr"/>
+      <c r="E1445" t="inlineStr"/>
+      <c r="F1445" t="inlineStr"/>
+      <c r="G1445" t="inlineStr"/>
+      <c r="H1445" t="inlineStr"/>
+      <c r="I1445" t="inlineStr"/>
+    </row>
+    <row r="1446">
+      <c r="A1446" t="inlineStr">
+        <is>
+          <t>Title: Barcelona Highlights and Secrets! PRIVATE Tour with a tapa &amp; drink- Group Opt</t>
+        </is>
+      </c>
+      <c r="B1446" t="inlineStr"/>
+      <c r="C1446" t="inlineStr"/>
+      <c r="D1446" t="inlineStr"/>
+      <c r="E1446" t="inlineStr"/>
+      <c r="F1446" t="inlineStr"/>
+      <c r="G1446" t="inlineStr"/>
+      <c r="H1446" t="inlineStr"/>
+      <c r="I1446" t="inlineStr"/>
+    </row>
+    <row r="1447">
+      <c r="A1447" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1447" t="inlineStr"/>
+      <c r="C1447" t="inlineStr"/>
+      <c r="D1447" t="inlineStr"/>
+      <c r="E1447" t="inlineStr"/>
+      <c r="F1447" t="inlineStr"/>
+      <c r="G1447" t="inlineStr"/>
+      <c r="H1447" t="inlineStr"/>
+      <c r="I1447" t="inlineStr"/>
+    </row>
+    <row r="1448">
+      <c r="A1448" t="inlineStr">
+        <is>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1448" t="inlineStr"/>
+      <c r="C1448" t="inlineStr"/>
+      <c r="D1448" t="inlineStr"/>
+      <c r="E1448" t="inlineStr"/>
+      <c r="F1448" t="inlineStr"/>
+      <c r="G1448" t="inlineStr"/>
+      <c r="H1448" t="inlineStr"/>
+      <c r="I1448" t="inlineStr"/>
+    </row>
+    <row r="1449">
+      <c r="A1449" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 22314P6</t>
+        </is>
+      </c>
+      <c r="B1449" t="inlineStr"/>
+      <c r="C1449" t="inlineStr"/>
+      <c r="D1449" t="inlineStr"/>
+      <c r="E1449" t="inlineStr"/>
+      <c r="F1449" t="inlineStr"/>
+      <c r="G1449" t="inlineStr"/>
+      <c r="H1449" t="inlineStr"/>
+      <c r="I1449" t="inlineStr"/>
+    </row>
+    <row r="1450">
+      <c r="A1450" t="inlineStr">
+        <is>
+          <t>Summarized description: Discover Barcelona and its gastronomic culture and way of life in a unique Bike Tour. You will visit the popular Barceloneta and places to enjoy the famous traditional tapas.</t>
+        </is>
+      </c>
+      <c r="B1450" t="inlineStr"/>
+      <c r="C1450" t="inlineStr"/>
+      <c r="D1450" t="inlineStr"/>
+      <c r="E1450" t="inlineStr"/>
+      <c r="F1450" t="inlineStr"/>
+      <c r="G1450" t="inlineStr"/>
+      <c r="H1450" t="inlineStr"/>
+      <c r="I1450" t="inlineStr"/>
+    </row>
+    <row r="1451">
+      <c r="A1451" t="inlineStr">
+        <is>
+          <t>Title: Barcelona Bike and Tapas Tour</t>
+        </is>
+      </c>
+      <c r="B1451" t="inlineStr"/>
+      <c r="C1451" t="inlineStr"/>
+      <c r="D1451" t="inlineStr"/>
+      <c r="E1451" t="inlineStr"/>
+      <c r="F1451" t="inlineStr"/>
+      <c r="G1451" t="inlineStr"/>
+      <c r="H1451" t="inlineStr"/>
+      <c r="I1451" t="inlineStr"/>
+    </row>
+    <row r="1452">
+      <c r="A1452" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1452" t="inlineStr"/>
+      <c r="C1452" t="inlineStr"/>
+      <c r="D1452" t="inlineStr"/>
+      <c r="E1452" t="inlineStr"/>
+      <c r="F1452" t="inlineStr"/>
+      <c r="G1452" t="inlineStr"/>
+      <c r="H1452" t="inlineStr"/>
+      <c r="I1452" t="inlineStr"/>
+    </row>
+    <row r="1453">
+      <c r="A1453" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Culinary Tours', 'Cultural Tours']</t>
+        </is>
+      </c>
+      <c r="B1453" t="inlineStr"/>
+      <c r="C1453" t="inlineStr"/>
+      <c r="D1453" t="inlineStr"/>
+      <c r="E1453" t="inlineStr"/>
+      <c r="F1453" t="inlineStr"/>
+      <c r="G1453" t="inlineStr"/>
+      <c r="H1453" t="inlineStr"/>
+      <c r="I1453" t="inlineStr"/>
+    </row>
+    <row r="1454">
+      <c r="A1454" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 107187P1</t>
+        </is>
+      </c>
+      <c r="B1454" t="inlineStr"/>
+      <c r="C1454" t="inlineStr"/>
+      <c r="D1454" t="inlineStr"/>
+      <c r="E1454" t="inlineStr"/>
+      <c r="F1454" t="inlineStr"/>
+      <c r="G1454" t="inlineStr"/>
+      <c r="H1454" t="inlineStr"/>
+      <c r="I1454" t="inlineStr"/>
+    </row>
+    <row r="1455">
+      <c r="A1455" t="inlineStr">
+        <is>
+          <t>Summarized description: We take a walk across 3 districts of the city center, each one with its own personality. We stop to taste tapas and the most popular crafted beer of Barcelona directly from its own modern Micro Brewery Lab. Take a walk back in time through the Gothic past of Barcelona and get to those times when the Romans founded the city.</t>
+        </is>
+      </c>
+      <c r="B1455" t="inlineStr"/>
+      <c r="C1455" t="inlineStr"/>
+      <c r="D1455" t="inlineStr"/>
+      <c r="E1455" t="inlineStr"/>
+      <c r="F1455" t="inlineStr"/>
+      <c r="G1455" t="inlineStr"/>
+      <c r="H1455" t="inlineStr"/>
+      <c r="I1455" t="inlineStr"/>
+    </row>
+    <row r="1456">
+      <c r="A1456" t="inlineStr">
+        <is>
+          <t>Title: The Taste of Barcelona Cultural and Foodie Tour</t>
+        </is>
+      </c>
+      <c r="B1456" t="inlineStr"/>
+      <c r="C1456" t="inlineStr"/>
+      <c r="D1456" t="inlineStr"/>
+      <c r="E1456" t="inlineStr"/>
+      <c r="F1456" t="inlineStr"/>
+      <c r="G1456" t="inlineStr"/>
+      <c r="H1456" t="inlineStr"/>
+      <c r="I1456" t="inlineStr"/>
+    </row>
+    <row r="1457">
+      <c r="A1457" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1457" t="inlineStr"/>
+      <c r="C1457" t="inlineStr"/>
+      <c r="D1457" t="inlineStr"/>
+      <c r="E1457" t="inlineStr"/>
+      <c r="F1457" t="inlineStr"/>
+      <c r="G1457" t="inlineStr"/>
+      <c r="H1457" t="inlineStr"/>
+      <c r="I1457" t="inlineStr"/>
+    </row>
+    <row r="1458">
+      <c r="A1458" t="inlineStr">
+        <is>
+          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1458" t="inlineStr"/>
+      <c r="C1458" t="inlineStr"/>
+      <c r="D1458" t="inlineStr"/>
+      <c r="E1458" t="inlineStr"/>
+      <c r="F1458" t="inlineStr"/>
+      <c r="G1458" t="inlineStr"/>
+      <c r="H1458" t="inlineStr"/>
+      <c r="I1458" t="inlineStr"/>
+    </row>
+    <row r="1459">
+      <c r="A1459" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 21175P31</t>
+        </is>
+      </c>
+      <c r="B1459" t="inlineStr"/>
+      <c r="C1459" t="inlineStr"/>
+      <c r="D1459" t="inlineStr"/>
+      <c r="E1459" t="inlineStr"/>
+      <c r="F1459" t="inlineStr"/>
+      <c r="G1459" t="inlineStr"/>
+      <c r="H1459" t="inlineStr"/>
+      <c r="I1459" t="inlineStr"/>
+    </row>
+    <row r="1460">
+      <c r="A1460" t="inlineStr">
+        <is>
+          <t>Summarized description: 3-hour private culinary tour of Barcelona. Three tapas bars in Gothic Quarter and El Born neighbourhoods. Try out traditional Catalonian recipes as well as favorites from other regions.</t>
+        </is>
+      </c>
+      <c r="B1460" t="inlineStr"/>
+      <c r="C1460" t="inlineStr"/>
+      <c r="D1460" t="inlineStr"/>
+      <c r="E1460" t="inlineStr"/>
+      <c r="F1460" t="inlineStr"/>
+      <c r="G1460" t="inlineStr"/>
+      <c r="H1460" t="inlineStr"/>
+      <c r="I1460" t="inlineStr"/>
+    </row>
+    <row r="1461">
+      <c r="A1461" t="inlineStr">
+        <is>
+          <t>Title: Private Guided Tapas Tour of Barcelona</t>
+        </is>
+      </c>
+      <c r="B1461" t="inlineStr"/>
+      <c r="C1461" t="inlineStr"/>
+      <c r="D1461" t="inlineStr"/>
+      <c r="E1461" t="inlineStr"/>
+      <c r="F1461" t="inlineStr"/>
+      <c r="G1461" t="inlineStr"/>
+      <c r="H1461" t="inlineStr"/>
+      <c r="I1461" t="inlineStr"/>
+    </row>
+    <row r="1462">
+      <c r="A1462" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1462" t="inlineStr"/>
+      <c r="C1462" t="inlineStr"/>
+      <c r="D1462" t="inlineStr"/>
+      <c r="E1462" t="inlineStr"/>
+      <c r="F1462" t="inlineStr"/>
+      <c r="G1462" t="inlineStr"/>
+      <c r="H1462" t="inlineStr"/>
+      <c r="I1462" t="inlineStr"/>
+    </row>
+    <row r="1463">
+      <c r="A1463" t="inlineStr">
+        <is>
+          <t>Category: ['Culinary Tours']</t>
+        </is>
+      </c>
+      <c r="B1463" t="inlineStr"/>
+      <c r="C1463" t="inlineStr"/>
+      <c r="D1463" t="inlineStr"/>
+      <c r="E1463" t="inlineStr"/>
+      <c r="F1463" t="inlineStr"/>
+      <c r="G1463" t="inlineStr"/>
+      <c r="H1463" t="inlineStr"/>
+      <c r="I1463" t="inlineStr"/>
+    </row>
+    <row r="1464">
+      <c r="A1464" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+      <c r="B1464" t="inlineStr"/>
+      <c r="C1464" t="inlineStr"/>
+      <c r="D1464" t="inlineStr"/>
+      <c r="E1464" t="inlineStr"/>
+      <c r="F1464" t="inlineStr"/>
+      <c r="G1464" t="inlineStr"/>
+      <c r="H1464" t="inlineStr"/>
+      <c r="I1464" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
